--- a/right_hip_Data_Variable.xlsx
+++ b/right_hip_Data_Variable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HU4"/>
+  <dimension ref="A1:NM4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1121,2072 +1121,3848 @@
       <c r="HU1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ML1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ND1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NM1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>252.8082275390625</v>
+        <v>310.2254333496094</v>
       </c>
       <c r="B2" t="n">
-        <v>253.4573669433594</v>
+        <v>314.5982666015625</v>
       </c>
       <c r="C2" t="n">
-        <v>225.5078735351562</v>
+        <v>322.8191528320312</v>
       </c>
       <c r="D2" t="n">
-        <v>209.2527923583984</v>
+        <v>325.667724609375</v>
       </c>
       <c r="E2" t="n">
-        <v>261.4685363769531</v>
+        <v>328.3293151855469</v>
       </c>
       <c r="F2" t="n">
-        <v>219.9130859375</v>
+        <v>331.7501831054688</v>
       </c>
       <c r="G2" t="n">
-        <v>268.8634338378906</v>
+        <v>337.1487731933594</v>
       </c>
       <c r="H2" t="n">
-        <v>234.361083984375</v>
+        <v>344.3684692382812</v>
       </c>
       <c r="I2" t="n">
-        <v>247.7710723876953</v>
+        <v>351.8695678710938</v>
       </c>
       <c r="J2" t="n">
-        <v>259.0822448730469</v>
+        <v>357.89208984375</v>
       </c>
       <c r="K2" t="n">
-        <v>289.8729858398438</v>
+        <v>364.662841796875</v>
       </c>
       <c r="L2" t="n">
-        <v>295.4325866699219</v>
+        <v>370.411865234375</v>
       </c>
       <c r="M2" t="n">
-        <v>298.6627502441406</v>
+        <v>392.2938537597656</v>
       </c>
       <c r="N2" t="n">
-        <v>302.4542236328125</v>
+        <v>394.1546020507812</v>
       </c>
       <c r="O2" t="n">
-        <v>283.01513671875</v>
+        <v>395.1720581054688</v>
       </c>
       <c r="P2" t="n">
-        <v>282.4644470214844</v>
+        <v>394.45654296875</v>
       </c>
       <c r="Q2" t="n">
-        <v>292.1168518066406</v>
+        <v>394.5002746582031</v>
       </c>
       <c r="R2" t="n">
-        <v>296.2970581054688</v>
+        <v>394.0285949707031</v>
       </c>
       <c r="S2" t="n">
-        <v>296.4820861816406</v>
+        <v>392.8497924804688</v>
       </c>
       <c r="T2" t="n">
-        <v>295.7156982421875</v>
+        <v>391.009033203125</v>
       </c>
       <c r="U2" t="n">
-        <v>296.2600708007812</v>
+        <v>387.5975036621094</v>
       </c>
       <c r="V2" t="n">
-        <v>297.7103576660156</v>
+        <v>383.1727600097656</v>
       </c>
       <c r="W2" t="n">
-        <v>300.1331787109375</v>
+        <v>378.5051879882812</v>
       </c>
       <c r="X2" t="n">
-        <v>301.5972900390625</v>
+        <v>374.3789978027344</v>
       </c>
       <c r="Y2" t="n">
-        <v>303.5385131835938</v>
+        <v>370.6719970703125</v>
       </c>
       <c r="Z2" t="n">
-        <v>304.9241333007812</v>
+        <v>367.0429077148438</v>
       </c>
       <c r="AA2" t="n">
-        <v>307.1305541992188</v>
+        <v>362.2253723144531</v>
       </c>
       <c r="AB2" t="n">
-        <v>308.0140686035156</v>
+        <v>359.2676391601562</v>
       </c>
       <c r="AC2" t="n">
-        <v>308.0330810546875</v>
+        <v>357.2691650390625</v>
       </c>
       <c r="AD2" t="n">
-        <v>307.941650390625</v>
+        <v>354.5977172851562</v>
       </c>
       <c r="AE2" t="n">
-        <v>308.4716796875</v>
+        <v>353.9502258300781</v>
       </c>
       <c r="AF2" t="n">
-        <v>309.5827026367188</v>
+        <v>352.2660522460938</v>
       </c>
       <c r="AG2" t="n">
-        <v>310.8898315429688</v>
+        <v>352.1216430664062</v>
       </c>
       <c r="AH2" t="n">
-        <v>311.6024475097656</v>
+        <v>349.7643432617188</v>
       </c>
       <c r="AI2" t="n">
-        <v>311.96484375</v>
+        <v>351.3045043945312</v>
       </c>
       <c r="AJ2" t="n">
-        <v>312.7880249023438</v>
+        <v>350.3222045898438</v>
       </c>
       <c r="AK2" t="n">
-        <v>313.1476440429688</v>
+        <v>351.5521545410156</v>
       </c>
       <c r="AL2" t="n">
-        <v>313.2656860351562</v>
+        <v>350.4435729980469</v>
       </c>
       <c r="AM2" t="n">
-        <v>313.9953308105469</v>
+        <v>348.9981384277344</v>
       </c>
       <c r="AN2" t="n">
-        <v>315.1049499511719</v>
+        <v>346.031005859375</v>
       </c>
       <c r="AO2" t="n">
-        <v>316.0381774902344</v>
+        <v>344.1083374023438</v>
       </c>
       <c r="AP2" t="n">
-        <v>316.4411010742188</v>
+        <v>342.2884521484375</v>
       </c>
       <c r="AQ2" t="n">
-        <v>316.7506408691406</v>
+        <v>342.2307739257812</v>
       </c>
       <c r="AR2" t="n">
-        <v>317.2596740722656</v>
+        <v>342.5561218261719</v>
       </c>
       <c r="AS2" t="n">
-        <v>317.0536193847656</v>
+        <v>342.9882202148438</v>
       </c>
       <c r="AT2" t="n">
-        <v>317.6891174316406</v>
+        <v>343.8147583007812</v>
       </c>
       <c r="AU2" t="n">
-        <v>318.5110473632812</v>
+        <v>344.0447387695312</v>
       </c>
       <c r="AV2" t="n">
-        <v>319.5340270996094</v>
+        <v>344.4047546386719</v>
       </c>
       <c r="AW2" t="n">
-        <v>319.5257568359375</v>
+        <v>344.4497375488281</v>
       </c>
       <c r="AX2" t="n">
-        <v>319.8624877929688</v>
+        <v>344.4614868164062</v>
       </c>
       <c r="AY2" t="n">
-        <v>319.9382934570312</v>
+        <v>343.767333984375</v>
       </c>
       <c r="AZ2" t="n">
-        <v>320.4398193359375</v>
+        <v>342.0766906738281</v>
       </c>
       <c r="BA2" t="n">
-        <v>320.430419921875</v>
+        <v>340.175048828125</v>
       </c>
       <c r="BB2" t="n">
-        <v>320.1457214355469</v>
+        <v>337.8629760742188</v>
       </c>
       <c r="BC2" t="n">
-        <v>319.5771789550781</v>
+        <v>335.7744140625</v>
       </c>
       <c r="BD2" t="n">
-        <v>318.2780151367188</v>
+        <v>333.3372802734375</v>
       </c>
       <c r="BE2" t="n">
-        <v>318.5870361328125</v>
+        <v>331.1779479980469</v>
       </c>
       <c r="BF2" t="n">
-        <v>318.8453063964844</v>
+        <v>328.3663635253906</v>
       </c>
       <c r="BG2" t="n">
-        <v>315.8341674804688</v>
+        <v>326.2344665527344</v>
       </c>
       <c r="BH2" t="n">
-        <v>316.1320495605469</v>
+        <v>323.5721435546875</v>
       </c>
       <c r="BI2" t="n">
-        <v>316.5283813476562</v>
+        <v>320.7596435546875</v>
       </c>
       <c r="BJ2" t="n">
-        <v>315.8981018066406</v>
+        <v>318.5409851074219</v>
       </c>
       <c r="BK2" t="n">
-        <v>314.3522644042969</v>
+        <v>315.6764831542969</v>
       </c>
       <c r="BL2" t="n">
-        <v>311.2363586425781</v>
+        <v>311.5755310058594</v>
       </c>
       <c r="BM2" t="n">
-        <v>310.2401123046875</v>
+        <v>307.4013671875</v>
       </c>
       <c r="BN2" t="n">
-        <v>309.9367980957031</v>
+        <v>302.6331481933594</v>
       </c>
       <c r="BO2" t="n">
-        <v>307.3309936523438</v>
+        <v>295.2219848632812</v>
       </c>
       <c r="BP2" t="n">
-        <v>309.3267211914062</v>
+        <v>291.8135986328125</v>
       </c>
       <c r="BQ2" t="n">
-        <v>307.0944519042969</v>
+        <v>289.078857421875</v>
       </c>
       <c r="BR2" t="n">
-        <v>307.7413940429688</v>
+        <v>286.5067138671875</v>
       </c>
       <c r="BS2" t="n">
-        <v>306.0090026855469</v>
+        <v>283.7770080566406</v>
       </c>
       <c r="BT2" t="n">
-        <v>305.7320861816406</v>
+        <v>281.4935913085938</v>
       </c>
       <c r="BU2" t="n">
-        <v>306.1822814941406</v>
+        <v>280.3475646972656</v>
       </c>
       <c r="BV2" t="n">
-        <v>303.7877807617188</v>
+        <v>279.5631408691406</v>
       </c>
       <c r="BW2" t="n">
-        <v>304.1444396972656</v>
+        <v>279.0726013183594</v>
       </c>
       <c r="BX2" t="n">
-        <v>305.6978759765625</v>
+        <v>278.8935241699219</v>
       </c>
       <c r="BY2" t="n">
-        <v>304.1010437011719</v>
+        <v>279.7483215332031</v>
       </c>
       <c r="BZ2" t="n">
-        <v>305.4292907714844</v>
+        <v>280.6907958984375</v>
       </c>
       <c r="CA2" t="n">
-        <v>306.9701538085938</v>
+        <v>283.0169372558594</v>
       </c>
       <c r="CB2" t="n">
-        <v>305.5902099609375</v>
+        <v>286.4098205566406</v>
       </c>
       <c r="CC2" t="n">
-        <v>305.6072998046875</v>
+        <v>290.18017578125</v>
       </c>
       <c r="CD2" t="n">
-        <v>304.9267883300781</v>
+        <v>293.4346313476562</v>
       </c>
       <c r="CE2" t="n">
-        <v>305.4202575683594</v>
+        <v>299.8103332519531</v>
       </c>
       <c r="CF2" t="n">
-        <v>306.2336120605469</v>
+        <v>304.0079650878906</v>
       </c>
       <c r="CG2" t="n">
-        <v>306.0236206054688</v>
+        <v>307.6932373046875</v>
       </c>
       <c r="CH2" t="n">
-        <v>306.8680725097656</v>
+        <v>311.8286437988281</v>
       </c>
       <c r="CI2" t="n">
-        <v>306.7386474609375</v>
+        <v>316.627197265625</v>
       </c>
       <c r="CJ2" t="n">
-        <v>305.8509521484375</v>
+        <v>319.4044799804688</v>
       </c>
       <c r="CK2" t="n">
-        <v>306.5552062988281</v>
+        <v>322.4325866699219</v>
       </c>
       <c r="CL2" t="n">
-        <v>308.1764831542969</v>
+        <v>325.1109008789062</v>
       </c>
       <c r="CM2" t="n">
-        <v>306.1239318847656</v>
+        <v>327.7477416992188</v>
       </c>
       <c r="CN2" t="n">
-        <v>307.5100402832031</v>
+        <v>331.2196655273438</v>
       </c>
       <c r="CO2" t="n">
-        <v>306.0438537597656</v>
+        <v>332.4781494140625</v>
       </c>
       <c r="CP2" t="n">
-        <v>304.6049194335938</v>
+        <v>333.9346313476562</v>
       </c>
       <c r="CQ2" t="n">
-        <v>303.467529296875</v>
+        <v>335.3731689453125</v>
       </c>
       <c r="CR2" t="n">
-        <v>304.0765686035156</v>
+        <v>336.2974548339844</v>
       </c>
       <c r="CS2" t="n">
-        <v>302.1143493652344</v>
+        <v>337.1170654296875</v>
       </c>
       <c r="CT2" t="n">
-        <v>301.7134399414062</v>
+        <v>337.5661926269531</v>
       </c>
       <c r="CU2" t="n">
-        <v>301.2013854980469</v>
+        <v>337.8191528320312</v>
       </c>
       <c r="CV2" t="n">
-        <v>301.4390869140625</v>
+        <v>336.8163757324219</v>
       </c>
       <c r="CW2" t="n">
-        <v>298.972900390625</v>
+        <v>335.5424194335938</v>
       </c>
       <c r="CX2" t="n">
-        <v>297.4331970214844</v>
+        <v>331.8169555664062</v>
       </c>
       <c r="CY2" t="n">
-        <v>295.491943359375</v>
+        <v>328.2073364257812</v>
       </c>
       <c r="CZ2" t="n">
-        <v>291.4843444824219</v>
+        <v>320.5074462890625</v>
       </c>
       <c r="DA2" t="n">
-        <v>289.2155151367188</v>
+        <v>317.6910705566406</v>
       </c>
       <c r="DB2" t="n">
-        <v>287.7999877929688</v>
+        <v>315.6924743652344</v>
       </c>
       <c r="DC2" t="n">
-        <v>288.062744140625</v>
+        <v>312.5914916992188</v>
       </c>
       <c r="DD2" t="n">
-        <v>288.6975708007812</v>
+        <v>308.5101013183594</v>
       </c>
       <c r="DE2" t="n">
-        <v>289.5772094726562</v>
+        <v>302.2157897949219</v>
       </c>
       <c r="DF2" t="n">
-        <v>289.3623046875</v>
+        <v>297.641357421875</v>
       </c>
       <c r="DG2" t="n">
-        <v>289.69482421875</v>
+        <v>296.3964233398438</v>
       </c>
       <c r="DH2" t="n">
-        <v>290.9617004394531</v>
+        <v>293.4560852050781</v>
       </c>
       <c r="DI2" t="n">
-        <v>288.9595642089844</v>
+        <v>292.2041931152344</v>
       </c>
       <c r="DJ2" t="n">
-        <v>289.3000183105469</v>
+        <v>290.7705993652344</v>
       </c>
       <c r="DK2" t="n">
-        <v>291.5293273925781</v>
+        <v>289.9884643554688</v>
       </c>
       <c r="DL2" t="n">
-        <v>293.5166320800781</v>
+        <v>289.7789001464844</v>
       </c>
       <c r="DM2" t="n">
-        <v>295.2495727539062</v>
+        <v>289.6393737792969</v>
       </c>
       <c r="DN2" t="n">
-        <v>298.2262573242188</v>
+        <v>288.2273254394531</v>
       </c>
       <c r="DO2" t="n">
-        <v>299.3260192871094</v>
+        <v>285.967041015625</v>
       </c>
       <c r="DP2" t="n">
-        <v>302.5844421386719</v>
+        <v>283.2247924804688</v>
       </c>
       <c r="DQ2" t="n">
-        <v>303.2014465332031</v>
+        <v>279.8166809082031</v>
       </c>
       <c r="DR2" t="n">
-        <v>304.4027709960938</v>
+        <v>278.9904174804688</v>
       </c>
       <c r="DS2" t="n">
-        <v>309.6526489257812</v>
+        <v>278.7268371582031</v>
       </c>
       <c r="DT2" t="n">
-        <v>309.0039978027344</v>
+        <v>278.7326965332031</v>
       </c>
       <c r="DU2" t="n">
-        <v>312.7561645507812</v>
+        <v>277.9268188476562</v>
       </c>
       <c r="DV2" t="n">
-        <v>316.3460693359375</v>
+        <v>278.10009765625</v>
       </c>
       <c r="DW2" t="n">
-        <v>319.2340393066406</v>
+        <v>282.1225280761719</v>
       </c>
       <c r="DX2" t="n">
-        <v>320.9362182617188</v>
+        <v>286.6750183105469</v>
       </c>
       <c r="DY2" t="n">
-        <v>322.6425476074219</v>
+        <v>290.5242919921875</v>
       </c>
       <c r="DZ2" t="n">
-        <v>323.9496459960938</v>
+        <v>295.8890075683594</v>
       </c>
       <c r="EA2" t="n">
-        <v>324.1096496582031</v>
+        <v>299.8592224121094</v>
       </c>
       <c r="EB2" t="n">
-        <v>324.8055419921875</v>
+        <v>312.3453063964844</v>
       </c>
       <c r="EC2" t="n">
-        <v>324.78857421875</v>
+        <v>320.9151611328125</v>
       </c>
       <c r="ED2" t="n">
-        <v>324.7662658691406</v>
+        <v>327.5971984863281</v>
       </c>
       <c r="EE2" t="n">
-        <v>323.2689208984375</v>
+        <v>341.5941772460938</v>
       </c>
       <c r="EF2" t="n">
-        <v>320.1110229492188</v>
+        <v>359.5001831054688</v>
       </c>
       <c r="EG2" t="n">
-        <v>318.9146423339844</v>
+        <v>375.7190551757812</v>
       </c>
       <c r="EH2" t="n">
-        <v>316.6155395507812</v>
+        <v>382.9461975097656</v>
       </c>
       <c r="EI2" t="n">
-        <v>315.9427185058594</v>
+        <v>394.4133911132812</v>
       </c>
       <c r="EJ2" t="n">
-        <v>316.0252075195312</v>
+        <v>398.2593383789062</v>
       </c>
       <c r="EK2" t="n">
-        <v>316.2688598632812</v>
+        <v>404.0461730957031</v>
       </c>
       <c r="EL2" t="n">
-        <v>311.8964538574219</v>
+        <v>408.6551513671875</v>
       </c>
       <c r="EM2" t="n">
-        <v>309.6520690917969</v>
+        <v>416.3499145507812</v>
       </c>
       <c r="EN2" t="n">
-        <v>308.0392150878906</v>
+        <v>419.613037109375</v>
       </c>
       <c r="EO2" t="n">
-        <v>306.3541564941406</v>
+        <v>424.1570434570312</v>
       </c>
       <c r="EP2" t="n">
-        <v>303.4391174316406</v>
+        <v>424.7537841796875</v>
       </c>
       <c r="EQ2" t="n">
-        <v>301.5108032226562</v>
+        <v>435.0067138671875</v>
       </c>
       <c r="ER2" t="n">
-        <v>299.4239196777344</v>
+        <v>435.3524780273438</v>
       </c>
       <c r="ES2" t="n">
-        <v>298.8557434082031</v>
+        <v>434.3477172851562</v>
       </c>
       <c r="ET2" t="n">
-        <v>298.3724975585938</v>
+        <v>436.9691772460938</v>
       </c>
       <c r="EU2" t="n">
-        <v>298.4442443847656</v>
+        <v>436.614013671875</v>
       </c>
       <c r="EV2" t="n">
-        <v>298.9620056152344</v>
+        <v>434.8317260742188</v>
       </c>
       <c r="EW2" t="n">
-        <v>303.6724243164062</v>
+        <v>435.6319580078125</v>
       </c>
       <c r="EX2" t="n">
-        <v>303.6514892578125</v>
+        <v>436.5650024414062</v>
       </c>
       <c r="EY2" t="n">
-        <v>302.8984680175781</v>
+        <v>433.9258117675781</v>
       </c>
       <c r="EZ2" t="n">
-        <v>302.6005859375</v>
+        <v>432.6069946289062</v>
       </c>
       <c r="FA2" t="n">
-        <v>300.1599426269531</v>
+        <v>431.2615356445312</v>
       </c>
       <c r="FB2" t="n">
-        <v>300.4260559082031</v>
+        <v>431.9168701171875</v>
       </c>
       <c r="FC2" t="n">
-        <v>300.9097290039062</v>
+        <v>429.1025390625</v>
       </c>
       <c r="FD2" t="n">
-        <v>301.0877685546875</v>
+        <v>427.615966796875</v>
       </c>
       <c r="FE2" t="n">
-        <v>301.0567321777344</v>
+        <v>426.974365234375</v>
       </c>
       <c r="FF2" t="n">
-        <v>301.2011108398438</v>
+        <v>425.58251953125</v>
       </c>
       <c r="FG2" t="n">
-        <v>301.6303100585938</v>
+        <v>424.0350341796875</v>
       </c>
       <c r="FH2" t="n">
-        <v>302.1017761230469</v>
+        <v>424.3536376953125</v>
       </c>
       <c r="FI2" t="n">
-        <v>301.7064819335938</v>
+        <v>424.101318359375</v>
       </c>
       <c r="FJ2" t="n">
-        <v>301.3624572753906</v>
+        <v>424.0581665039062</v>
       </c>
       <c r="FK2" t="n">
-        <v>300.6697692871094</v>
+        <v>423.2600708007812</v>
       </c>
       <c r="FL2" t="n">
-        <v>299.388671875</v>
+        <v>422.1422729492188</v>
       </c>
       <c r="FM2" t="n">
-        <v>297.7635192871094</v>
+        <v>419.7582702636719</v>
       </c>
       <c r="FN2" t="n">
-        <v>299.8207092285156</v>
+        <v>419.0277709960938</v>
       </c>
       <c r="FO2" t="n">
-        <v>297.1910400390625</v>
+        <v>418.049560546875</v>
       </c>
       <c r="FP2" t="n">
-        <v>295.935302734375</v>
+        <v>415.5659790039062</v>
       </c>
       <c r="FQ2" t="n">
-        <v>298.1620483398438</v>
+        <v>414.7120361328125</v>
       </c>
       <c r="FR2" t="n">
-        <v>294.6992797851562</v>
+        <v>411.0741577148438</v>
       </c>
       <c r="FS2" t="n">
-        <v>293.8703918457031</v>
+        <v>409.0012817382812</v>
       </c>
       <c r="FT2" t="n">
-        <v>293.7489929199219</v>
+        <v>405.3816528320312</v>
       </c>
       <c r="FU2" t="n">
-        <v>292.1282043457031</v>
+        <v>403.1980895996094</v>
       </c>
       <c r="FV2" t="n">
-        <v>290.3774108886719</v>
+        <v>396.9638671875</v>
       </c>
       <c r="FW2" t="n">
-        <v>290.4481506347656</v>
+        <v>394.0454406738281</v>
       </c>
       <c r="FX2" t="n">
-        <v>289.9309387207031</v>
+        <v>393.3591003417969</v>
       </c>
       <c r="FY2" t="n">
-        <v>290.1307067871094</v>
+        <v>392.6542358398438</v>
       </c>
       <c r="FZ2" t="n">
-        <v>289.812744140625</v>
+        <v>389.9273071289062</v>
       </c>
       <c r="GA2" t="n">
-        <v>290.3534240722656</v>
+        <v>388.3005065917969</v>
       </c>
       <c r="GB2" t="n">
-        <v>290.0404052734375</v>
+        <v>383.5358276367188</v>
       </c>
       <c r="GC2" t="n">
-        <v>291.538330078125</v>
+        <v>382.2835693359375</v>
       </c>
       <c r="GD2" t="n">
-        <v>290.0547790527344</v>
+        <v>381.4038696289062</v>
       </c>
       <c r="GE2" t="n">
-        <v>290.938232421875</v>
+        <v>381.0867614746094</v>
       </c>
       <c r="GF2" t="n">
-        <v>290.9231872558594</v>
+        <v>377.9900512695312</v>
       </c>
       <c r="GG2" t="n">
-        <v>291.3622131347656</v>
+        <v>376.0970764160156</v>
       </c>
       <c r="GH2" t="n">
-        <v>291.431396484375</v>
+        <v>372.80419921875</v>
       </c>
       <c r="GI2" t="n">
-        <v>292.6151428222656</v>
+        <v>368.9114990234375</v>
       </c>
       <c r="GJ2" t="n">
-        <v>290.8713684082031</v>
+        <v>366.003173828125</v>
       </c>
       <c r="GK2" t="n">
-        <v>290.4117431640625</v>
+        <v>363.6738586425781</v>
       </c>
       <c r="GL2" t="n">
-        <v>289.4300537109375</v>
+        <v>359.0513305664062</v>
       </c>
       <c r="GM2" t="n">
-        <v>289.4384765625</v>
+        <v>355.3030395507812</v>
       </c>
       <c r="GN2" t="n">
-        <v>289.181640625</v>
+        <v>352.9891662597656</v>
       </c>
       <c r="GO2" t="n">
-        <v>290.0771484375</v>
+        <v>349.5485229492188</v>
       </c>
       <c r="GP2" t="n">
-        <v>289.1814270019531</v>
+        <v>344.3164367675781</v>
       </c>
       <c r="GQ2" t="n">
-        <v>289.0704650878906</v>
+        <v>338.1708068847656</v>
       </c>
       <c r="GR2" t="n">
-        <v>288.9187927246094</v>
+        <v>335.3969116210938</v>
       </c>
       <c r="GS2" t="n">
-        <v>287.4346008300781</v>
+        <v>333.3132934570312</v>
       </c>
       <c r="GT2" t="n">
-        <v>286.6076049804688</v>
+        <v>330.9258422851562</v>
       </c>
       <c r="GU2" t="n">
-        <v>285.0546875</v>
+        <v>325.4055480957031</v>
       </c>
       <c r="GV2" t="n">
-        <v>281.2553100585938</v>
+        <v>322.8121337890625</v>
       </c>
       <c r="GW2" t="n">
-        <v>278.9627075195312</v>
+        <v>321.592529296875</v>
       </c>
       <c r="GX2" t="n">
-        <v>277.1051635742188</v>
+        <v>321.0260009765625</v>
       </c>
       <c r="GY2" t="n">
-        <v>275.3196105957031</v>
+        <v>319.354736328125</v>
       </c>
       <c r="GZ2" t="n">
-        <v>273.4830932617188</v>
+        <v>318.5867614746094</v>
       </c>
       <c r="HA2" t="n">
-        <v>270.8341979980469</v>
+        <v>317.2108764648438</v>
       </c>
       <c r="HB2" t="n">
-        <v>269.8072509765625</v>
+        <v>316.4241333007812</v>
       </c>
       <c r="HC2" t="n">
-        <v>268.4873352050781</v>
+        <v>315.69970703125</v>
       </c>
       <c r="HD2" t="n">
-        <v>267.3247375488281</v>
+        <v>315.2440185546875</v>
       </c>
       <c r="HE2" t="n">
-        <v>266.965576171875</v>
+        <v>313.3414001464844</v>
       </c>
       <c r="HF2" t="n">
-        <v>262.6878662109375</v>
+        <v>311.6097106933594</v>
       </c>
       <c r="HG2" t="n">
-        <v>260.0060424804688</v>
+        <v>311.8033752441406</v>
       </c>
       <c r="HH2" t="n">
-        <v>258.8278503417969</v>
+        <v>314.9638977050781</v>
       </c>
       <c r="HI2" t="n">
-        <v>256.6325073242188</v>
+        <v>317.4302673339844</v>
       </c>
       <c r="HJ2" t="n">
-        <v>253.1957855224609</v>
+        <v>323.2797241210938</v>
       </c>
       <c r="HK2" t="n">
-        <v>247.826171875</v>
+        <v>327.559326171875</v>
       </c>
       <c r="HL2" t="n">
-        <v>240.5530090332031</v>
+        <v>334.3479614257812</v>
       </c>
       <c r="HM2" t="n">
-        <v>230.0355224609375</v>
+        <v>342.0988464355469</v>
       </c>
       <c r="HN2" t="n">
-        <v>213.2673492431641</v>
+        <v>352.1365966796875</v>
       </c>
       <c r="HO2" t="n">
-        <v>204.1988830566406</v>
+        <v>364.5612182617188</v>
       </c>
       <c r="HP2" t="n">
-        <v>197.7926330566406</v>
+        <v>375.029541015625</v>
       </c>
       <c r="HQ2" t="n">
-        <v>195.2374267578125</v>
+        <v>378.6941833496094</v>
       </c>
       <c r="HR2" t="n">
-        <v>193.1144409179688</v>
+        <v>387.9925842285156</v>
       </c>
       <c r="HS2" t="n">
-        <v>184.7725067138672</v>
+        <v>392.7420654296875</v>
       </c>
       <c r="HT2" t="n">
-        <v>176.8176116943359</v>
+        <v>397.3680419921875</v>
       </c>
       <c r="HU2" t="n">
-        <v>177.8640441894531</v>
+        <v>400.7174377441406</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>401.8859252929688</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>402.4395141601562</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>402.9346008300781</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>403.4805603027344</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>404.5150451660156</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>404.9681091308594</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>405.0834655761719</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>405.1052551269531</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>403.5107116699219</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>399.9719848632812</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>397.14501953125</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>393.824951171875</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>388.4183044433594</v>
+      </c>
+      <c r="II2" t="n">
+        <v>384.6152038574219</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>378.0310363769531</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>365.128173828125</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>360.6661376953125</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>352.8363647460938</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>343.2143859863281</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>336.2879638671875</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>334.1205444335938</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>332.5954895019531</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>331.934326171875</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>331.5378112792969</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>330.2831420898438</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>328.2946166992188</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>326.607666015625</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>326.1543579101562</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>324.726318359375</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>324.6266479492188</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>324.8770446777344</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>326.8203125</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>329.9199829101562</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>332.0784912109375</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>334.8347473144531</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>339.0258178710938</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>343.0525512695312</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>349.7440795898438</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>354.7037048339844</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>359.4735107421875</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>363.9399719238281</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>368.9621276855469</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>375.8585205078125</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>377.3819580078125</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>378.872314453125</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>380.87939453125</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>383.3544311523438</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>385.7564086914062</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>386.98681640625</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>389.3887939453125</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>391.4527587890625</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>392.4630126953125</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>392.76513671875</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>392.910400390625</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>392.9954223632812</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>393.0621032714844</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>393.1225891113281</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>393.2585144042969</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>391.95703125</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>390.0151977539062</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>388.7657470703125</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>387.8309936523438</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>387.4915161132812</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>387.4921875</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>387.6359252929688</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>387.8386840820312</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>388.0813293457031</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>388.2983093261719</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>388.4627075195312</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>388.4072265625</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>388.3437805175781</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>388.6680908203125</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>389.1784057617188</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>389.8519592285156</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>390.1655883789062</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>391.5227661132812</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>392.6908874511719</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>393.4093017578125</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>393.1143188476562</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>393.1574096679688</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>393.1611633300781</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>394.0421142578125</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>395.7198791503906</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>396.7047424316406</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>397.8882141113281</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>399.4191284179688</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>401.1883850097656</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>403.8076782226562</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>407.1649780273438</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>407.9488525390625</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>411.3489379882812</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>415.9589233398438</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>420.0538940429688</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>421.662841796875</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>424.5215454101562</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>424.138427734375</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>422.8466186523438</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>420.8776550292969</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>426.5621948242188</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>438.0533447265625</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>445.56201171875</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>447.31689453125</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>451.1623840332031</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>453.8689575195312</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>451.6170654296875</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>434.8385620117188</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>429.8465270996094</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>416.9219970703125</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>394.8665161132812</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>369.37060546875</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>344.1002807617188</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>321.40869140625</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>303.3062133789062</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>301.4769287109375</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>303.1114501953125</v>
+      </c>
+      <c r="MG2" t="n">
+        <v>309.6549682617188</v>
+      </c>
+      <c r="MH2" t="n">
+        <v>314.733154296875</v>
+      </c>
+      <c r="MI2" t="n">
+        <v>320.859619140625</v>
+      </c>
+      <c r="MJ2" t="n">
+        <v>327.0216064453125</v>
+      </c>
+      <c r="MK2" t="n">
+        <v>337.1556091308594</v>
+      </c>
+      <c r="ML2" t="n">
+        <v>344.2418823242188</v>
+      </c>
+      <c r="MM2" t="n">
+        <v>365.7611694335938</v>
+      </c>
+      <c r="MN2" t="n">
+        <v>363.3472900390625</v>
+      </c>
+      <c r="MO2" t="n">
+        <v>366.4683837890625</v>
+      </c>
+      <c r="MP2" t="n">
+        <v>369.8175354003906</v>
+      </c>
+      <c r="MQ2" t="n">
+        <v>367.5332641601562</v>
+      </c>
+      <c r="MR2" t="n">
+        <v>346.3028259277344</v>
+      </c>
+      <c r="MS2" t="n">
+        <v>375.2646484375</v>
+      </c>
+      <c r="MT2" t="n">
+        <v>402.2289428710938</v>
+      </c>
+      <c r="MU2" t="n">
+        <v>397.1625061035156</v>
+      </c>
+      <c r="MV2" t="n">
+        <v>354.3610229492188</v>
+      </c>
+      <c r="MW2" t="n">
+        <v>348.6256103515625</v>
+      </c>
+      <c r="MX2" t="n">
+        <v>339.934326171875</v>
+      </c>
+      <c r="MY2" t="n">
+        <v>307.4857177734375</v>
+      </c>
+      <c r="MZ2" t="n">
+        <v>327.0354919433594</v>
+      </c>
+      <c r="NA2" t="n">
+        <v>323.8872680664062</v>
+      </c>
+      <c r="NB2" t="n">
+        <v>280.7858276367188</v>
+      </c>
+      <c r="NC2" t="n">
+        <v>265.8688659667969</v>
+      </c>
+      <c r="ND2" t="n">
+        <v>272.0917358398438</v>
+      </c>
+      <c r="NE2" t="n">
+        <v>274.9955139160156</v>
+      </c>
+      <c r="NF2" t="n">
+        <v>275.6927490234375</v>
+      </c>
+      <c r="NG2" t="n">
+        <v>277.1116027832031</v>
+      </c>
+      <c r="NH2" t="n">
+        <v>277.1333312988281</v>
+      </c>
+      <c r="NI2" t="n">
+        <v>279.3191528320312</v>
+      </c>
+      <c r="NJ2" t="n">
+        <v>281.8798828125</v>
+      </c>
+      <c r="NK2" t="n">
+        <v>283.55224609375</v>
+      </c>
+      <c r="NL2" t="n">
+        <v>282.9685668945312</v>
+      </c>
+      <c r="NM2" t="n">
+        <v>286.5022888183594</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>449.292236328125</v>
+        <v>390.1651916503906</v>
       </c>
       <c r="B3" t="n">
-        <v>444.6592712402344</v>
+        <v>382.2511596679688</v>
       </c>
       <c r="C3" t="n">
-        <v>443.5776672363281</v>
+        <v>384.0939331054688</v>
       </c>
       <c r="D3" t="n">
-        <v>409.28857421875</v>
+        <v>383.5965576171875</v>
       </c>
       <c r="E3" t="n">
-        <v>436.3004455566406</v>
+        <v>384.6411437988281</v>
       </c>
       <c r="F3" t="n">
-        <v>404.9899291992188</v>
+        <v>382.476318359375</v>
       </c>
       <c r="G3" t="n">
-        <v>430.5872802734375</v>
+        <v>379.5060729980469</v>
       </c>
       <c r="H3" t="n">
-        <v>403.982421875</v>
+        <v>376.3790588378906</v>
       </c>
       <c r="I3" t="n">
-        <v>418.8487243652344</v>
+        <v>372.0662841796875</v>
       </c>
       <c r="J3" t="n">
-        <v>414.9111633300781</v>
+        <v>369.3463745117188</v>
       </c>
       <c r="K3" t="n">
-        <v>428.1055603027344</v>
+        <v>366.5009765625</v>
       </c>
       <c r="L3" t="n">
-        <v>422.5706176757812</v>
+        <v>363.0281066894531</v>
       </c>
       <c r="M3" t="n">
-        <v>425.0054321289062</v>
+        <v>368.1357727050781</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2662963867188</v>
+        <v>356.1870422363281</v>
       </c>
       <c r="O3" t="n">
-        <v>380.7691345214844</v>
+        <v>359.3636474609375</v>
       </c>
       <c r="P3" t="n">
-        <v>323.8305969238281</v>
+        <v>353.7201538085938</v>
       </c>
       <c r="Q3" t="n">
-        <v>317.6163940429688</v>
+        <v>352.0291137695312</v>
       </c>
       <c r="R3" t="n">
-        <v>312.7192687988281</v>
+        <v>351.9912719726562</v>
       </c>
       <c r="S3" t="n">
-        <v>313.1802368164062</v>
+        <v>352.6277160644531</v>
       </c>
       <c r="T3" t="n">
-        <v>314.8611145019531</v>
+        <v>351.3376770019531</v>
       </c>
       <c r="U3" t="n">
-        <v>316.6826171875</v>
+        <v>350.208740234375</v>
       </c>
       <c r="V3" t="n">
-        <v>318.8546142578125</v>
+        <v>349.2012634277344</v>
       </c>
       <c r="W3" t="n">
-        <v>321.9607849121094</v>
+        <v>348.4002075195312</v>
       </c>
       <c r="X3" t="n">
-        <v>321.6592407226562</v>
+        <v>348.4251403808594</v>
       </c>
       <c r="Y3" t="n">
-        <v>320.2752380371094</v>
+        <v>354.8031616210938</v>
       </c>
       <c r="Z3" t="n">
-        <v>319.4472961425781</v>
+        <v>363.1242065429688</v>
       </c>
       <c r="AA3" t="n">
-        <v>316.9983215332031</v>
+        <v>364.5896606445312</v>
       </c>
       <c r="AB3" t="n">
-        <v>314.6509399414062</v>
+        <v>365.2212524414062</v>
       </c>
       <c r="AC3" t="n">
-        <v>312.6678466796875</v>
+        <v>365.37939453125</v>
       </c>
       <c r="AD3" t="n">
-        <v>311.3433227539062</v>
+        <v>364.3157348632812</v>
       </c>
       <c r="AE3" t="n">
-        <v>309.9104614257812</v>
+        <v>365.7934875488281</v>
       </c>
       <c r="AF3" t="n">
-        <v>307.9710388183594</v>
+        <v>363.1123352050781</v>
       </c>
       <c r="AG3" t="n">
-        <v>305.8634033203125</v>
+        <v>363.8835754394531</v>
       </c>
       <c r="AH3" t="n">
-        <v>304.1242370605469</v>
+        <v>353.4343872070312</v>
       </c>
       <c r="AI3" t="n">
-        <v>302.4524230957031</v>
+        <v>356.9229431152344</v>
       </c>
       <c r="AJ3" t="n">
-        <v>301.9399108886719</v>
+        <v>353.3413696289062</v>
       </c>
       <c r="AK3" t="n">
-        <v>301.9276733398438</v>
+        <v>358.6854553222656</v>
       </c>
       <c r="AL3" t="n">
-        <v>303.0225524902344</v>
+        <v>361.6952209472656</v>
       </c>
       <c r="AM3" t="n">
-        <v>306.7920837402344</v>
+        <v>366.9151611328125</v>
       </c>
       <c r="AN3" t="n">
-        <v>307.8832397460938</v>
+        <v>367.1011657714844</v>
       </c>
       <c r="AO3" t="n">
-        <v>306.3730773925781</v>
+        <v>367.7301330566406</v>
       </c>
       <c r="AP3" t="n">
-        <v>304.9354553222656</v>
+        <v>369.089599609375</v>
       </c>
       <c r="AQ3" t="n">
-        <v>303.3693237304688</v>
+        <v>371.1006774902344</v>
       </c>
       <c r="AR3" t="n">
-        <v>301.2181396484375</v>
+        <v>372.1374206542969</v>
       </c>
       <c r="AS3" t="n">
-        <v>299.5423583984375</v>
+        <v>372.4708251953125</v>
       </c>
       <c r="AT3" t="n">
-        <v>297.8758850097656</v>
+        <v>372.896484375</v>
       </c>
       <c r="AU3" t="n">
-        <v>296.8586730957031</v>
+        <v>372.1837768554688</v>
       </c>
       <c r="AV3" t="n">
-        <v>295.3444213867188</v>
+        <v>371.2255249023438</v>
       </c>
       <c r="AW3" t="n">
-        <v>291.97265625</v>
+        <v>370.4389038085938</v>
       </c>
       <c r="AX3" t="n">
-        <v>289.4137878417969</v>
+        <v>371.0567321777344</v>
       </c>
       <c r="AY3" t="n">
-        <v>287.8335876464844</v>
+        <v>372.2403564453125</v>
       </c>
       <c r="AZ3" t="n">
-        <v>288.1916198730469</v>
+        <v>373.1754150390625</v>
       </c>
       <c r="BA3" t="n">
-        <v>289.348388671875</v>
+        <v>373.7045288085938</v>
       </c>
       <c r="BB3" t="n">
-        <v>291.677978515625</v>
+        <v>372.8750305175781</v>
       </c>
       <c r="BC3" t="n">
-        <v>293.0427856445312</v>
+        <v>371.8576354980469</v>
       </c>
       <c r="BD3" t="n">
-        <v>292.1770629882812</v>
+        <v>368.6361694335938</v>
       </c>
       <c r="BE3" t="n">
-        <v>293.8499755859375</v>
+        <v>366.529296875</v>
       </c>
       <c r="BF3" t="n">
-        <v>293.5511474609375</v>
+        <v>364.1201782226562</v>
       </c>
       <c r="BG3" t="n">
-        <v>289.9448852539062</v>
+        <v>362.6948852539062</v>
       </c>
       <c r="BH3" t="n">
-        <v>289.6387023925781</v>
+        <v>360.0457153320312</v>
       </c>
       <c r="BI3" t="n">
-        <v>288.9804077148438</v>
+        <v>357.3468322753906</v>
       </c>
       <c r="BJ3" t="n">
-        <v>290.4930725097656</v>
+        <v>357.1053161621094</v>
       </c>
       <c r="BK3" t="n">
-        <v>290.0958251953125</v>
+        <v>358.2060241699219</v>
       </c>
       <c r="BL3" t="n">
-        <v>289.3440551757812</v>
+        <v>360.2630004882812</v>
       </c>
       <c r="BM3" t="n">
-        <v>289.9226989746094</v>
+        <v>361.9172973632812</v>
       </c>
       <c r="BN3" t="n">
-        <v>291.6727905273438</v>
+        <v>363.1155395507812</v>
       </c>
       <c r="BO3" t="n">
-        <v>284.8293762207031</v>
+        <v>364.298095703125</v>
       </c>
       <c r="BP3" t="n">
-        <v>285.138671875</v>
+        <v>364.0399169921875</v>
       </c>
       <c r="BQ3" t="n">
-        <v>279.3954162597656</v>
+        <v>363.8809814453125</v>
       </c>
       <c r="BR3" t="n">
-        <v>280.8979797363281</v>
+        <v>363.0308837890625</v>
       </c>
       <c r="BS3" t="n">
-        <v>280.4819641113281</v>
+        <v>361.8579711914062</v>
       </c>
       <c r="BT3" t="n">
-        <v>282.072509765625</v>
+        <v>360.6720275878906</v>
       </c>
       <c r="BU3" t="n">
-        <v>283.9447631835938</v>
+        <v>361.5330505371094</v>
       </c>
       <c r="BV3" t="n">
-        <v>279.980224609375</v>
+        <v>361.9539184570312</v>
       </c>
       <c r="BW3" t="n">
-        <v>281.0590515136719</v>
+        <v>362.0883483886719</v>
       </c>
       <c r="BX3" t="n">
-        <v>283.051025390625</v>
+        <v>362.0499572753906</v>
       </c>
       <c r="BY3" t="n">
-        <v>280.2434997558594</v>
+        <v>360.8621520996094</v>
       </c>
       <c r="BZ3" t="n">
-        <v>282.9312438964844</v>
+        <v>360.5131530761719</v>
       </c>
       <c r="CA3" t="n">
-        <v>284.4181823730469</v>
+        <v>360.8980712890625</v>
       </c>
       <c r="CB3" t="n">
-        <v>283.2100219726562</v>
+        <v>361.958740234375</v>
       </c>
       <c r="CC3" t="n">
-        <v>283.3809814453125</v>
+        <v>363.0901794433594</v>
       </c>
       <c r="CD3" t="n">
-        <v>281.0518493652344</v>
+        <v>363.2743530273438</v>
       </c>
       <c r="CE3" t="n">
-        <v>277.6908874511719</v>
+        <v>363.6022338867188</v>
       </c>
       <c r="CF3" t="n">
-        <v>280.0972290039062</v>
+        <v>363.7332458496094</v>
       </c>
       <c r="CG3" t="n">
-        <v>279.6454162597656</v>
+        <v>363.6086120605469</v>
       </c>
       <c r="CH3" t="n">
-        <v>280.7391052246094</v>
+        <v>363.8063354492188</v>
       </c>
       <c r="CI3" t="n">
-        <v>280.1343078613281</v>
+        <v>363.9432373046875</v>
       </c>
       <c r="CJ3" t="n">
-        <v>277.6409301757812</v>
+        <v>363.171142578125</v>
       </c>
       <c r="CK3" t="n">
-        <v>278.7711181640625</v>
+        <v>363.0748901367188</v>
       </c>
       <c r="CL3" t="n">
-        <v>280.8563842773438</v>
+        <v>363.2250671386719</v>
       </c>
       <c r="CM3" t="n">
-        <v>278.669189453125</v>
+        <v>363.5281066894531</v>
       </c>
       <c r="CN3" t="n">
-        <v>282.2387390136719</v>
+        <v>363.6003112792969</v>
       </c>
       <c r="CO3" t="n">
-        <v>281.5154113769531</v>
+        <v>363.6803283691406</v>
       </c>
       <c r="CP3" t="n">
-        <v>281.4116821289062</v>
+        <v>363.6304016113281</v>
       </c>
       <c r="CQ3" t="n">
-        <v>280.9980163574219</v>
+        <v>363.5335998535156</v>
       </c>
       <c r="CR3" t="n">
-        <v>283.2303161621094</v>
+        <v>363.2315063476562</v>
       </c>
       <c r="CS3" t="n">
-        <v>281.1785888671875</v>
+        <v>363.1578674316406</v>
       </c>
       <c r="CT3" t="n">
-        <v>281.9647216796875</v>
+        <v>363.3626403808594</v>
       </c>
       <c r="CU3" t="n">
-        <v>282.0565185546875</v>
+        <v>363.5942993164062</v>
       </c>
       <c r="CV3" t="n">
-        <v>285.0438842773438</v>
+        <v>363.7881774902344</v>
       </c>
       <c r="CW3" t="n">
-        <v>282.9149475097656</v>
+        <v>363.9807434082031</v>
       </c>
       <c r="CX3" t="n">
-        <v>278.5384826660156</v>
+        <v>364.40087890625</v>
       </c>
       <c r="CY3" t="n">
-        <v>273.9035949707031</v>
+        <v>364.1158752441406</v>
       </c>
       <c r="CZ3" t="n">
-        <v>273.8131103515625</v>
+        <v>363.2535400390625</v>
       </c>
       <c r="DA3" t="n">
-        <v>273.5997619628906</v>
+        <v>361.8739318847656</v>
       </c>
       <c r="DB3" t="n">
-        <v>273.5543518066406</v>
+        <v>361.4389953613281</v>
       </c>
       <c r="DC3" t="n">
-        <v>273.6380920410156</v>
+        <v>360.7621154785156</v>
       </c>
       <c r="DD3" t="n">
-        <v>273.6436767578125</v>
+        <v>360.7871704101562</v>
       </c>
       <c r="DE3" t="n">
-        <v>273.6631164550781</v>
+        <v>360.9869384765625</v>
       </c>
       <c r="DF3" t="n">
-        <v>273.1465148925781</v>
+        <v>361.2571716308594</v>
       </c>
       <c r="DG3" t="n">
-        <v>273.5949401855469</v>
+        <v>361.5475769042969</v>
       </c>
       <c r="DH3" t="n">
-        <v>274.0653381347656</v>
+        <v>361.6646118164062</v>
       </c>
       <c r="DI3" t="n">
-        <v>274.8750305175781</v>
+        <v>361.5918579101562</v>
       </c>
       <c r="DJ3" t="n">
-        <v>275.1559143066406</v>
+        <v>361.9273376464844</v>
       </c>
       <c r="DK3" t="n">
-        <v>276.7090454101562</v>
+        <v>361.972412109375</v>
       </c>
       <c r="DL3" t="n">
-        <v>275.1850280761719</v>
+        <v>362.8347473144531</v>
       </c>
       <c r="DM3" t="n">
-        <v>276.0390319824219</v>
+        <v>364.8610229492188</v>
       </c>
       <c r="DN3" t="n">
-        <v>277.5045471191406</v>
+        <v>365.3623046875</v>
       </c>
       <c r="DO3" t="n">
-        <v>281.6910705566406</v>
+        <v>365.8767395019531</v>
       </c>
       <c r="DP3" t="n">
-        <v>283.2990112304688</v>
+        <v>365.3105773925781</v>
       </c>
       <c r="DQ3" t="n">
-        <v>280.2632751464844</v>
+        <v>364.0896606445312</v>
       </c>
       <c r="DR3" t="n">
-        <v>276.324462890625</v>
+        <v>363.6398315429688</v>
       </c>
       <c r="DS3" t="n">
-        <v>276.5532531738281</v>
+        <v>363.1756896972656</v>
       </c>
       <c r="DT3" t="n">
-        <v>270.5233459472656</v>
+        <v>363.2839660644531</v>
       </c>
       <c r="DU3" t="n">
-        <v>272.661865234375</v>
+        <v>365.1524353027344</v>
       </c>
       <c r="DV3" t="n">
-        <v>272.9597778320312</v>
+        <v>366.2171936035156</v>
       </c>
       <c r="DW3" t="n">
-        <v>272.9600219726562</v>
+        <v>365.7346801757812</v>
       </c>
       <c r="DX3" t="n">
-        <v>268.3573608398438</v>
+        <v>365.7008666992188</v>
       </c>
       <c r="DY3" t="n">
-        <v>268.7957153320312</v>
+        <v>365.5525512695312</v>
       </c>
       <c r="DZ3" t="n">
-        <v>267.0464172363281</v>
+        <v>365.0507507324219</v>
       </c>
       <c r="EA3" t="n">
-        <v>267.467041015625</v>
+        <v>364.9336853027344</v>
       </c>
       <c r="EB3" t="n">
-        <v>268.4414367675781</v>
+        <v>366.4471130371094</v>
       </c>
       <c r="EC3" t="n">
-        <v>268.1198120117188</v>
+        <v>369.8893127441406</v>
       </c>
       <c r="ED3" t="n">
-        <v>268.9071960449219</v>
+        <v>371.2077941894531</v>
       </c>
       <c r="EE3" t="n">
-        <v>270.9594116210938</v>
+        <v>372.2439880371094</v>
       </c>
       <c r="EF3" t="n">
-        <v>270.5713806152344</v>
+        <v>374.5365905761719</v>
       </c>
       <c r="EG3" t="n">
-        <v>277.4122619628906</v>
+        <v>370.7880859375</v>
       </c>
       <c r="EH3" t="n">
-        <v>278.9168395996094</v>
+        <v>370.7226867675781</v>
       </c>
       <c r="EI3" t="n">
-        <v>278.7691650390625</v>
+        <v>369.0901489257812</v>
       </c>
       <c r="EJ3" t="n">
-        <v>284.5102844238281</v>
+        <v>367.624267578125</v>
       </c>
       <c r="EK3" t="n">
-        <v>284.8610229492188</v>
+        <v>364.0596618652344</v>
       </c>
       <c r="EL3" t="n">
-        <v>286.9261474609375</v>
+        <v>363.6458129882812</v>
       </c>
       <c r="EM3" t="n">
-        <v>288.024169921875</v>
+        <v>361.7281188964844</v>
       </c>
       <c r="EN3" t="n">
-        <v>281.5859680175781</v>
+        <v>359.8716735839844</v>
       </c>
       <c r="EO3" t="n">
-        <v>278.0261840820312</v>
+        <v>359.6139221191406</v>
       </c>
       <c r="EP3" t="n">
-        <v>273.3411254882812</v>
+        <v>359.7822265625</v>
       </c>
       <c r="EQ3" t="n">
-        <v>275.6203002929688</v>
+        <v>369.2409973144531</v>
       </c>
       <c r="ER3" t="n">
-        <v>273.8449096679688</v>
+        <v>368.6253051757812</v>
       </c>
       <c r="ES3" t="n">
-        <v>274.4163513183594</v>
+        <v>371.3994140625</v>
       </c>
       <c r="ET3" t="n">
-        <v>274.6309509277344</v>
+        <v>380.0757751464844</v>
       </c>
       <c r="EU3" t="n">
-        <v>275.2299499511719</v>
+        <v>378.0476684570312</v>
       </c>
       <c r="EV3" t="n">
-        <v>276.1308898925781</v>
+        <v>371.6507568359375</v>
       </c>
       <c r="EW3" t="n">
-        <v>282.4141845703125</v>
+        <v>367.31689453125</v>
       </c>
       <c r="EX3" t="n">
-        <v>283.6702880859375</v>
+        <v>366.2705078125</v>
       </c>
       <c r="EY3" t="n">
-        <v>285.8418273925781</v>
+        <v>362.7668151855469</v>
       </c>
       <c r="EZ3" t="n">
-        <v>287.5638122558594</v>
+        <v>361.0657348632812</v>
       </c>
       <c r="FA3" t="n">
-        <v>284.3650207519531</v>
+        <v>360.4359741210938</v>
       </c>
       <c r="FB3" t="n">
-        <v>284.085693359375</v>
+        <v>365.6509704589844</v>
       </c>
       <c r="FC3" t="n">
-        <v>279.6192321777344</v>
+        <v>368.9933776855469</v>
       </c>
       <c r="FD3" t="n">
-        <v>272.3827209472656</v>
+        <v>368.6599731445312</v>
       </c>
       <c r="FE3" t="n">
-        <v>272.1117248535156</v>
+        <v>368.3641052246094</v>
       </c>
       <c r="FF3" t="n">
-        <v>272.5901489257812</v>
+        <v>367.1846923828125</v>
       </c>
       <c r="FG3" t="n">
-        <v>273.4292297363281</v>
+        <v>366.5977172851562</v>
       </c>
       <c r="FH3" t="n">
-        <v>272.4254150390625</v>
+        <v>367.4552001953125</v>
       </c>
       <c r="FI3" t="n">
-        <v>272.8022766113281</v>
+        <v>367.1123046875</v>
       </c>
       <c r="FJ3" t="n">
-        <v>273.0888671875</v>
+        <v>366.8230285644531</v>
       </c>
       <c r="FK3" t="n">
-        <v>274.213134765625</v>
+        <v>365.1461181640625</v>
       </c>
       <c r="FL3" t="n">
-        <v>279.0072631835938</v>
+        <v>363.8800048828125</v>
       </c>
       <c r="FM3" t="n">
-        <v>278.868896484375</v>
+        <v>360.36328125</v>
       </c>
       <c r="FN3" t="n">
-        <v>287.7288818359375</v>
+        <v>359.3017578125</v>
       </c>
       <c r="FO3" t="n">
-        <v>287.2569580078125</v>
+        <v>358.2083435058594</v>
       </c>
       <c r="FP3" t="n">
-        <v>286.1388854980469</v>
+        <v>358.0732727050781</v>
       </c>
       <c r="FQ3" t="n">
-        <v>293.1533508300781</v>
+        <v>362.6338500976562</v>
       </c>
       <c r="FR3" t="n">
-        <v>282.9992370605469</v>
+        <v>361.4697265625</v>
       </c>
       <c r="FS3" t="n">
-        <v>279.4267272949219</v>
+        <v>361.0280151367188</v>
       </c>
       <c r="FT3" t="n">
-        <v>277.5902099609375</v>
+        <v>359.9534301757812</v>
       </c>
       <c r="FU3" t="n">
-        <v>276.9433898925781</v>
+        <v>359.7884521484375</v>
       </c>
       <c r="FV3" t="n">
-        <v>279.574462890625</v>
+        <v>361.87890625</v>
       </c>
       <c r="FW3" t="n">
-        <v>279.2691650390625</v>
+        <v>363.78662109375</v>
       </c>
       <c r="FX3" t="n">
-        <v>277.4410095214844</v>
+        <v>363.6270141601562</v>
       </c>
       <c r="FY3" t="n">
-        <v>278.4986877441406</v>
+        <v>363.5211486816406</v>
       </c>
       <c r="FZ3" t="n">
-        <v>280.7156677246094</v>
+        <v>363.0206604003906</v>
       </c>
       <c r="GA3" t="n">
-        <v>278.5644226074219</v>
+        <v>362.921630859375</v>
       </c>
       <c r="GB3" t="n">
-        <v>282.0749816894531</v>
+        <v>361.8255004882812</v>
       </c>
       <c r="GC3" t="n">
-        <v>286.1027221679688</v>
+        <v>361.5663757324219</v>
       </c>
       <c r="GD3" t="n">
-        <v>285.4712524414062</v>
+        <v>360.6382751464844</v>
       </c>
       <c r="GE3" t="n">
-        <v>285.6796875</v>
+        <v>360.0632019042969</v>
       </c>
       <c r="GF3" t="n">
-        <v>283.6067504882812</v>
+        <v>357.614501953125</v>
       </c>
       <c r="GG3" t="n">
-        <v>285.652099609375</v>
+        <v>356.5575866699219</v>
       </c>
       <c r="GH3" t="n">
-        <v>285.2350463867188</v>
+        <v>355.9839782714844</v>
       </c>
       <c r="GI3" t="n">
-        <v>288.541748046875</v>
+        <v>356.4085388183594</v>
       </c>
       <c r="GJ3" t="n">
-        <v>288.19189453125</v>
+        <v>356.3949890136719</v>
       </c>
       <c r="GK3" t="n">
-        <v>289.1055603027344</v>
+        <v>355.9314880371094</v>
       </c>
       <c r="GL3" t="n">
-        <v>288.6005554199219</v>
+        <v>355.7676086425781</v>
       </c>
       <c r="GM3" t="n">
-        <v>287.597412109375</v>
+        <v>355.63232421875</v>
       </c>
       <c r="GN3" t="n">
-        <v>285.0472717285156</v>
+        <v>355.6007690429688</v>
       </c>
       <c r="GO3" t="n">
-        <v>287.3778991699219</v>
+        <v>356.2907104492188</v>
       </c>
       <c r="GP3" t="n">
-        <v>286.504638671875</v>
+        <v>355.5448913574219</v>
       </c>
       <c r="GQ3" t="n">
-        <v>287.8942260742188</v>
+        <v>354.9385070800781</v>
       </c>
       <c r="GR3" t="n">
-        <v>289.6935424804688</v>
+        <v>353.0134582519531</v>
       </c>
       <c r="GS3" t="n">
-        <v>291.1152648925781</v>
+        <v>351.3760681152344</v>
       </c>
       <c r="GT3" t="n">
-        <v>291.1060180664062</v>
+        <v>349.4274597167969</v>
       </c>
       <c r="GU3" t="n">
-        <v>295.9241027832031</v>
+        <v>348.059326171875</v>
       </c>
       <c r="GV3" t="n">
-        <v>299.1354064941406</v>
+        <v>348.4894409179688</v>
       </c>
       <c r="GW3" t="n">
-        <v>301.3004455566406</v>
+        <v>349.2113342285156</v>
       </c>
       <c r="GX3" t="n">
-        <v>302.7987976074219</v>
+        <v>347.7156677246094</v>
       </c>
       <c r="GY3" t="n">
-        <v>304.2486267089844</v>
+        <v>343.5465393066406</v>
       </c>
       <c r="GZ3" t="n">
-        <v>303.8914489746094</v>
+        <v>344.6964416503906</v>
       </c>
       <c r="HA3" t="n">
-        <v>299.777587890625</v>
+        <v>344.1324157714844</v>
       </c>
       <c r="HB3" t="n">
-        <v>303.1009521484375</v>
+        <v>341.7535095214844</v>
       </c>
       <c r="HC3" t="n">
-        <v>305.5144653320312</v>
+        <v>340.381103515625</v>
       </c>
       <c r="HD3" t="n">
-        <v>310.1885070800781</v>
+        <v>339.5345458984375</v>
       </c>
       <c r="HE3" t="n">
-        <v>314.1748352050781</v>
+        <v>339.562744140625</v>
       </c>
       <c r="HF3" t="n">
-        <v>318.4434204101562</v>
+        <v>340.1674194335938</v>
       </c>
       <c r="HG3" t="n">
-        <v>319.0164489746094</v>
+        <v>340.6650390625</v>
       </c>
       <c r="HH3" t="n">
-        <v>322.17236328125</v>
+        <v>343.8676452636719</v>
       </c>
       <c r="HI3" t="n">
-        <v>323.5244750976562</v>
+        <v>344.0175170898438</v>
       </c>
       <c r="HJ3" t="n">
-        <v>327.1249694824219</v>
+        <v>344.9772644042969</v>
       </c>
       <c r="HK3" t="n">
-        <v>332.1528930664062</v>
+        <v>347.9066162109375</v>
       </c>
       <c r="HL3" t="n">
-        <v>338.570556640625</v>
+        <v>351.3939819335938</v>
       </c>
       <c r="HM3" t="n">
-        <v>344.7447509765625</v>
+        <v>353.8167724609375</v>
       </c>
       <c r="HN3" t="n">
-        <v>346.4418029785156</v>
+        <v>357.6325988769531</v>
       </c>
       <c r="HO3" t="n">
-        <v>350.4404602050781</v>
+        <v>358.7430419921875</v>
       </c>
       <c r="HP3" t="n">
-        <v>352.4380798339844</v>
+        <v>356.98046875</v>
       </c>
       <c r="HQ3" t="n">
-        <v>353.5732421875</v>
+        <v>356.32861328125</v>
       </c>
       <c r="HR3" t="n">
-        <v>359.9234619140625</v>
+        <v>355.2157592773438</v>
       </c>
       <c r="HS3" t="n">
-        <v>366.6618041992188</v>
+        <v>355.2878723144531</v>
       </c>
       <c r="HT3" t="n">
-        <v>383.3625183105469</v>
+        <v>355.5591125488281</v>
       </c>
       <c r="HU3" t="n">
-        <v>414.2988891601562</v>
+        <v>356.0003662109375</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>356.1249084472656</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>355.9754943847656</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>355.1375427246094</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>355.2957153320312</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>355.6342163085938</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>356.3760375976562</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>356.9461364746094</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>357.6144104003906</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>357.1111450195312</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>355.2068786621094</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>355.1019287109375</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>356.0399475097656</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>355.9444274902344</v>
+      </c>
+      <c r="II3" t="n">
+        <v>356.3154602050781</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>355.68505859375</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>355.1786193847656</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>355.6208801269531</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>357.8172607421875</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>355.3294982910156</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>355.9696044921875</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>355.5668029785156</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>353.9009399414062</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>356.2444763183594</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>357.2399291992188</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>358.7221374511719</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>358.2774047851562</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>356.679443359375</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>356.4742736816406</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>356.0621337890625</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>356.7763061523438</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>356.81689453125</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>354.929931640625</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>354.4341430664062</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>355.6781921386719</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>356.1118774414062</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>356.4581909179688</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>356.6726379394531</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>356.9128112792969</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>358.49755859375</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>358.5721740722656</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>358.5833129882812</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>358.9266357421875</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>359.0614929199219</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>357.3846435546875</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>356.5295715332031</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>357.1439819335938</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>357.3032836914062</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>356.9895629882812</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>357.0467224121094</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>357.4083251953125</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>357.4176025390625</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>357.1896057128906</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>357.1957702636719</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>357.4105224609375</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>357.7008666992188</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>357.93212890625</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>357.9852600097656</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>358.0218505859375</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>358.4084777832031</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>358.6968688964844</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>357.4297180175781</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>355.8993225097656</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>354.9866333007812</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>354.6919860839844</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>354.4275512695312</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>354.4404602050781</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>354.4951477050781</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>354.7929992675781</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>355.0636291503906</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>354.9640197753906</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>354.6868896484375</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>354.2113952636719</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>353.7276611328125</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>353.6152038574219</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>353.7165222167969</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>353.3866882324219</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>353.7590637207031</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>354.2845153808594</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>354.29150390625</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>354.6230773925781</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>354.9072875976562</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>355.0462341308594</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>355.7539367675781</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>356.7529602050781</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>357.4214172363281</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>357.9798278808594</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>357.8350219726562</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>358.7806396484375</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>362.5685424804688</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>366.7594604492188</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>371.6836853027344</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>376.3547668457031</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>379.1076049804688</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>376.0005798339844</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>381.4104919433594</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>380.3843078613281</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>374.651123046875</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>367.9163208007812</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>369.476806640625</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>369.6321411132812</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>373.8828735351562</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>373.6746520996094</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>369.3492431640625</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>368.8556823730469</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>376.3413391113281</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>366.3209228515625</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>370.1700744628906</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>369.6202087402344</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>379.4993286132812</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>398.6171875</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>403.7018432617188</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>404.020263671875</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>389.8830261230469</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>377.8842468261719</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>375.0609130859375</v>
+      </c>
+      <c r="MG3" t="n">
+        <v>392.7918395996094</v>
+      </c>
+      <c r="MH3" t="n">
+        <v>402.3892211914062</v>
+      </c>
+      <c r="MI3" t="n">
+        <v>407.1523742675781</v>
+      </c>
+      <c r="MJ3" t="n">
+        <v>423.3992919921875</v>
+      </c>
+      <c r="MK3" t="n">
+        <v>456.13037109375</v>
+      </c>
+      <c r="ML3" t="n">
+        <v>476.7978210449219</v>
+      </c>
+      <c r="MM3" t="n">
+        <v>504.9230651855469</v>
+      </c>
+      <c r="MN3" t="n">
+        <v>511.7257080078125</v>
+      </c>
+      <c r="MO3" t="n">
+        <v>502.8515014648438</v>
+      </c>
+      <c r="MP3" t="n">
+        <v>499.027587890625</v>
+      </c>
+      <c r="MQ3" t="n">
+        <v>497.5266723632812</v>
+      </c>
+      <c r="MR3" t="n">
+        <v>512.6437377929688</v>
+      </c>
+      <c r="MS3" t="n">
+        <v>574.7485961914062</v>
+      </c>
+      <c r="MT3" t="n">
+        <v>597.95263671875</v>
+      </c>
+      <c r="MU3" t="n">
+        <v>580.809814453125</v>
+      </c>
+      <c r="MV3" t="n">
+        <v>599.5445556640625</v>
+      </c>
+      <c r="MW3" t="n">
+        <v>622.7504272460938</v>
+      </c>
+      <c r="MX3" t="n">
+        <v>614.037841796875</v>
+      </c>
+      <c r="MY3" t="n">
+        <v>582.70458984375</v>
+      </c>
+      <c r="MZ3" t="n">
+        <v>569.130859375</v>
+      </c>
+      <c r="NA3" t="n">
+        <v>578.6795654296875</v>
+      </c>
+      <c r="NB3" t="n">
+        <v>545.7434692382812</v>
+      </c>
+      <c r="NC3" t="n">
+        <v>539.0875854492188</v>
+      </c>
+      <c r="ND3" t="n">
+        <v>565.2552490234375</v>
+      </c>
+      <c r="NE3" t="n">
+        <v>572.095947265625</v>
+      </c>
+      <c r="NF3" t="n">
+        <v>595.8278198242188</v>
+      </c>
+      <c r="NG3" t="n">
+        <v>593.7643432617188</v>
+      </c>
+      <c r="NH3" t="n">
+        <v>592.8374633789062</v>
+      </c>
+      <c r="NI3" t="n">
+        <v>595.5316772460938</v>
+      </c>
+      <c r="NJ3" t="n">
+        <v>572.432861328125</v>
+      </c>
+      <c r="NK3" t="n">
+        <v>584.7968139648438</v>
+      </c>
+      <c r="NL3" t="n">
+        <v>583.220947265625</v>
+      </c>
+      <c r="NM3" t="n">
+        <v>588.1799926757812</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>744.8419799804688</v>
+        <v>1009.813110351562</v>
       </c>
       <c r="B4" t="n">
-        <v>763.6021728515625</v>
+        <v>1012.975830078125</v>
       </c>
       <c r="C4" t="n">
-        <v>808.0126342773438</v>
+        <v>1013.05078125</v>
       </c>
       <c r="D4" t="n">
-        <v>861.9270629882812</v>
+        <v>1015.288513183594</v>
       </c>
       <c r="E4" t="n">
-        <v>807.2874145507812</v>
+        <v>1017.655029296875</v>
       </c>
       <c r="F4" t="n">
-        <v>902.6497802734375</v>
+        <v>1026.657592773438</v>
       </c>
       <c r="G4" t="n">
-        <v>860.443603515625</v>
+        <v>1044.339599609375</v>
       </c>
       <c r="H4" t="n">
-        <v>939.7664794921875</v>
+        <v>1054.994384765625</v>
       </c>
       <c r="I4" t="n">
-        <v>955.3218383789062</v>
+        <v>1064.634155273438</v>
       </c>
       <c r="J4" t="n">
-        <v>969.6480102539062</v>
+        <v>1083.126342773438</v>
       </c>
       <c r="K4" t="n">
-        <v>992.35791015625</v>
+        <v>1102.707275390625</v>
       </c>
       <c r="L4" t="n">
-        <v>1023.605163574219</v>
+        <v>1120.726440429688</v>
       </c>
       <c r="M4" t="n">
-        <v>1062.36083984375</v>
+        <v>1173.319091796875</v>
       </c>
       <c r="N4" t="n">
-        <v>1098.893310546875</v>
+        <v>1191.152587890625</v>
       </c>
       <c r="O4" t="n">
-        <v>1292.62939453125</v>
+        <v>1224.695434570312</v>
       </c>
       <c r="P4" t="n">
-        <v>1334.554443359375</v>
+        <v>1231.1162109375</v>
       </c>
       <c r="Q4" t="n">
-        <v>1376.051879882812</v>
+        <v>1237.156127929688</v>
       </c>
       <c r="R4" t="n">
-        <v>1414.234741210938</v>
+        <v>1244.356201171875</v>
       </c>
       <c r="S4" t="n">
-        <v>1449.355834960938</v>
+        <v>1249.927368164062</v>
       </c>
       <c r="T4" t="n">
-        <v>1487.24951171875</v>
+        <v>1262.65380859375</v>
       </c>
       <c r="U4" t="n">
-        <v>1528.543701171875</v>
+        <v>1273.08251953125</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.2216796875</v>
+        <v>1279.66064453125</v>
       </c>
       <c r="W4" t="n">
-        <v>1614.746337890625</v>
+        <v>1286.544311523438</v>
       </c>
       <c r="X4" t="n">
-        <v>1660.55908203125</v>
+        <v>1292.920654296875</v>
       </c>
       <c r="Y4" t="n">
-        <v>1715.080444335938</v>
+        <v>1277.19189453125</v>
       </c>
       <c r="Z4" t="n">
-        <v>1753.99853515625</v>
+        <v>1273.581420898438</v>
       </c>
       <c r="AA4" t="n">
-        <v>1811.918212890625</v>
+        <v>1274.226318359375</v>
       </c>
       <c r="AB4" t="n">
-        <v>1864.875</v>
+        <v>1277.019287109375</v>
       </c>
       <c r="AC4" t="n">
-        <v>1909.91357421875</v>
+        <v>1288.835327148438</v>
       </c>
       <c r="AD4" t="n">
-        <v>1944.31640625</v>
+        <v>1310.296020507812</v>
       </c>
       <c r="AE4" t="n">
-        <v>1981.896118164062</v>
+        <v>1316.746215820312</v>
       </c>
       <c r="AF4" t="n">
-        <v>2025.563842773438</v>
+        <v>1333.24462890625</v>
       </c>
       <c r="AG4" t="n">
-        <v>2068.3173828125</v>
+        <v>1339.880126953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>2099.19482421875</v>
+        <v>1370.279418945312</v>
       </c>
       <c r="AI4" t="n">
-        <v>2127.458740234375</v>
+        <v>1367.0400390625</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2158.4658203125</v>
+        <v>1370.462524414062</v>
       </c>
       <c r="AK4" t="n">
-        <v>2195.6240234375</v>
+        <v>1370.627197265625</v>
       </c>
       <c r="AL4" t="n">
-        <v>2224.96142578125</v>
+        <v>1369.916381835938</v>
       </c>
       <c r="AM4" t="n">
-        <v>2251.85205078125</v>
+        <v>1368.321044921875</v>
       </c>
       <c r="AN4" t="n">
-        <v>2299.576171875</v>
+        <v>1366.615966796875</v>
       </c>
       <c r="AO4" t="n">
-        <v>2349.750732421875</v>
+        <v>1364.616821289062</v>
       </c>
       <c r="AP4" t="n">
-        <v>2385.539794921875</v>
+        <v>1359.417602539062</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2433.469970703125</v>
+        <v>1344.836181640625</v>
       </c>
       <c r="AR4" t="n">
-        <v>2496.8203125</v>
+        <v>1331.549926757812</v>
       </c>
       <c r="AS4" t="n">
-        <v>2530.14697265625</v>
+        <v>1323.982666015625</v>
       </c>
       <c r="AT4" t="n">
-        <v>2576.97216796875</v>
+        <v>1312.798583984375</v>
       </c>
       <c r="AU4" t="n">
-        <v>2603.21142578125</v>
+        <v>1314.146362304688</v>
       </c>
       <c r="AV4" t="n">
-        <v>2635.1513671875</v>
+        <v>1311.960815429688</v>
       </c>
       <c r="AW4" t="n">
-        <v>2656.32177734375</v>
+        <v>1307.8046875</v>
       </c>
       <c r="AX4" t="n">
-        <v>2711.211181640625</v>
+        <v>1300.01025390625</v>
       </c>
       <c r="AY4" t="n">
-        <v>2752.314208984375</v>
+        <v>1287.432373046875</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2781.948974609375</v>
+        <v>1274.01416015625</v>
       </c>
       <c r="BA4" t="n">
-        <v>2804.89599609375</v>
+        <v>1260.024780273438</v>
       </c>
       <c r="BB4" t="n">
-        <v>2832.6591796875</v>
+        <v>1255.327758789062</v>
       </c>
       <c r="BC4" t="n">
-        <v>2858.887939453125</v>
+        <v>1251.301635742188</v>
       </c>
       <c r="BD4" t="n">
-        <v>2891.453369140625</v>
+        <v>1250.694946289062</v>
       </c>
       <c r="BE4" t="n">
-        <v>2918.434814453125</v>
+        <v>1250.568359375</v>
       </c>
       <c r="BF4" t="n">
-        <v>2966.408203125</v>
+        <v>1251.82080078125</v>
       </c>
       <c r="BG4" t="n">
-        <v>2982.70458984375</v>
+        <v>1251.090576171875</v>
       </c>
       <c r="BH4" t="n">
-        <v>3024.653076171875</v>
+        <v>1249.8232421875</v>
       </c>
       <c r="BI4" t="n">
-        <v>3089.671875</v>
+        <v>1247.422241210938</v>
       </c>
       <c r="BJ4" t="n">
-        <v>3127.377197265625</v>
+        <v>1240.580078125</v>
       </c>
       <c r="BK4" t="n">
-        <v>3173.427734375</v>
+        <v>1227.388793945312</v>
       </c>
       <c r="BL4" t="n">
-        <v>3191.370361328125</v>
+        <v>1213.024536132812</v>
       </c>
       <c r="BM4" t="n">
-        <v>3222.52685546875</v>
+        <v>1202.982055664062</v>
       </c>
       <c r="BN4" t="n">
-        <v>3232.1513671875</v>
+        <v>1198.383422851562</v>
       </c>
       <c r="BO4" t="n">
-        <v>3249.318115234375</v>
+        <v>1189.743041992188</v>
       </c>
       <c r="BP4" t="n">
-        <v>3268.062255859375</v>
+        <v>1187.951293945312</v>
       </c>
       <c r="BQ4" t="n">
-        <v>3276.915283203125</v>
+        <v>1185.705322265625</v>
       </c>
       <c r="BR4" t="n">
-        <v>3283.436279296875</v>
+        <v>1183.185546875</v>
       </c>
       <c r="BS4" t="n">
-        <v>3288.18017578125</v>
+        <v>1179.3662109375</v>
       </c>
       <c r="BT4" t="n">
-        <v>3301.676513671875</v>
+        <v>1173.601684570312</v>
       </c>
       <c r="BU4" t="n">
-        <v>3340.5576171875</v>
+        <v>1167.882446289062</v>
       </c>
       <c r="BV4" t="n">
-        <v>3357.644287109375</v>
+        <v>1165.195678710938</v>
       </c>
       <c r="BW4" t="n">
-        <v>3374.36767578125</v>
+        <v>1164.929443359375</v>
       </c>
       <c r="BX4" t="n">
-        <v>3402.191162109375</v>
+        <v>1164.246337890625</v>
       </c>
       <c r="BY4" t="n">
-        <v>3421.847900390625</v>
+        <v>1160.266845703125</v>
       </c>
       <c r="BZ4" t="n">
-        <v>3454.059814453125</v>
+        <v>1153.175537109375</v>
       </c>
       <c r="CA4" t="n">
-        <v>3479.552734375</v>
+        <v>1140.29345703125</v>
       </c>
       <c r="CB4" t="n">
-        <v>3508.3720703125</v>
+        <v>1130.903442382812</v>
       </c>
       <c r="CC4" t="n">
-        <v>3536.970947265625</v>
+        <v>1128.83203125</v>
       </c>
       <c r="CD4" t="n">
-        <v>3559.94287109375</v>
+        <v>1126.673217773438</v>
       </c>
       <c r="CE4" t="n">
-        <v>3600.156005859375</v>
+        <v>1124.591796875</v>
       </c>
       <c r="CF4" t="n">
-        <v>3605.44140625</v>
+        <v>1124.332275390625</v>
       </c>
       <c r="CG4" t="n">
-        <v>3611.531494140625</v>
+        <v>1124.244140625</v>
       </c>
       <c r="CH4" t="n">
-        <v>3630.96826171875</v>
+        <v>1123.79833984375</v>
       </c>
       <c r="CI4" t="n">
-        <v>3648.05859375</v>
+        <v>1123.200805664062</v>
       </c>
       <c r="CJ4" t="n">
-        <v>3655.437744140625</v>
+        <v>1123.552368164062</v>
       </c>
       <c r="CK4" t="n">
-        <v>3664.059814453125</v>
+        <v>1123.408081054688</v>
       </c>
       <c r="CL4" t="n">
-        <v>3681.602294921875</v>
+        <v>1123.065795898438</v>
       </c>
       <c r="CM4" t="n">
-        <v>3673.534912109375</v>
+        <v>1122.703491210938</v>
       </c>
       <c r="CN4" t="n">
-        <v>3676.52685546875</v>
+        <v>1121.987670898438</v>
       </c>
       <c r="CO4" t="n">
-        <v>3685.181884765625</v>
+        <v>1121.275756835938</v>
       </c>
       <c r="CP4" t="n">
-        <v>3678.710693359375</v>
+        <v>1120.395874023438</v>
       </c>
       <c r="CQ4" t="n">
-        <v>3685.791259765625</v>
+        <v>1119.346557617188</v>
       </c>
       <c r="CR4" t="n">
-        <v>3701.01416015625</v>
+        <v>1118.223022460938</v>
       </c>
       <c r="CS4" t="n">
-        <v>3700.975830078125</v>
+        <v>1114.896728515625</v>
       </c>
       <c r="CT4" t="n">
-        <v>3698.29150390625</v>
+        <v>1110.784545898438</v>
       </c>
       <c r="CU4" t="n">
-        <v>3690.27294921875</v>
+        <v>1108.825561523438</v>
       </c>
       <c r="CV4" t="n">
-        <v>3715.302001953125</v>
+        <v>1109.06005859375</v>
       </c>
       <c r="CW4" t="n">
-        <v>3700.01318359375</v>
+        <v>1109.60009765625</v>
       </c>
       <c r="CX4" t="n">
-        <v>3710.57763671875</v>
+        <v>1111.468872070312</v>
       </c>
       <c r="CY4" t="n">
-        <v>3683.62841796875</v>
+        <v>1113.613403320312</v>
       </c>
       <c r="CZ4" t="n">
-        <v>3693.700927734375</v>
+        <v>1122.147705078125</v>
       </c>
       <c r="DA4" t="n">
-        <v>3693.59130859375</v>
+        <v>1129.469482421875</v>
       </c>
       <c r="DB4" t="n">
-        <v>3695.334716796875</v>
+        <v>1131.85107421875</v>
       </c>
       <c r="DC4" t="n">
-        <v>3703.74560546875</v>
+        <v>1134.592407226562</v>
       </c>
       <c r="DD4" t="n">
-        <v>3706.608642578125</v>
+        <v>1136.651733398438</v>
       </c>
       <c r="DE4" t="n">
-        <v>3702.9404296875</v>
+        <v>1139.317993164062</v>
       </c>
       <c r="DF4" t="n">
-        <v>3687.168701171875</v>
+        <v>1139.394897460938</v>
       </c>
       <c r="DG4" t="n">
-        <v>3701.1171875</v>
+        <v>1139.607666015625</v>
       </c>
       <c r="DH4" t="n">
-        <v>3735.68115234375</v>
+        <v>1140.605224609375</v>
       </c>
       <c r="DI4" t="n">
-        <v>3690.177001953125</v>
+        <v>1141.917846679688</v>
       </c>
       <c r="DJ4" t="n">
-        <v>3707.30419921875</v>
+        <v>1148.446899414062</v>
       </c>
       <c r="DK4" t="n">
-        <v>3708.29345703125</v>
+        <v>1163.776611328125</v>
       </c>
       <c r="DL4" t="n">
-        <v>3715.09326171875</v>
+        <v>1166.623413085938</v>
       </c>
       <c r="DM4" t="n">
-        <v>3675.158203125</v>
+        <v>1165.993286132812</v>
       </c>
       <c r="DN4" t="n">
-        <v>3695.65185546875</v>
+        <v>1165.16162109375</v>
       </c>
       <c r="DO4" t="n">
-        <v>3637.523193359375</v>
+        <v>1164.355102539062</v>
       </c>
       <c r="DP4" t="n">
-        <v>3690.66357421875</v>
+        <v>1163.597045898438</v>
       </c>
       <c r="DQ4" t="n">
-        <v>3666.81982421875</v>
+        <v>1161.75</v>
       </c>
       <c r="DR4" t="n">
-        <v>3627.013427734375</v>
+        <v>1161.725708007812</v>
       </c>
       <c r="DS4" t="n">
-        <v>3651.408935546875</v>
+        <v>1161.81591796875</v>
       </c>
       <c r="DT4" t="n">
-        <v>3633.26123046875</v>
+        <v>1162.780395507812</v>
       </c>
       <c r="DU4" t="n">
-        <v>3626.811767578125</v>
+        <v>1169.083740234375</v>
       </c>
       <c r="DV4" t="n">
-        <v>3624.0380859375</v>
+        <v>1178.820556640625</v>
       </c>
       <c r="DW4" t="n">
-        <v>3603.093505859375</v>
+        <v>1193.4072265625</v>
       </c>
       <c r="DX4" t="n">
-        <v>3605.11083984375</v>
+        <v>1196.840454101562</v>
       </c>
       <c r="DY4" t="n">
-        <v>3585.545166015625</v>
+        <v>1200.004638671875</v>
       </c>
       <c r="DZ4" t="n">
-        <v>3593.525390625</v>
+        <v>1211.106567382812</v>
       </c>
       <c r="EA4" t="n">
-        <v>3580.481689453125</v>
+        <v>1217.349609375</v>
       </c>
       <c r="EB4" t="n">
-        <v>3595.311767578125</v>
+        <v>1231.398193359375</v>
       </c>
       <c r="EC4" t="n">
-        <v>3593.655517578125</v>
+        <v>1235.812377929688</v>
       </c>
       <c r="ED4" t="n">
-        <v>3588.840576171875</v>
+        <v>1238.659423828125</v>
       </c>
       <c r="EE4" t="n">
-        <v>3577.013671875</v>
+        <v>1247.483520507812</v>
       </c>
       <c r="EF4" t="n">
-        <v>3574.44189453125</v>
+        <v>1270.910278320312</v>
       </c>
       <c r="EG4" t="n">
-        <v>3571.068115234375</v>
+        <v>1307.002075195312</v>
       </c>
       <c r="EH4" t="n">
-        <v>3555.585205078125</v>
+        <v>1318.992309570312</v>
       </c>
       <c r="EI4" t="n">
-        <v>3537.49951171875</v>
+        <v>1339.931518554688</v>
       </c>
       <c r="EJ4" t="n">
-        <v>3470.17919921875</v>
+        <v>1347.92431640625</v>
       </c>
       <c r="EK4" t="n">
-        <v>3473.328125</v>
+        <v>1381.068603515625</v>
       </c>
       <c r="EL4" t="n">
-        <v>3411.30712890625</v>
+        <v>1383.859130859375</v>
       </c>
       <c r="EM4" t="n">
-        <v>3390.45068359375</v>
+        <v>1397.362182617188</v>
       </c>
       <c r="EN4" t="n">
-        <v>3422.74951171875</v>
+        <v>1411.7431640625</v>
       </c>
       <c r="EO4" t="n">
-        <v>3420.24755859375</v>
+        <v>1424.643920898438</v>
       </c>
       <c r="EP4" t="n">
-        <v>3371.607421875</v>
+        <v>1437.915893554688</v>
       </c>
       <c r="EQ4" t="n">
-        <v>3381.526123046875</v>
+        <v>1449.317749023438</v>
       </c>
       <c r="ER4" t="n">
-        <v>3371.676513671875</v>
+        <v>1478.059814453125</v>
       </c>
       <c r="ES4" t="n">
-        <v>3379.88134765625</v>
+        <v>1525.334716796875</v>
       </c>
       <c r="ET4" t="n">
-        <v>3369.481689453125</v>
+        <v>1557.460205078125</v>
       </c>
       <c r="EU4" t="n">
-        <v>3367.62158203125</v>
+        <v>1578.557983398438</v>
       </c>
       <c r="EV4" t="n">
-        <v>3366.239501953125</v>
+        <v>1607.207763671875</v>
       </c>
       <c r="EW4" t="n">
-        <v>3366.431884765625</v>
+        <v>1662.584716796875</v>
       </c>
       <c r="EX4" t="n">
-        <v>3392.142333984375</v>
+        <v>1707.084838867188</v>
       </c>
       <c r="EY4" t="n">
-        <v>3365.5361328125</v>
+        <v>1744.532470703125</v>
       </c>
       <c r="EZ4" t="n">
-        <v>3374.609375</v>
+        <v>1770.91455078125</v>
       </c>
       <c r="FA4" t="n">
-        <v>3378.091064453125</v>
+        <v>1801.168334960938</v>
       </c>
       <c r="FB4" t="n">
-        <v>3378.686279296875</v>
+        <v>1808.610717773438</v>
       </c>
       <c r="FC4" t="n">
-        <v>3409.1044921875</v>
+        <v>1854.798095703125</v>
       </c>
       <c r="FD4" t="n">
-        <v>3406.009521484375</v>
+        <v>1888.802734375</v>
       </c>
       <c r="FE4" t="n">
-        <v>3433.41064453125</v>
+        <v>1905.880004882812</v>
       </c>
       <c r="FF4" t="n">
-        <v>3433.0595703125</v>
+        <v>1929.232299804688</v>
       </c>
       <c r="FG4" t="n">
-        <v>3426.564453125</v>
+        <v>1958.047119140625</v>
       </c>
       <c r="FH4" t="n">
-        <v>3461.0673828125</v>
+        <v>1968.962158203125</v>
       </c>
       <c r="FI4" t="n">
-        <v>3434.880126953125</v>
+        <v>2013.870361328125</v>
       </c>
       <c r="FJ4" t="n">
-        <v>3424.18212890625</v>
+        <v>2035.455078125</v>
       </c>
       <c r="FK4" t="n">
-        <v>3433.436767578125</v>
+        <v>2073.3828125</v>
       </c>
       <c r="FL4" t="n">
-        <v>3438.4501953125</v>
+        <v>2096.697265625</v>
       </c>
       <c r="FM4" t="n">
-        <v>3416.157470703125</v>
+        <v>2147.533935546875</v>
       </c>
       <c r="FN4" t="n">
-        <v>3432.326904296875</v>
+        <v>2165.506103515625</v>
       </c>
       <c r="FO4" t="n">
-        <v>3419.587158203125</v>
+        <v>2184.97265625</v>
       </c>
       <c r="FP4" t="n">
-        <v>3422.94921875</v>
+        <v>2213.792236328125</v>
       </c>
       <c r="FQ4" t="n">
-        <v>3439.49267578125</v>
+        <v>2244.542724609375</v>
       </c>
       <c r="FR4" t="n">
-        <v>3429.42919921875</v>
+        <v>2259.992431640625</v>
       </c>
       <c r="FS4" t="n">
-        <v>3426.340087890625</v>
+        <v>2280.61962890625</v>
       </c>
       <c r="FT4" t="n">
-        <v>3427.102783203125</v>
+        <v>2292.321044921875</v>
       </c>
       <c r="FU4" t="n">
-        <v>3407.44287109375</v>
+        <v>2291.53125</v>
       </c>
       <c r="FV4" t="n">
-        <v>3382.781982421875</v>
+        <v>2289.644287109375</v>
       </c>
       <c r="FW4" t="n">
-        <v>3381.77587890625</v>
+        <v>2280.587890625</v>
       </c>
       <c r="FX4" t="n">
-        <v>3376.88671875</v>
+        <v>2280.149658203125</v>
       </c>
       <c r="FY4" t="n">
-        <v>3377.01123046875</v>
+        <v>2278.51611328125</v>
       </c>
       <c r="FZ4" t="n">
-        <v>3368.482666015625</v>
+        <v>2279.864990234375</v>
       </c>
       <c r="GA4" t="n">
-        <v>3355.166748046875</v>
+        <v>2280.65673828125</v>
       </c>
       <c r="GB4" t="n">
-        <v>3314.86328125</v>
+        <v>2293.369140625</v>
       </c>
       <c r="GC4" t="n">
-        <v>3313.046142578125</v>
+        <v>2300.036376953125</v>
       </c>
       <c r="GD4" t="n">
-        <v>3289.1494140625</v>
+        <v>2302.10009765625</v>
       </c>
       <c r="GE4" t="n">
-        <v>3270.8818359375</v>
+        <v>2295.54833984375</v>
       </c>
       <c r="GF4" t="n">
-        <v>3247.56494140625</v>
+        <v>2305.82080078125</v>
       </c>
       <c r="GG4" t="n">
-        <v>3188.27490234375</v>
+        <v>2305.89453125</v>
       </c>
       <c r="GH4" t="n">
-        <v>3166.58447265625</v>
+        <v>2307.596923828125</v>
       </c>
       <c r="GI4" t="n">
-        <v>3093.970947265625</v>
+        <v>2307.814453125</v>
       </c>
       <c r="GJ4" t="n">
-        <v>3017.4853515625</v>
+        <v>2308.74072265625</v>
       </c>
       <c r="GK4" t="n">
-        <v>2926.688720703125</v>
+        <v>2309.550537109375</v>
       </c>
       <c r="GL4" t="n">
-        <v>2865.74951171875</v>
+        <v>2309.77392578125</v>
       </c>
       <c r="GM4" t="n">
-        <v>2843.54296875</v>
+        <v>2309.924072265625</v>
       </c>
       <c r="GN4" t="n">
-        <v>2822.88623046875</v>
+        <v>2309.839599609375</v>
       </c>
       <c r="GO4" t="n">
-        <v>2779.447509765625</v>
+        <v>2305.202880859375</v>
       </c>
       <c r="GP4" t="n">
-        <v>2736.68212890625</v>
+        <v>2295.855224609375</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2687.013427734375</v>
+        <v>2275.477783203125</v>
       </c>
       <c r="GR4" t="n">
-        <v>2641.7470703125</v>
+        <v>2270.501953125</v>
       </c>
       <c r="GS4" t="n">
-        <v>2559.005615234375</v>
+        <v>2266.63525390625</v>
       </c>
       <c r="GT4" t="n">
-        <v>2533.14111328125</v>
+        <v>2259.65380859375</v>
       </c>
       <c r="GU4" t="n">
-        <v>2470.43359375</v>
+        <v>2248.681640625</v>
       </c>
       <c r="GV4" t="n">
-        <v>2359.21630859375</v>
+        <v>2236.67919921875</v>
       </c>
       <c r="GW4" t="n">
-        <v>2293.283203125</v>
+        <v>2230.967529296875</v>
       </c>
       <c r="GX4" t="n">
-        <v>2246.92333984375</v>
+        <v>2235.384765625</v>
       </c>
       <c r="GY4" t="n">
-        <v>2187.603271484375</v>
+        <v>2227.66259765625</v>
       </c>
       <c r="GZ4" t="n">
-        <v>2130.09521484375</v>
+        <v>2213.3173828125</v>
       </c>
       <c r="HA4" t="n">
-        <v>2073.885986328125</v>
+        <v>2210.696044921875</v>
       </c>
       <c r="HB4" t="n">
-        <v>1999.8056640625</v>
+        <v>2210.802001953125</v>
       </c>
       <c r="HC4" t="n">
-        <v>1927.371948242188</v>
+        <v>2213.21484375</v>
       </c>
       <c r="HD4" t="n">
-        <v>1860.749145507812</v>
+        <v>2215.542724609375</v>
       </c>
       <c r="HE4" t="n">
-        <v>1820.57373046875</v>
+        <v>2215.969482421875</v>
       </c>
       <c r="HF4" t="n">
-        <v>1700.6376953125</v>
+        <v>2210.562744140625</v>
       </c>
       <c r="HG4" t="n">
-        <v>1629.76318359375</v>
+        <v>2212.6845703125</v>
       </c>
       <c r="HH4" t="n">
-        <v>1548.426391601562</v>
+        <v>2215.489990234375</v>
       </c>
       <c r="HI4" t="n">
-        <v>1484.108276367188</v>
+        <v>2214.786376953125</v>
       </c>
       <c r="HJ4" t="n">
-        <v>1417.609008789062</v>
+        <v>2218.015869140625</v>
       </c>
       <c r="HK4" t="n">
-        <v>1345.660034179688</v>
+        <v>2219.7314453125</v>
       </c>
       <c r="HL4" t="n">
-        <v>1262.41552734375</v>
+        <v>2222.6298828125</v>
       </c>
       <c r="HM4" t="n">
-        <v>1184.24609375</v>
+        <v>2223.574951171875</v>
       </c>
       <c r="HN4" t="n">
-        <v>1096.527465820312</v>
+        <v>2206.5654296875</v>
       </c>
       <c r="HO4" t="n">
-        <v>1042.99560546875</v>
+        <v>2178.517822265625</v>
       </c>
       <c r="HP4" t="n">
-        <v>995.7196044921875</v>
+        <v>2178.464599609375</v>
       </c>
       <c r="HQ4" t="n">
-        <v>945.8178100585938</v>
+        <v>2178.2294921875</v>
       </c>
       <c r="HR4" t="n">
-        <v>900.4902954101562</v>
+        <v>2177.478271484375</v>
       </c>
       <c r="HS4" t="n">
-        <v>840.6554565429688</v>
+        <v>2176.182373046875</v>
       </c>
       <c r="HT4" t="n">
-        <v>787.5811157226562</v>
+        <v>2166.349853515625</v>
       </c>
       <c r="HU4" t="n">
-        <v>780.606201171875</v>
+        <v>2149.5</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>2141.597900390625</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>2139.454345703125</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>2134.940185546875</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>2131.10498046875</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>2127.682373046875</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>2126.459716796875</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>2126.216796875</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>2126.329345703125</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>2125.486328125</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>2124.1923828125</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>2125.447265625</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>2125.691650390625</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>2124.2236328125</v>
+      </c>
+      <c r="II4" t="n">
+        <v>2125.111572265625</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>2132.567138671875</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>2157.17333984375</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>2161.611572265625</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>2155.369873046875</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>2156.539306640625</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>2155.074462890625</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>2153.236328125</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>2157.231201171875</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>2152.80712890625</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>2152.530517578125</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>2151.42724609375</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>2145.481689453125</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>2143.665283203125</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>2142.251708984375</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>2139.833740234375</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>2139.452880859375</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>2138.54638671875</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>2143.614013671875</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>2146.902099609375</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>2145.88134765625</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>2146.8125</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>2153.07080078125</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>2156.82763671875</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>2160.328857421875</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>2163.538330078125</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>2162.159912109375</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>2161.29345703125</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>2160.480224609375</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>2154.140625</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>2145.388671875</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>2141.8984375</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>2140.53271484375</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>2137.228271484375</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>2133.80859375</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>2130.32763671875</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>2123.71435546875</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>2123.53515625</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>2122.864013671875</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>2121.3212890625</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>2117.94091796875</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>2113.704345703125</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>2110.91552734375</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>2110.67529296875</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>2110.604248046875</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>2110.53662109375</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>2109.600341796875</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>2105.568115234375</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>2100.970458984375</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>2100.86083984375</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>2102.4853515625</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>2103.12890625</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>2103.274658203125</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>2103.87646484375</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>2104.599609375</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>2106.04345703125</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>2108.422607421875</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>2112.369873046875</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>2116.736083984375</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>2116.774169921875</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>2118.4814453125</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>2119.456787109375</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>2125.193359375</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>2130.51123046875</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>2135.400390625</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>2131.98681640625</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>2128.1240234375</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>2125.879638671875</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>2123.89453125</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>2110.577880859375</v>
+      </c>
+      <c r="LA4" t="n">
+        <v>2083.942138671875</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>2058.9736328125</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>2033.653930664062</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>2011.951293945312</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>1994.611694335938</v>
+      </c>
+      <c r="LF4" t="n">
+        <v>1964.359619140625</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>1922.527221679688</v>
+      </c>
+      <c r="LH4" t="n">
+        <v>1869.281860351562</v>
+      </c>
+      <c r="LI4" t="n">
+        <v>1793.390991210938</v>
+      </c>
+      <c r="LJ4" t="n">
+        <v>1716.70849609375</v>
+      </c>
+      <c r="LK4" t="n">
+        <v>1642.555908203125</v>
+      </c>
+      <c r="LL4" t="n">
+        <v>1600.38330078125</v>
+      </c>
+      <c r="LM4" t="n">
+        <v>1558.753295898438</v>
+      </c>
+      <c r="LN4" t="n">
+        <v>1504.606079101562</v>
+      </c>
+      <c r="LO4" t="n">
+        <v>1478.53173828125</v>
+      </c>
+      <c r="LP4" t="n">
+        <v>1413.136108398438</v>
+      </c>
+      <c r="LQ4" t="n">
+        <v>1288.422485351562</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>1229.99462890625</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>1163.456787109375</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>1042.38134765625</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>978.7153930664062</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>903.0757446289062</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>847.2534790039062</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>808.9213256835938</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>763.7720947265625</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>731.0418090820312</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>710.1378173828125</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>704.381103515625</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>710.9791259765625</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>773.9193725585938</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>835.2943115234375</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>860.6583251953125</v>
+      </c>
+      <c r="MG4" t="n">
+        <v>899.0538940429688</v>
+      </c>
+      <c r="MH4" t="n">
+        <v>927.8867797851562</v>
+      </c>
+      <c r="MI4" t="n">
+        <v>944.2427978515625</v>
+      </c>
+      <c r="MJ4" t="n">
+        <v>972.5386962890625</v>
+      </c>
+      <c r="MK4" t="n">
+        <v>979.4111328125</v>
+      </c>
+      <c r="ML4" t="n">
+        <v>990.0289306640625</v>
+      </c>
+      <c r="MM4" t="n">
+        <v>1008.199645996094</v>
+      </c>
+      <c r="MN4" t="n">
+        <v>1005.271301269531</v>
+      </c>
+      <c r="MO4" t="n">
+        <v>1017.540344238281</v>
+      </c>
+      <c r="MP4" t="n">
+        <v>1033.721313476562</v>
+      </c>
+      <c r="MQ4" t="n">
+        <v>1025.711669921875</v>
+      </c>
+      <c r="MR4" t="n">
+        <v>977.968505859375</v>
+      </c>
+      <c r="MS4" t="n">
+        <v>834.5818481445312</v>
+      </c>
+      <c r="MT4" t="n">
+        <v>676.1806030273438</v>
+      </c>
+      <c r="MU4" t="n">
+        <v>708.9486083984375</v>
+      </c>
+      <c r="MV4" t="n">
+        <v>675.0945434570312</v>
+      </c>
+      <c r="MW4" t="n">
+        <v>707.4071655273438</v>
+      </c>
+      <c r="MX4" t="n">
+        <v>699.77294921875</v>
+      </c>
+      <c r="MY4" t="n">
+        <v>720.55517578125</v>
+      </c>
+      <c r="MZ4" t="n">
+        <v>748.197509765625</v>
+      </c>
+      <c r="NA4" t="n">
+        <v>707.0753784179688</v>
+      </c>
+      <c r="NB4" t="n">
+        <v>674.3186645507812</v>
+      </c>
+      <c r="NC4" t="n">
+        <v>643.9922485351562</v>
+      </c>
+      <c r="ND4" t="n">
+        <v>646.158447265625</v>
+      </c>
+      <c r="NE4" t="n">
+        <v>644.5657348632812</v>
+      </c>
+      <c r="NF4" t="n">
+        <v>609.6253051757812</v>
+      </c>
+      <c r="NG4" t="n">
+        <v>601.2921142578125</v>
+      </c>
+      <c r="NH4" t="n">
+        <v>602.1524047851562</v>
+      </c>
+      <c r="NI4" t="n">
+        <v>619.3134765625</v>
+      </c>
+      <c r="NJ4" t="n">
+        <v>670.9664306640625</v>
+      </c>
+      <c r="NK4" t="n">
+        <v>653.045654296875</v>
+      </c>
+      <c r="NL4" t="n">
+        <v>649.744384765625</v>
+      </c>
+      <c r="NM4" t="n">
+        <v>645.65478515625</v>
       </c>
     </row>
   </sheetData>

--- a/right_hip_Data_Variable.xlsx
+++ b/right_hip_Data_Variable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:NM4"/>
+  <dimension ref="A1:IX4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1208,3761 +1208,2333 @@
       <c r="IX1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ME1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ML1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ND1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NM1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>310.2254333496094</v>
+        <v>256.2650146484375</v>
       </c>
       <c r="B2" t="n">
-        <v>314.5982666015625</v>
+        <v>257.8922729492188</v>
       </c>
       <c r="C2" t="n">
-        <v>322.8191528320312</v>
+        <v>261.6159057617188</v>
       </c>
       <c r="D2" t="n">
-        <v>325.667724609375</v>
+        <v>265.4356384277344</v>
       </c>
       <c r="E2" t="n">
-        <v>328.3293151855469</v>
+        <v>266.3548889160156</v>
       </c>
       <c r="F2" t="n">
-        <v>331.7501831054688</v>
+        <v>265.8773193359375</v>
       </c>
       <c r="G2" t="n">
-        <v>337.1487731933594</v>
+        <v>265.4872131347656</v>
       </c>
       <c r="H2" t="n">
-        <v>344.3684692382812</v>
+        <v>266.1481628417969</v>
       </c>
       <c r="I2" t="n">
-        <v>351.8695678710938</v>
+        <v>266.2735290527344</v>
       </c>
       <c r="J2" t="n">
-        <v>357.89208984375</v>
+        <v>267.9873352050781</v>
       </c>
       <c r="K2" t="n">
-        <v>364.662841796875</v>
+        <v>271.1847839355469</v>
       </c>
       <c r="L2" t="n">
-        <v>370.411865234375</v>
+        <v>274.5675659179688</v>
       </c>
       <c r="M2" t="n">
-        <v>392.2938537597656</v>
+        <v>278.5810852050781</v>
       </c>
       <c r="N2" t="n">
-        <v>394.1546020507812</v>
+        <v>284.171875</v>
       </c>
       <c r="O2" t="n">
-        <v>395.1720581054688</v>
+        <v>319.0171813964844</v>
       </c>
       <c r="P2" t="n">
-        <v>394.45654296875</v>
+        <v>319.4872741699219</v>
       </c>
       <c r="Q2" t="n">
-        <v>394.5002746582031</v>
+        <v>319.7973327636719</v>
       </c>
       <c r="R2" t="n">
-        <v>394.0285949707031</v>
+        <v>320.0632934570312</v>
       </c>
       <c r="S2" t="n">
-        <v>392.8497924804688</v>
+        <v>320.117431640625</v>
       </c>
       <c r="T2" t="n">
-        <v>391.009033203125</v>
+        <v>320.0499267578125</v>
       </c>
       <c r="U2" t="n">
-        <v>387.5975036621094</v>
+        <v>320.0496826171875</v>
       </c>
       <c r="V2" t="n">
-        <v>383.1727600097656</v>
+        <v>320.1898193359375</v>
       </c>
       <c r="W2" t="n">
-        <v>378.5051879882812</v>
+        <v>320.090576171875</v>
       </c>
       <c r="X2" t="n">
-        <v>374.3789978027344</v>
+        <v>319.8026123046875</v>
       </c>
       <c r="Y2" t="n">
-        <v>370.6719970703125</v>
+        <v>320.3318481445312</v>
       </c>
       <c r="Z2" t="n">
-        <v>367.0429077148438</v>
+        <v>319.9137878417969</v>
       </c>
       <c r="AA2" t="n">
-        <v>362.2253723144531</v>
+        <v>319.8982543945312</v>
       </c>
       <c r="AB2" t="n">
-        <v>359.2676391601562</v>
+        <v>320.3106689453125</v>
       </c>
       <c r="AC2" t="n">
-        <v>357.2691650390625</v>
+        <v>320.1268310546875</v>
       </c>
       <c r="AD2" t="n">
-        <v>354.5977172851562</v>
+        <v>320.4476318359375</v>
       </c>
       <c r="AE2" t="n">
-        <v>353.9502258300781</v>
+        <v>318.8112182617188</v>
       </c>
       <c r="AF2" t="n">
-        <v>352.2660522460938</v>
+        <v>318.0146484375</v>
       </c>
       <c r="AG2" t="n">
-        <v>352.1216430664062</v>
+        <v>317.5792846679688</v>
       </c>
       <c r="AH2" t="n">
-        <v>349.7643432617188</v>
+        <v>317.4191284179688</v>
       </c>
       <c r="AI2" t="n">
-        <v>351.3045043945312</v>
+        <v>317.4430541992188</v>
       </c>
       <c r="AJ2" t="n">
-        <v>350.3222045898438</v>
+        <v>317.6277465820312</v>
       </c>
       <c r="AK2" t="n">
-        <v>351.5521545410156</v>
+        <v>318.4422607421875</v>
       </c>
       <c r="AL2" t="n">
-        <v>350.4435729980469</v>
+        <v>319.1352233886719</v>
       </c>
       <c r="AM2" t="n">
-        <v>348.9981384277344</v>
+        <v>319.4014587402344</v>
       </c>
       <c r="AN2" t="n">
-        <v>346.031005859375</v>
+        <v>318.9560241699219</v>
       </c>
       <c r="AO2" t="n">
-        <v>344.1083374023438</v>
+        <v>318.8877258300781</v>
       </c>
       <c r="AP2" t="n">
-        <v>342.2884521484375</v>
+        <v>319.184326171875</v>
       </c>
       <c r="AQ2" t="n">
-        <v>342.2307739257812</v>
+        <v>320.2120666503906</v>
       </c>
       <c r="AR2" t="n">
-        <v>342.5561218261719</v>
+        <v>321.3033752441406</v>
       </c>
       <c r="AS2" t="n">
-        <v>342.9882202148438</v>
+        <v>321.8555297851562</v>
       </c>
       <c r="AT2" t="n">
-        <v>343.8147583007812</v>
+        <v>322.1102600097656</v>
       </c>
       <c r="AU2" t="n">
-        <v>344.0447387695312</v>
+        <v>322.107666015625</v>
       </c>
       <c r="AV2" t="n">
-        <v>344.4047546386719</v>
+        <v>322.0752258300781</v>
       </c>
       <c r="AW2" t="n">
-        <v>344.4497375488281</v>
+        <v>322.0428161621094</v>
       </c>
       <c r="AX2" t="n">
-        <v>344.4614868164062</v>
+        <v>321.9653015136719</v>
       </c>
       <c r="AY2" t="n">
-        <v>343.767333984375</v>
+        <v>321.4000854492188</v>
       </c>
       <c r="AZ2" t="n">
-        <v>342.0766906738281</v>
+        <v>320.3876342773438</v>
       </c>
       <c r="BA2" t="n">
-        <v>340.175048828125</v>
+        <v>319.2935791015625</v>
       </c>
       <c r="BB2" t="n">
-        <v>337.8629760742188</v>
+        <v>318.7978210449219</v>
       </c>
       <c r="BC2" t="n">
-        <v>335.7744140625</v>
+        <v>318.4562072753906</v>
       </c>
       <c r="BD2" t="n">
-        <v>333.3372802734375</v>
+        <v>318.5625915527344</v>
       </c>
       <c r="BE2" t="n">
-        <v>331.1779479980469</v>
+        <v>318.6434326171875</v>
       </c>
       <c r="BF2" t="n">
-        <v>328.3663635253906</v>
+        <v>318.6823120117188</v>
       </c>
       <c r="BG2" t="n">
-        <v>326.2344665527344</v>
+        <v>318.7173461914062</v>
       </c>
       <c r="BH2" t="n">
-        <v>323.5721435546875</v>
+        <v>318.6901550292969</v>
       </c>
       <c r="BI2" t="n">
-        <v>320.7596435546875</v>
+        <v>318.6769409179688</v>
       </c>
       <c r="BJ2" t="n">
-        <v>318.5409851074219</v>
+        <v>318.6726989746094</v>
       </c>
       <c r="BK2" t="n">
-        <v>315.6764831542969</v>
+        <v>318.6732482910156</v>
       </c>
       <c r="BL2" t="n">
-        <v>311.5755310058594</v>
+        <v>318.7105712890625</v>
       </c>
       <c r="BM2" t="n">
-        <v>307.4013671875</v>
+        <v>318.7688903808594</v>
       </c>
       <c r="BN2" t="n">
-        <v>302.6331481933594</v>
+        <v>318.8973999023438</v>
       </c>
       <c r="BO2" t="n">
-        <v>295.2219848632812</v>
+        <v>320.1644592285156</v>
       </c>
       <c r="BP2" t="n">
-        <v>291.8135986328125</v>
+        <v>321.0515747070312</v>
       </c>
       <c r="BQ2" t="n">
-        <v>289.078857421875</v>
+        <v>321.8408508300781</v>
       </c>
       <c r="BR2" t="n">
-        <v>286.5067138671875</v>
+        <v>322.2041320800781</v>
       </c>
       <c r="BS2" t="n">
-        <v>283.7770080566406</v>
+        <v>322.3125915527344</v>
       </c>
       <c r="BT2" t="n">
-        <v>281.4935913085938</v>
+        <v>322.3346557617188</v>
       </c>
       <c r="BU2" t="n">
-        <v>280.3475646972656</v>
+        <v>322.3204956054688</v>
       </c>
       <c r="BV2" t="n">
-        <v>279.5631408691406</v>
+        <v>322.3223876953125</v>
       </c>
       <c r="BW2" t="n">
-        <v>279.0726013183594</v>
+        <v>322.4867248535156</v>
       </c>
       <c r="BX2" t="n">
-        <v>278.8935241699219</v>
+        <v>322.5736999511719</v>
       </c>
       <c r="BY2" t="n">
-        <v>279.7483215332031</v>
+        <v>322.65283203125</v>
       </c>
       <c r="BZ2" t="n">
-        <v>280.6907958984375</v>
+        <v>322.7724609375</v>
       </c>
       <c r="CA2" t="n">
-        <v>283.0169372558594</v>
+        <v>322.9156799316406</v>
       </c>
       <c r="CB2" t="n">
-        <v>286.4098205566406</v>
+        <v>323.0986022949219</v>
       </c>
       <c r="CC2" t="n">
-        <v>290.18017578125</v>
+        <v>323.1929931640625</v>
       </c>
       <c r="CD2" t="n">
-        <v>293.4346313476562</v>
+        <v>323.3013916015625</v>
       </c>
       <c r="CE2" t="n">
-        <v>299.8103332519531</v>
+        <v>323.366455078125</v>
       </c>
       <c r="CF2" t="n">
-        <v>304.0079650878906</v>
+        <v>323.403076171875</v>
       </c>
       <c r="CG2" t="n">
-        <v>307.6932373046875</v>
+        <v>323.4356689453125</v>
       </c>
       <c r="CH2" t="n">
-        <v>311.8286437988281</v>
+        <v>323.4443359375</v>
       </c>
       <c r="CI2" t="n">
-        <v>316.627197265625</v>
+        <v>323.5073547363281</v>
       </c>
       <c r="CJ2" t="n">
-        <v>319.4044799804688</v>
+        <v>323.5433349609375</v>
       </c>
       <c r="CK2" t="n">
-        <v>322.4325866699219</v>
+        <v>323.5828857421875</v>
       </c>
       <c r="CL2" t="n">
-        <v>325.1109008789062</v>
+        <v>323.6181640625</v>
       </c>
       <c r="CM2" t="n">
-        <v>327.7477416992188</v>
+        <v>323.6682434082031</v>
       </c>
       <c r="CN2" t="n">
-        <v>331.2196655273438</v>
+        <v>323.70458984375</v>
       </c>
       <c r="CO2" t="n">
-        <v>332.4781494140625</v>
+        <v>323.7052001953125</v>
       </c>
       <c r="CP2" t="n">
-        <v>333.9346313476562</v>
+        <v>323.6985473632812</v>
       </c>
       <c r="CQ2" t="n">
-        <v>335.3731689453125</v>
+        <v>323.706298828125</v>
       </c>
       <c r="CR2" t="n">
-        <v>336.2974548339844</v>
+        <v>323.68994140625</v>
       </c>
       <c r="CS2" t="n">
-        <v>337.1170654296875</v>
+        <v>323.6718444824219</v>
       </c>
       <c r="CT2" t="n">
-        <v>337.5661926269531</v>
+        <v>323.6419067382812</v>
       </c>
       <c r="CU2" t="n">
-        <v>337.8191528320312</v>
+        <v>323.59765625</v>
       </c>
       <c r="CV2" t="n">
-        <v>336.8163757324219</v>
+        <v>323.5496520996094</v>
       </c>
       <c r="CW2" t="n">
-        <v>335.5424194335938</v>
+        <v>323.4900512695312</v>
       </c>
       <c r="CX2" t="n">
-        <v>331.8169555664062</v>
+        <v>323.4443359375</v>
       </c>
       <c r="CY2" t="n">
-        <v>328.2073364257812</v>
+        <v>323.2800903320312</v>
       </c>
       <c r="CZ2" t="n">
-        <v>320.5074462890625</v>
+        <v>323.119140625</v>
       </c>
       <c r="DA2" t="n">
-        <v>317.6910705566406</v>
+        <v>322.9468383789062</v>
       </c>
       <c r="DB2" t="n">
-        <v>315.6924743652344</v>
+        <v>322.7748107910156</v>
       </c>
       <c r="DC2" t="n">
-        <v>312.5914916992188</v>
+        <v>322.5090026855469</v>
       </c>
       <c r="DD2" t="n">
-        <v>308.5101013183594</v>
+        <v>322.1759033203125</v>
       </c>
       <c r="DE2" t="n">
-        <v>302.2157897949219</v>
+        <v>321.8500366210938</v>
       </c>
       <c r="DF2" t="n">
-        <v>297.641357421875</v>
+        <v>321.3519897460938</v>
       </c>
       <c r="DG2" t="n">
-        <v>296.3964233398438</v>
+        <v>320.5600280761719</v>
       </c>
       <c r="DH2" t="n">
-        <v>293.4560852050781</v>
+        <v>319.9781494140625</v>
       </c>
       <c r="DI2" t="n">
-        <v>292.2041931152344</v>
+        <v>319.3068542480469</v>
       </c>
       <c r="DJ2" t="n">
-        <v>290.7705993652344</v>
+        <v>318.2484130859375</v>
       </c>
       <c r="DK2" t="n">
-        <v>289.9884643554688</v>
+        <v>317.1643676757812</v>
       </c>
       <c r="DL2" t="n">
-        <v>289.7789001464844</v>
+        <v>316.9374389648438</v>
       </c>
       <c r="DM2" t="n">
-        <v>289.6393737792969</v>
+        <v>316.7894592285156</v>
       </c>
       <c r="DN2" t="n">
-        <v>288.2273254394531</v>
+        <v>316.516357421875</v>
       </c>
       <c r="DO2" t="n">
-        <v>285.967041015625</v>
+        <v>316.0588684082031</v>
       </c>
       <c r="DP2" t="n">
-        <v>283.2247924804688</v>
+        <v>316.1313171386719</v>
       </c>
       <c r="DQ2" t="n">
-        <v>279.8166809082031</v>
+        <v>316.0390014648438</v>
       </c>
       <c r="DR2" t="n">
-        <v>278.9904174804688</v>
+        <v>316.0282287597656</v>
       </c>
       <c r="DS2" t="n">
-        <v>278.7268371582031</v>
+        <v>316.0295104980469</v>
       </c>
       <c r="DT2" t="n">
-        <v>278.7326965332031</v>
+        <v>316.1554870605469</v>
       </c>
       <c r="DU2" t="n">
-        <v>277.9268188476562</v>
+        <v>316.1940307617188</v>
       </c>
       <c r="DV2" t="n">
-        <v>278.10009765625</v>
+        <v>316.2622985839844</v>
       </c>
       <c r="DW2" t="n">
-        <v>282.1225280761719</v>
+        <v>316.2691955566406</v>
       </c>
       <c r="DX2" t="n">
-        <v>286.6750183105469</v>
+        <v>316.3730773925781</v>
       </c>
       <c r="DY2" t="n">
-        <v>290.5242919921875</v>
+        <v>316.9796447753906</v>
       </c>
       <c r="DZ2" t="n">
-        <v>295.8890075683594</v>
+        <v>319.7667541503906</v>
       </c>
       <c r="EA2" t="n">
-        <v>299.8592224121094</v>
+        <v>321.6292724609375</v>
       </c>
       <c r="EB2" t="n">
-        <v>312.3453063964844</v>
+        <v>323.1590576171875</v>
       </c>
       <c r="EC2" t="n">
-        <v>320.9151611328125</v>
+        <v>323.130859375</v>
       </c>
       <c r="ED2" t="n">
-        <v>327.5971984863281</v>
+        <v>322.4456787109375</v>
       </c>
       <c r="EE2" t="n">
-        <v>341.5941772460938</v>
+        <v>322.0067138671875</v>
       </c>
       <c r="EF2" t="n">
-        <v>359.5001831054688</v>
+        <v>321.1700134277344</v>
       </c>
       <c r="EG2" t="n">
-        <v>375.7190551757812</v>
+        <v>320.6953735351562</v>
       </c>
       <c r="EH2" t="n">
-        <v>382.9461975097656</v>
+        <v>320.4073791503906</v>
       </c>
       <c r="EI2" t="n">
-        <v>394.4133911132812</v>
+        <v>319.8526611328125</v>
       </c>
       <c r="EJ2" t="n">
-        <v>398.2593383789062</v>
+        <v>319.49267578125</v>
       </c>
       <c r="EK2" t="n">
-        <v>404.0461730957031</v>
+        <v>318.7399291992188</v>
       </c>
       <c r="EL2" t="n">
-        <v>408.6551513671875</v>
+        <v>317.873291015625</v>
       </c>
       <c r="EM2" t="n">
-        <v>416.3499145507812</v>
+        <v>317.6216735839844</v>
       </c>
       <c r="EN2" t="n">
-        <v>419.613037109375</v>
+        <v>317.4140319824219</v>
       </c>
       <c r="EO2" t="n">
-        <v>424.1570434570312</v>
+        <v>317.9598999023438</v>
       </c>
       <c r="EP2" t="n">
-        <v>424.7537841796875</v>
+        <v>318.1622619628906</v>
       </c>
       <c r="EQ2" t="n">
-        <v>435.0067138671875</v>
+        <v>318.6544494628906</v>
       </c>
       <c r="ER2" t="n">
-        <v>435.3524780273438</v>
+        <v>316.1966857910156</v>
       </c>
       <c r="ES2" t="n">
-        <v>434.3477172851562</v>
+        <v>314.7637023925781</v>
       </c>
       <c r="ET2" t="n">
-        <v>436.9691772460938</v>
+        <v>313.6012878417969</v>
       </c>
       <c r="EU2" t="n">
-        <v>436.614013671875</v>
+        <v>313.5543212890625</v>
       </c>
       <c r="EV2" t="n">
-        <v>434.8317260742188</v>
+        <v>314.2872009277344</v>
       </c>
       <c r="EW2" t="n">
-        <v>435.6319580078125</v>
+        <v>314.6781921386719</v>
       </c>
       <c r="EX2" t="n">
-        <v>436.5650024414062</v>
+        <v>315.0595703125</v>
       </c>
       <c r="EY2" t="n">
-        <v>433.9258117675781</v>
+        <v>315.1138916015625</v>
       </c>
       <c r="EZ2" t="n">
-        <v>432.6069946289062</v>
+        <v>316.7784118652344</v>
       </c>
       <c r="FA2" t="n">
-        <v>431.2615356445312</v>
+        <v>318.2798156738281</v>
       </c>
       <c r="FB2" t="n">
-        <v>431.9168701171875</v>
+        <v>318.4123840332031</v>
       </c>
       <c r="FC2" t="n">
-        <v>429.1025390625</v>
+        <v>318.4696960449219</v>
       </c>
       <c r="FD2" t="n">
-        <v>427.615966796875</v>
+        <v>318.1163330078125</v>
       </c>
       <c r="FE2" t="n">
-        <v>426.974365234375</v>
+        <v>318.4398803710938</v>
       </c>
       <c r="FF2" t="n">
-        <v>425.58251953125</v>
+        <v>319.4924926757812</v>
       </c>
       <c r="FG2" t="n">
-        <v>424.0350341796875</v>
+        <v>319.3154907226562</v>
       </c>
       <c r="FH2" t="n">
-        <v>424.3536376953125</v>
+        <v>319.5413208007812</v>
       </c>
       <c r="FI2" t="n">
-        <v>424.101318359375</v>
+        <v>319.2892150878906</v>
       </c>
       <c r="FJ2" t="n">
-        <v>424.0581665039062</v>
+        <v>318.9141845703125</v>
       </c>
       <c r="FK2" t="n">
-        <v>423.2600708007812</v>
+        <v>317.4270935058594</v>
       </c>
       <c r="FL2" t="n">
-        <v>422.1422729492188</v>
+        <v>316.1341247558594</v>
       </c>
       <c r="FM2" t="n">
-        <v>419.7582702636719</v>
+        <v>315.0554504394531</v>
       </c>
       <c r="FN2" t="n">
-        <v>419.0277709960938</v>
+        <v>315.0234985351562</v>
       </c>
       <c r="FO2" t="n">
-        <v>418.049560546875</v>
+        <v>314.8121337890625</v>
       </c>
       <c r="FP2" t="n">
-        <v>415.5659790039062</v>
+        <v>313.7106323242188</v>
       </c>
       <c r="FQ2" t="n">
-        <v>414.7120361328125</v>
+        <v>313.1428833007812</v>
       </c>
       <c r="FR2" t="n">
-        <v>411.0741577148438</v>
+        <v>311.9114990234375</v>
       </c>
       <c r="FS2" t="n">
-        <v>409.0012817382812</v>
+        <v>311.7184143066406</v>
       </c>
       <c r="FT2" t="n">
-        <v>405.3816528320312</v>
+        <v>310.8036499023438</v>
       </c>
       <c r="FU2" t="n">
-        <v>403.1980895996094</v>
+        <v>308.9179992675781</v>
       </c>
       <c r="FV2" t="n">
-        <v>396.9638671875</v>
+        <v>305.3237915039062</v>
       </c>
       <c r="FW2" t="n">
-        <v>394.0454406738281</v>
+        <v>297.2450866699219</v>
       </c>
       <c r="FX2" t="n">
-        <v>393.3591003417969</v>
+        <v>294.6182556152344</v>
       </c>
       <c r="FY2" t="n">
-        <v>392.6542358398438</v>
+        <v>289.4745178222656</v>
       </c>
       <c r="FZ2" t="n">
-        <v>389.9273071289062</v>
+        <v>287.839111328125</v>
       </c>
       <c r="GA2" t="n">
-        <v>388.3005065917969</v>
+        <v>285.4508666992188</v>
       </c>
       <c r="GB2" t="n">
-        <v>383.5358276367188</v>
+        <v>283.9041442871094</v>
       </c>
       <c r="GC2" t="n">
-        <v>382.2835693359375</v>
+        <v>279.9474182128906</v>
       </c>
       <c r="GD2" t="n">
-        <v>381.4038696289062</v>
+        <v>278.4077758789062</v>
       </c>
       <c r="GE2" t="n">
-        <v>381.0867614746094</v>
+        <v>276.394287109375</v>
       </c>
       <c r="GF2" t="n">
-        <v>377.9900512695312</v>
+        <v>274.0471801757812</v>
       </c>
       <c r="GG2" t="n">
-        <v>376.0970764160156</v>
+        <v>270.9531555175781</v>
       </c>
       <c r="GH2" t="n">
-        <v>372.80419921875</v>
+        <v>264.8931579589844</v>
       </c>
       <c r="GI2" t="n">
-        <v>368.9114990234375</v>
+        <v>261.8417053222656</v>
       </c>
       <c r="GJ2" t="n">
-        <v>366.003173828125</v>
+        <v>260.3870239257812</v>
       </c>
       <c r="GK2" t="n">
-        <v>363.6738586425781</v>
+        <v>258.8747253417969</v>
       </c>
       <c r="GL2" t="n">
-        <v>359.0513305664062</v>
+        <v>256.2346801757812</v>
       </c>
       <c r="GM2" t="n">
-        <v>355.3030395507812</v>
+        <v>251.7011260986328</v>
       </c>
       <c r="GN2" t="n">
-        <v>352.9891662597656</v>
+        <v>250.0335998535156</v>
       </c>
       <c r="GO2" t="n">
-        <v>349.5485229492188</v>
+        <v>247.6355590820312</v>
       </c>
       <c r="GP2" t="n">
-        <v>344.3164367675781</v>
+        <v>243.3467864990234</v>
       </c>
       <c r="GQ2" t="n">
-        <v>338.1708068847656</v>
+        <v>241.3878173828125</v>
       </c>
       <c r="GR2" t="n">
-        <v>335.3969116210938</v>
+        <v>238.8424987792969</v>
       </c>
       <c r="GS2" t="n">
-        <v>333.3132934570312</v>
+        <v>234.5357513427734</v>
       </c>
       <c r="GT2" t="n">
-        <v>330.9258422851562</v>
+        <v>227.8233489990234</v>
       </c>
       <c r="GU2" t="n">
-        <v>325.4055480957031</v>
+        <v>215.1744995117188</v>
       </c>
       <c r="GV2" t="n">
-        <v>322.8121337890625</v>
+        <v>208.0052795410156</v>
       </c>
       <c r="GW2" t="n">
-        <v>321.592529296875</v>
+        <v>199.5298461914062</v>
       </c>
       <c r="GX2" t="n">
-        <v>321.0260009765625</v>
+        <v>188.62158203125</v>
       </c>
       <c r="GY2" t="n">
-        <v>319.354736328125</v>
+        <v>180.0010375976562</v>
       </c>
       <c r="GZ2" t="n">
-        <v>318.5867614746094</v>
+        <v>163.8578643798828</v>
       </c>
       <c r="HA2" t="n">
-        <v>317.2108764648438</v>
+        <v>118.0478591918945</v>
       </c>
       <c r="HB2" t="n">
-        <v>316.4241333007812</v>
+        <v>88.25738525390625</v>
       </c>
       <c r="HC2" t="n">
-        <v>315.69970703125</v>
+        <v>75.40170288085938</v>
       </c>
       <c r="HD2" t="n">
-        <v>315.2440185546875</v>
+        <v>65.20317840576172</v>
       </c>
       <c r="HE2" t="n">
-        <v>313.3414001464844</v>
+        <v>50.04409027099609</v>
       </c>
       <c r="HF2" t="n">
-        <v>311.6097106933594</v>
+        <v>50.41985321044922</v>
       </c>
       <c r="HG2" t="n">
-        <v>311.8033752441406</v>
+        <v>54.64271926879883</v>
       </c>
       <c r="HH2" t="n">
-        <v>314.9638977050781</v>
+        <v>55.77235794067383</v>
       </c>
       <c r="HI2" t="n">
-        <v>317.4302673339844</v>
+        <v>60.76683044433594</v>
       </c>
       <c r="HJ2" t="n">
-        <v>323.2797241210938</v>
+        <v>64.04096984863281</v>
       </c>
       <c r="HK2" t="n">
-        <v>327.559326171875</v>
+        <v>69.93166351318359</v>
       </c>
       <c r="HL2" t="n">
-        <v>334.3479614257812</v>
+        <v>77.65167236328125</v>
       </c>
       <c r="HM2" t="n">
-        <v>342.0988464355469</v>
+        <v>78.74925994873047</v>
       </c>
       <c r="HN2" t="n">
-        <v>352.1365966796875</v>
+        <v>81.14848327636719</v>
       </c>
       <c r="HO2" t="n">
-        <v>364.5612182617188</v>
+        <v>108.2117767333984</v>
       </c>
       <c r="HP2" t="n">
-        <v>375.029541015625</v>
+        <v>137.2765655517578</v>
       </c>
       <c r="HQ2" t="n">
-        <v>378.6941833496094</v>
+        <v>160.5306396484375</v>
       </c>
       <c r="HR2" t="n">
-        <v>387.9925842285156</v>
+        <v>136.8837738037109</v>
       </c>
       <c r="HS2" t="n">
-        <v>392.7420654296875</v>
+        <v>134.5758819580078</v>
       </c>
       <c r="HT2" t="n">
-        <v>397.3680419921875</v>
+        <v>110.4890365600586</v>
       </c>
       <c r="HU2" t="n">
-        <v>400.7174377441406</v>
+        <v>150.3397369384766</v>
       </c>
       <c r="HV2" t="n">
-        <v>401.8859252929688</v>
+        <v>204.7041625976562</v>
       </c>
       <c r="HW2" t="n">
-        <v>402.4395141601562</v>
+        <v>169.2620697021484</v>
       </c>
       <c r="HX2" t="n">
-        <v>402.9346008300781</v>
+        <v>309.5044250488281</v>
       </c>
       <c r="HY2" t="n">
-        <v>403.4805603027344</v>
+        <v>303.3634643554688</v>
       </c>
       <c r="HZ2" t="n">
-        <v>404.5150451660156</v>
+        <v>293.2593994140625</v>
       </c>
       <c r="IA2" t="n">
-        <v>404.9681091308594</v>
+        <v>253.3549346923828</v>
       </c>
       <c r="IB2" t="n">
-        <v>405.0834655761719</v>
+        <v>262.6295776367188</v>
       </c>
       <c r="IC2" t="n">
-        <v>405.1052551269531</v>
+        <v>304.7043762207031</v>
       </c>
       <c r="ID2" t="n">
-        <v>403.5107116699219</v>
+        <v>297.9968872070312</v>
       </c>
       <c r="IE2" t="n">
-        <v>399.9719848632812</v>
+        <v>271.6614990234375</v>
       </c>
       <c r="IF2" t="n">
-        <v>397.14501953125</v>
+        <v>275.5352478027344</v>
       </c>
       <c r="IG2" t="n">
-        <v>393.824951171875</v>
+        <v>270.5892639160156</v>
       </c>
       <c r="IH2" t="n">
-        <v>388.4183044433594</v>
+        <v>271.1304626464844</v>
       </c>
       <c r="II2" t="n">
-        <v>384.6152038574219</v>
+        <v>254.2726898193359</v>
       </c>
       <c r="IJ2" t="n">
-        <v>378.0310363769531</v>
+        <v>253.2235412597656</v>
       </c>
       <c r="IK2" t="n">
-        <v>365.128173828125</v>
+        <v>268.9533081054688</v>
       </c>
       <c r="IL2" t="n">
-        <v>360.6661376953125</v>
+        <v>303.3117065429688</v>
       </c>
       <c r="IM2" t="n">
-        <v>352.8363647460938</v>
+        <v>250.1661987304688</v>
       </c>
       <c r="IN2" t="n">
-        <v>343.2143859863281</v>
+        <v>324.2981262207031</v>
       </c>
       <c r="IO2" t="n">
-        <v>336.2879638671875</v>
+        <v>322.2867431640625</v>
       </c>
       <c r="IP2" t="n">
-        <v>334.1205444335938</v>
+        <v>200.6494750976562</v>
       </c>
       <c r="IQ2" t="n">
-        <v>332.5954895019531</v>
+        <v>172.9947814941406</v>
       </c>
       <c r="IR2" t="n">
-        <v>331.934326171875</v>
+        <v>194.1900329589844</v>
       </c>
       <c r="IS2" t="n">
-        <v>331.5378112792969</v>
+        <v>197.9732971191406</v>
       </c>
       <c r="IT2" t="n">
-        <v>330.2831420898438</v>
+        <v>171.0858764648438</v>
       </c>
       <c r="IU2" t="n">
-        <v>328.2946166992188</v>
+        <v>229.3713073730469</v>
       </c>
       <c r="IV2" t="n">
-        <v>326.607666015625</v>
+        <v>228.6912841796875</v>
       </c>
       <c r="IW2" t="n">
-        <v>326.1543579101562</v>
+        <v>144.7122497558594</v>
       </c>
       <c r="IX2" t="n">
-        <v>324.726318359375</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>324.6266479492188</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>324.8770446777344</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>326.8203125</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>329.9199829101562</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>332.0784912109375</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>334.8347473144531</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>339.0258178710938</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>343.0525512695312</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>349.7440795898438</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>354.7037048339844</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>359.4735107421875</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>363.9399719238281</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>368.9621276855469</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>375.8585205078125</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>377.3819580078125</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>378.872314453125</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>380.87939453125</v>
-      </c>
-      <c r="JP2" t="n">
-        <v>383.3544311523438</v>
-      </c>
-      <c r="JQ2" t="n">
-        <v>385.7564086914062</v>
-      </c>
-      <c r="JR2" t="n">
-        <v>386.98681640625</v>
-      </c>
-      <c r="JS2" t="n">
-        <v>389.3887939453125</v>
-      </c>
-      <c r="JT2" t="n">
-        <v>391.4527587890625</v>
-      </c>
-      <c r="JU2" t="n">
-        <v>392.4630126953125</v>
-      </c>
-      <c r="JV2" t="n">
-        <v>392.76513671875</v>
-      </c>
-      <c r="JW2" t="n">
-        <v>392.910400390625</v>
-      </c>
-      <c r="JX2" t="n">
-        <v>392.9954223632812</v>
-      </c>
-      <c r="JY2" t="n">
-        <v>393.0621032714844</v>
-      </c>
-      <c r="JZ2" t="n">
-        <v>393.1225891113281</v>
-      </c>
-      <c r="KA2" t="n">
-        <v>393.2585144042969</v>
-      </c>
-      <c r="KB2" t="n">
-        <v>391.95703125</v>
-      </c>
-      <c r="KC2" t="n">
-        <v>390.0151977539062</v>
-      </c>
-      <c r="KD2" t="n">
-        <v>388.7657470703125</v>
-      </c>
-      <c r="KE2" t="n">
-        <v>387.8309936523438</v>
-      </c>
-      <c r="KF2" t="n">
-        <v>387.4915161132812</v>
-      </c>
-      <c r="KG2" t="n">
-        <v>387.4921875</v>
-      </c>
-      <c r="KH2" t="n">
-        <v>387.6359252929688</v>
-      </c>
-      <c r="KI2" t="n">
-        <v>387.8386840820312</v>
-      </c>
-      <c r="KJ2" t="n">
-        <v>388.0813293457031</v>
-      </c>
-      <c r="KK2" t="n">
-        <v>388.2983093261719</v>
-      </c>
-      <c r="KL2" t="n">
-        <v>388.4627075195312</v>
-      </c>
-      <c r="KM2" t="n">
-        <v>388.4072265625</v>
-      </c>
-      <c r="KN2" t="n">
-        <v>388.3437805175781</v>
-      </c>
-      <c r="KO2" t="n">
-        <v>388.6680908203125</v>
-      </c>
-      <c r="KP2" t="n">
-        <v>389.1784057617188</v>
-      </c>
-      <c r="KQ2" t="n">
-        <v>389.8519592285156</v>
-      </c>
-      <c r="KR2" t="n">
-        <v>390.1655883789062</v>
-      </c>
-      <c r="KS2" t="n">
-        <v>391.5227661132812</v>
-      </c>
-      <c r="KT2" t="n">
-        <v>392.6908874511719</v>
-      </c>
-      <c r="KU2" t="n">
-        <v>393.4093017578125</v>
-      </c>
-      <c r="KV2" t="n">
-        <v>393.1143188476562</v>
-      </c>
-      <c r="KW2" t="n">
-        <v>393.1574096679688</v>
-      </c>
-      <c r="KX2" t="n">
-        <v>393.1611633300781</v>
-      </c>
-      <c r="KY2" t="n">
-        <v>394.0421142578125</v>
-      </c>
-      <c r="KZ2" t="n">
-        <v>395.7198791503906</v>
-      </c>
-      <c r="LA2" t="n">
-        <v>396.7047424316406</v>
-      </c>
-      <c r="LB2" t="n">
-        <v>397.8882141113281</v>
-      </c>
-      <c r="LC2" t="n">
-        <v>399.4191284179688</v>
-      </c>
-      <c r="LD2" t="n">
-        <v>401.1883850097656</v>
-      </c>
-      <c r="LE2" t="n">
-        <v>403.8076782226562</v>
-      </c>
-      <c r="LF2" t="n">
-        <v>407.1649780273438</v>
-      </c>
-      <c r="LG2" t="n">
-        <v>407.9488525390625</v>
-      </c>
-      <c r="LH2" t="n">
-        <v>411.3489379882812</v>
-      </c>
-      <c r="LI2" t="n">
-        <v>415.9589233398438</v>
-      </c>
-      <c r="LJ2" t="n">
-        <v>420.0538940429688</v>
-      </c>
-      <c r="LK2" t="n">
-        <v>421.662841796875</v>
-      </c>
-      <c r="LL2" t="n">
-        <v>424.5215454101562</v>
-      </c>
-      <c r="LM2" t="n">
-        <v>424.138427734375</v>
-      </c>
-      <c r="LN2" t="n">
-        <v>422.8466186523438</v>
-      </c>
-      <c r="LO2" t="n">
-        <v>420.8776550292969</v>
-      </c>
-      <c r="LP2" t="n">
-        <v>426.5621948242188</v>
-      </c>
-      <c r="LQ2" t="n">
-        <v>438.0533447265625</v>
-      </c>
-      <c r="LR2" t="n">
-        <v>445.56201171875</v>
-      </c>
-      <c r="LS2" t="n">
-        <v>447.31689453125</v>
-      </c>
-      <c r="LT2" t="n">
-        <v>451.1623840332031</v>
-      </c>
-      <c r="LU2" t="n">
-        <v>453.8689575195312</v>
-      </c>
-      <c r="LV2" t="n">
-        <v>451.6170654296875</v>
-      </c>
-      <c r="LW2" t="n">
-        <v>434.8385620117188</v>
-      </c>
-      <c r="LX2" t="n">
-        <v>429.8465270996094</v>
-      </c>
-      <c r="LY2" t="n">
-        <v>416.9219970703125</v>
-      </c>
-      <c r="LZ2" t="n">
-        <v>394.8665161132812</v>
-      </c>
-      <c r="MA2" t="n">
-        <v>369.37060546875</v>
-      </c>
-      <c r="MB2" t="n">
-        <v>344.1002807617188</v>
-      </c>
-      <c r="MC2" t="n">
-        <v>321.40869140625</v>
-      </c>
-      <c r="MD2" t="n">
-        <v>303.3062133789062</v>
-      </c>
-      <c r="ME2" t="n">
-        <v>301.4769287109375</v>
-      </c>
-      <c r="MF2" t="n">
-        <v>303.1114501953125</v>
-      </c>
-      <c r="MG2" t="n">
-        <v>309.6549682617188</v>
-      </c>
-      <c r="MH2" t="n">
-        <v>314.733154296875</v>
-      </c>
-      <c r="MI2" t="n">
-        <v>320.859619140625</v>
-      </c>
-      <c r="MJ2" t="n">
-        <v>327.0216064453125</v>
-      </c>
-      <c r="MK2" t="n">
-        <v>337.1556091308594</v>
-      </c>
-      <c r="ML2" t="n">
-        <v>344.2418823242188</v>
-      </c>
-      <c r="MM2" t="n">
-        <v>365.7611694335938</v>
-      </c>
-      <c r="MN2" t="n">
-        <v>363.3472900390625</v>
-      </c>
-      <c r="MO2" t="n">
-        <v>366.4683837890625</v>
-      </c>
-      <c r="MP2" t="n">
-        <v>369.8175354003906</v>
-      </c>
-      <c r="MQ2" t="n">
-        <v>367.5332641601562</v>
-      </c>
-      <c r="MR2" t="n">
-        <v>346.3028259277344</v>
-      </c>
-      <c r="MS2" t="n">
-        <v>375.2646484375</v>
-      </c>
-      <c r="MT2" t="n">
-        <v>402.2289428710938</v>
-      </c>
-      <c r="MU2" t="n">
-        <v>397.1625061035156</v>
-      </c>
-      <c r="MV2" t="n">
-        <v>354.3610229492188</v>
-      </c>
-      <c r="MW2" t="n">
-        <v>348.6256103515625</v>
-      </c>
-      <c r="MX2" t="n">
-        <v>339.934326171875</v>
-      </c>
-      <c r="MY2" t="n">
-        <v>307.4857177734375</v>
-      </c>
-      <c r="MZ2" t="n">
-        <v>327.0354919433594</v>
-      </c>
-      <c r="NA2" t="n">
-        <v>323.8872680664062</v>
-      </c>
-      <c r="NB2" t="n">
-        <v>280.7858276367188</v>
-      </c>
-      <c r="NC2" t="n">
-        <v>265.8688659667969</v>
-      </c>
-      <c r="ND2" t="n">
-        <v>272.0917358398438</v>
-      </c>
-      <c r="NE2" t="n">
-        <v>274.9955139160156</v>
-      </c>
-      <c r="NF2" t="n">
-        <v>275.6927490234375</v>
-      </c>
-      <c r="NG2" t="n">
-        <v>277.1116027832031</v>
-      </c>
-      <c r="NH2" t="n">
-        <v>277.1333312988281</v>
-      </c>
-      <c r="NI2" t="n">
-        <v>279.3191528320312</v>
-      </c>
-      <c r="NJ2" t="n">
-        <v>281.8798828125</v>
-      </c>
-      <c r="NK2" t="n">
-        <v>283.55224609375</v>
-      </c>
-      <c r="NL2" t="n">
-        <v>282.9685668945312</v>
-      </c>
-      <c r="NM2" t="n">
-        <v>286.5022888183594</v>
+        <v>143.7679138183594</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>390.1651916503906</v>
+        <v>401.9370422363281</v>
       </c>
       <c r="B3" t="n">
-        <v>382.2511596679688</v>
+        <v>395.9424743652344</v>
       </c>
       <c r="C3" t="n">
-        <v>384.0939331054688</v>
+        <v>397.5895690917969</v>
       </c>
       <c r="D3" t="n">
-        <v>383.5965576171875</v>
+        <v>398.5187683105469</v>
       </c>
       <c r="E3" t="n">
-        <v>384.6411437988281</v>
+        <v>398.5110168457031</v>
       </c>
       <c r="F3" t="n">
-        <v>382.476318359375</v>
+        <v>397.3929748535156</v>
       </c>
       <c r="G3" t="n">
-        <v>379.5060729980469</v>
+        <v>395.85595703125</v>
       </c>
       <c r="H3" t="n">
-        <v>376.3790588378906</v>
+        <v>392.83935546875</v>
       </c>
       <c r="I3" t="n">
-        <v>372.0662841796875</v>
+        <v>389.9412536621094</v>
       </c>
       <c r="J3" t="n">
-        <v>369.3463745117188</v>
+        <v>386.6805114746094</v>
       </c>
       <c r="K3" t="n">
-        <v>366.5009765625</v>
+        <v>383.2267761230469</v>
       </c>
       <c r="L3" t="n">
-        <v>363.0281066894531</v>
+        <v>379.0611572265625</v>
       </c>
       <c r="M3" t="n">
-        <v>368.1357727050781</v>
+        <v>375.8488159179688</v>
       </c>
       <c r="N3" t="n">
-        <v>356.1870422363281</v>
+        <v>375.0992126464844</v>
       </c>
       <c r="O3" t="n">
-        <v>359.3636474609375</v>
+        <v>377.0372009277344</v>
       </c>
       <c r="P3" t="n">
-        <v>353.7201538085938</v>
+        <v>376.2601013183594</v>
       </c>
       <c r="Q3" t="n">
-        <v>352.0291137695312</v>
+        <v>376.3400268554688</v>
       </c>
       <c r="R3" t="n">
-        <v>351.9912719726562</v>
+        <v>377.3933715820312</v>
       </c>
       <c r="S3" t="n">
-        <v>352.6277160644531</v>
+        <v>377.7048034667969</v>
       </c>
       <c r="T3" t="n">
-        <v>351.3376770019531</v>
+        <v>378.1338500976562</v>
       </c>
       <c r="U3" t="n">
-        <v>350.208740234375</v>
+        <v>378.035400390625</v>
       </c>
       <c r="V3" t="n">
-        <v>349.2012634277344</v>
+        <v>379.1068420410156</v>
       </c>
       <c r="W3" t="n">
-        <v>348.4002075195312</v>
+        <v>380.4385375976562</v>
       </c>
       <c r="X3" t="n">
-        <v>348.4251403808594</v>
+        <v>379.9247741699219</v>
       </c>
       <c r="Y3" t="n">
-        <v>354.8031616210938</v>
+        <v>381.171630859375</v>
       </c>
       <c r="Z3" t="n">
-        <v>363.1242065429688</v>
+        <v>380.408447265625</v>
       </c>
       <c r="AA3" t="n">
-        <v>364.5896606445312</v>
+        <v>381.3736877441406</v>
       </c>
       <c r="AB3" t="n">
-        <v>365.2212524414062</v>
+        <v>382.6353759765625</v>
       </c>
       <c r="AC3" t="n">
-        <v>365.37939453125</v>
+        <v>382.9234619140625</v>
       </c>
       <c r="AD3" t="n">
-        <v>364.3157348632812</v>
+        <v>383.5029907226562</v>
       </c>
       <c r="AE3" t="n">
-        <v>365.7934875488281</v>
+        <v>381.2905883789062</v>
       </c>
       <c r="AF3" t="n">
-        <v>363.1123352050781</v>
+        <v>380.7405395507812</v>
       </c>
       <c r="AG3" t="n">
-        <v>363.8835754394531</v>
+        <v>379.7466125488281</v>
       </c>
       <c r="AH3" t="n">
-        <v>353.4343872070312</v>
+        <v>379.1745910644531</v>
       </c>
       <c r="AI3" t="n">
-        <v>356.9229431152344</v>
+        <v>378.4195861816406</v>
       </c>
       <c r="AJ3" t="n">
-        <v>353.3413696289062</v>
+        <v>378.1459045410156</v>
       </c>
       <c r="AK3" t="n">
-        <v>358.6854553222656</v>
+        <v>378.8245544433594</v>
       </c>
       <c r="AL3" t="n">
-        <v>361.6952209472656</v>
+        <v>379.5733947753906</v>
       </c>
       <c r="AM3" t="n">
-        <v>366.9151611328125</v>
+        <v>380.89013671875</v>
       </c>
       <c r="AN3" t="n">
-        <v>367.1011657714844</v>
+        <v>382.7015075683594</v>
       </c>
       <c r="AO3" t="n">
-        <v>367.7301330566406</v>
+        <v>383.9667358398438</v>
       </c>
       <c r="AP3" t="n">
-        <v>369.089599609375</v>
+        <v>384.3224487304688</v>
       </c>
       <c r="AQ3" t="n">
-        <v>371.1006774902344</v>
+        <v>384.4183654785156</v>
       </c>
       <c r="AR3" t="n">
-        <v>372.1374206542969</v>
+        <v>384.3338317871094</v>
       </c>
       <c r="AS3" t="n">
-        <v>372.4708251953125</v>
+        <v>383.6373291015625</v>
       </c>
       <c r="AT3" t="n">
-        <v>372.896484375</v>
+        <v>382.9765930175781</v>
       </c>
       <c r="AU3" t="n">
-        <v>372.1837768554688</v>
+        <v>382.4352722167969</v>
       </c>
       <c r="AV3" t="n">
-        <v>371.2255249023438</v>
+        <v>382.2909851074219</v>
       </c>
       <c r="AW3" t="n">
-        <v>370.4389038085938</v>
+        <v>382.3507995605469</v>
       </c>
       <c r="AX3" t="n">
-        <v>371.0567321777344</v>
+        <v>382.2689819335938</v>
       </c>
       <c r="AY3" t="n">
-        <v>372.2403564453125</v>
+        <v>382.4115905761719</v>
       </c>
       <c r="AZ3" t="n">
-        <v>373.1754150390625</v>
+        <v>382.7130432128906</v>
       </c>
       <c r="BA3" t="n">
-        <v>373.7045288085938</v>
+        <v>382.9450073242188</v>
       </c>
       <c r="BB3" t="n">
-        <v>372.8750305175781</v>
+        <v>382.6607666015625</v>
       </c>
       <c r="BC3" t="n">
-        <v>371.8576354980469</v>
+        <v>382.0544738769531</v>
       </c>
       <c r="BD3" t="n">
-        <v>368.6361694335938</v>
+        <v>381.7562866210938</v>
       </c>
       <c r="BE3" t="n">
-        <v>366.529296875</v>
+        <v>381.5314025878906</v>
       </c>
       <c r="BF3" t="n">
-        <v>364.1201782226562</v>
+        <v>381.4198303222656</v>
       </c>
       <c r="BG3" t="n">
-        <v>362.6948852539062</v>
+        <v>381.3062744140625</v>
       </c>
       <c r="BH3" t="n">
-        <v>360.0457153320312</v>
+        <v>381.0055236816406</v>
       </c>
       <c r="BI3" t="n">
-        <v>357.3468322753906</v>
+        <v>380.7433166503906</v>
       </c>
       <c r="BJ3" t="n">
-        <v>357.1053161621094</v>
+        <v>380.3043823242188</v>
       </c>
       <c r="BK3" t="n">
-        <v>358.2060241699219</v>
+        <v>380.2670288085938</v>
       </c>
       <c r="BL3" t="n">
-        <v>360.2630004882812</v>
+        <v>380.1642761230469</v>
       </c>
       <c r="BM3" t="n">
-        <v>361.9172973632812</v>
+        <v>380.0611877441406</v>
       </c>
       <c r="BN3" t="n">
-        <v>363.1155395507812</v>
+        <v>380.0769958496094</v>
       </c>
       <c r="BO3" t="n">
-        <v>364.298095703125</v>
+        <v>379.4073181152344</v>
       </c>
       <c r="BP3" t="n">
-        <v>364.0399169921875</v>
+        <v>378.9665222167969</v>
       </c>
       <c r="BQ3" t="n">
-        <v>363.8809814453125</v>
+        <v>378.66162109375</v>
       </c>
       <c r="BR3" t="n">
-        <v>363.0308837890625</v>
+        <v>378.6154479980469</v>
       </c>
       <c r="BS3" t="n">
-        <v>361.8579711914062</v>
+        <v>378.6810913085938</v>
       </c>
       <c r="BT3" t="n">
-        <v>360.6720275878906</v>
+        <v>378.9176940917969</v>
       </c>
       <c r="BU3" t="n">
-        <v>361.5330505371094</v>
+        <v>379.1453552246094</v>
       </c>
       <c r="BV3" t="n">
-        <v>361.9539184570312</v>
+        <v>379.299560546875</v>
       </c>
       <c r="BW3" t="n">
-        <v>362.0883483886719</v>
+        <v>379.6739807128906</v>
       </c>
       <c r="BX3" t="n">
-        <v>362.0499572753906</v>
+        <v>379.8637390136719</v>
       </c>
       <c r="BY3" t="n">
-        <v>360.8621520996094</v>
+        <v>380.005126953125</v>
       </c>
       <c r="BZ3" t="n">
-        <v>360.5131530761719</v>
+        <v>380.172607421875</v>
       </c>
       <c r="CA3" t="n">
-        <v>360.8980712890625</v>
+        <v>380.3079223632812</v>
       </c>
       <c r="CB3" t="n">
-        <v>361.958740234375</v>
+        <v>380.4940795898438</v>
       </c>
       <c r="CC3" t="n">
-        <v>363.0901794433594</v>
+        <v>380.5489501953125</v>
       </c>
       <c r="CD3" t="n">
-        <v>363.2743530273438</v>
+        <v>380.625244140625</v>
       </c>
       <c r="CE3" t="n">
-        <v>363.6022338867188</v>
+        <v>380.6470947265625</v>
       </c>
       <c r="CF3" t="n">
-        <v>363.7332458496094</v>
+        <v>380.613037109375</v>
       </c>
       <c r="CG3" t="n">
-        <v>363.6086120605469</v>
+        <v>380.6112670898438</v>
       </c>
       <c r="CH3" t="n">
-        <v>363.8063354492188</v>
+        <v>380.5409545898438</v>
       </c>
       <c r="CI3" t="n">
-        <v>363.9432373046875</v>
+        <v>380.4587707519531</v>
       </c>
       <c r="CJ3" t="n">
-        <v>363.171142578125</v>
+        <v>380.4371032714844</v>
       </c>
       <c r="CK3" t="n">
-        <v>363.0748901367188</v>
+        <v>380.4169311523438</v>
       </c>
       <c r="CL3" t="n">
-        <v>363.2250671386719</v>
+        <v>380.3964538574219</v>
       </c>
       <c r="CM3" t="n">
-        <v>363.5281066894531</v>
+        <v>380.3479919433594</v>
       </c>
       <c r="CN3" t="n">
-        <v>363.6003112792969</v>
+        <v>380.3028564453125</v>
       </c>
       <c r="CO3" t="n">
-        <v>363.6803283691406</v>
+        <v>380.2764892578125</v>
       </c>
       <c r="CP3" t="n">
-        <v>363.6304016113281</v>
+        <v>380.2430114746094</v>
       </c>
       <c r="CQ3" t="n">
-        <v>363.5335998535156</v>
+        <v>380.2366333007812</v>
       </c>
       <c r="CR3" t="n">
-        <v>363.2315063476562</v>
+        <v>380.2133178710938</v>
       </c>
       <c r="CS3" t="n">
-        <v>363.1578674316406</v>
+        <v>380.1844787597656</v>
       </c>
       <c r="CT3" t="n">
-        <v>363.3626403808594</v>
+        <v>380.1665649414062</v>
       </c>
       <c r="CU3" t="n">
-        <v>363.5942993164062</v>
+        <v>380.1255798339844</v>
       </c>
       <c r="CV3" t="n">
-        <v>363.7881774902344</v>
+        <v>380.0874328613281</v>
       </c>
       <c r="CW3" t="n">
-        <v>363.9807434082031</v>
+        <v>380.0369262695312</v>
       </c>
       <c r="CX3" t="n">
-        <v>364.40087890625</v>
+        <v>380.0195617675781</v>
       </c>
       <c r="CY3" t="n">
-        <v>364.1158752441406</v>
+        <v>379.9219665527344</v>
       </c>
       <c r="CZ3" t="n">
-        <v>363.2535400390625</v>
+        <v>379.7610473632812</v>
       </c>
       <c r="DA3" t="n">
-        <v>361.8739318847656</v>
+        <v>379.6056823730469</v>
       </c>
       <c r="DB3" t="n">
-        <v>361.4389953613281</v>
+        <v>379.4767456054688</v>
       </c>
       <c r="DC3" t="n">
-        <v>360.7621154785156</v>
+        <v>379.3385009765625</v>
       </c>
       <c r="DD3" t="n">
-        <v>360.7871704101562</v>
+        <v>379.2096557617188</v>
       </c>
       <c r="DE3" t="n">
-        <v>360.9869384765625</v>
+        <v>379.5751342773438</v>
       </c>
       <c r="DF3" t="n">
-        <v>361.2571716308594</v>
+        <v>379.9552307128906</v>
       </c>
       <c r="DG3" t="n">
-        <v>361.5475769042969</v>
+        <v>380.5115356445312</v>
       </c>
       <c r="DH3" t="n">
-        <v>361.6646118164062</v>
+        <v>380.9525451660156</v>
       </c>
       <c r="DI3" t="n">
-        <v>361.5918579101562</v>
+        <v>381.462158203125</v>
       </c>
       <c r="DJ3" t="n">
-        <v>361.9273376464844</v>
+        <v>382.1743774414062</v>
       </c>
       <c r="DK3" t="n">
-        <v>361.972412109375</v>
+        <v>382.8846130371094</v>
       </c>
       <c r="DL3" t="n">
-        <v>362.8347473144531</v>
+        <v>382.9421691894531</v>
       </c>
       <c r="DM3" t="n">
-        <v>364.8610229492188</v>
+        <v>383.0111083984375</v>
       </c>
       <c r="DN3" t="n">
-        <v>365.3623046875</v>
+        <v>382.9647827148438</v>
       </c>
       <c r="DO3" t="n">
-        <v>365.8767395019531</v>
+        <v>380.5538330078125</v>
       </c>
       <c r="DP3" t="n">
-        <v>365.3105773925781</v>
+        <v>380.3729553222656</v>
       </c>
       <c r="DQ3" t="n">
-        <v>364.0896606445312</v>
+        <v>380.2911071777344</v>
       </c>
       <c r="DR3" t="n">
-        <v>363.6398315429688</v>
+        <v>380.3061828613281</v>
       </c>
       <c r="DS3" t="n">
-        <v>363.1756896972656</v>
+        <v>380.3462524414062</v>
       </c>
       <c r="DT3" t="n">
-        <v>363.2839660644531</v>
+        <v>380.6552429199219</v>
       </c>
       <c r="DU3" t="n">
-        <v>365.1524353027344</v>
+        <v>380.7033996582031</v>
       </c>
       <c r="DV3" t="n">
-        <v>366.2171936035156</v>
+        <v>380.5921020507812</v>
       </c>
       <c r="DW3" t="n">
-        <v>365.7346801757812</v>
+        <v>380.4613342285156</v>
       </c>
       <c r="DX3" t="n">
-        <v>365.7008666992188</v>
+        <v>380.5494079589844</v>
       </c>
       <c r="DY3" t="n">
-        <v>365.5525512695312</v>
+        <v>381.514892578125</v>
       </c>
       <c r="DZ3" t="n">
-        <v>365.0507507324219</v>
+        <v>382.7516784667969</v>
       </c>
       <c r="EA3" t="n">
-        <v>364.9336853027344</v>
+        <v>383.1145324707031</v>
       </c>
       <c r="EB3" t="n">
-        <v>366.4471130371094</v>
+        <v>382.8810424804688</v>
       </c>
       <c r="EC3" t="n">
-        <v>369.8893127441406</v>
+        <v>382.764892578125</v>
       </c>
       <c r="ED3" t="n">
-        <v>371.2077941894531</v>
+        <v>382.2167358398438</v>
       </c>
       <c r="EE3" t="n">
-        <v>372.2439880371094</v>
+        <v>381.8676452636719</v>
       </c>
       <c r="EF3" t="n">
-        <v>374.5365905761719</v>
+        <v>380.2271728515625</v>
       </c>
       <c r="EG3" t="n">
-        <v>370.7880859375</v>
+        <v>378.5279541015625</v>
       </c>
       <c r="EH3" t="n">
-        <v>370.7226867675781</v>
+        <v>376.9642333984375</v>
       </c>
       <c r="EI3" t="n">
-        <v>369.0901489257812</v>
+        <v>377.1610717773438</v>
       </c>
       <c r="EJ3" t="n">
-        <v>367.624267578125</v>
+        <v>376.9359436035156</v>
       </c>
       <c r="EK3" t="n">
-        <v>364.0596618652344</v>
+        <v>378.1793212890625</v>
       </c>
       <c r="EL3" t="n">
-        <v>363.6458129882812</v>
+        <v>379.583740234375</v>
       </c>
       <c r="EM3" t="n">
-        <v>361.7281188964844</v>
+        <v>380.844482421875</v>
       </c>
       <c r="EN3" t="n">
-        <v>359.8716735839844</v>
+        <v>381.5772399902344</v>
       </c>
       <c r="EO3" t="n">
-        <v>359.6139221191406</v>
+        <v>381.6056823730469</v>
       </c>
       <c r="EP3" t="n">
-        <v>359.7822265625</v>
+        <v>381.5063171386719</v>
       </c>
       <c r="EQ3" t="n">
-        <v>369.2409973144531</v>
+        <v>381.9684448242188</v>
       </c>
       <c r="ER3" t="n">
-        <v>368.6253051757812</v>
+        <v>380.2817687988281</v>
       </c>
       <c r="ES3" t="n">
-        <v>371.3994140625</v>
+        <v>379.8123779296875</v>
       </c>
       <c r="ET3" t="n">
-        <v>380.0757751464844</v>
+        <v>378.9259338378906</v>
       </c>
       <c r="EU3" t="n">
-        <v>378.0476684570312</v>
+        <v>379.0008850097656</v>
       </c>
       <c r="EV3" t="n">
-        <v>371.6507568359375</v>
+        <v>378.2521057128906</v>
       </c>
       <c r="EW3" t="n">
-        <v>367.31689453125</v>
+        <v>377.8067016601562</v>
       </c>
       <c r="EX3" t="n">
-        <v>366.2705078125</v>
+        <v>377.4352722167969</v>
       </c>
       <c r="EY3" t="n">
-        <v>362.7668151855469</v>
+        <v>378.6506652832031</v>
       </c>
       <c r="EZ3" t="n">
-        <v>361.0657348632812</v>
+        <v>381.5262451171875</v>
       </c>
       <c r="FA3" t="n">
-        <v>360.4359741210938</v>
+        <v>383.5244750976562</v>
       </c>
       <c r="FB3" t="n">
-        <v>365.6509704589844</v>
+        <v>383.6342163085938</v>
       </c>
       <c r="FC3" t="n">
-        <v>368.9933776855469</v>
+        <v>384.4063415527344</v>
       </c>
       <c r="FD3" t="n">
-        <v>368.6599731445312</v>
+        <v>385.0396728515625</v>
       </c>
       <c r="FE3" t="n">
-        <v>368.3641052246094</v>
+        <v>385.5231628417969</v>
       </c>
       <c r="FF3" t="n">
-        <v>367.1846923828125</v>
+        <v>385.3965148925781</v>
       </c>
       <c r="FG3" t="n">
-        <v>366.5977172851562</v>
+        <v>382.5813598632812</v>
       </c>
       <c r="FH3" t="n">
-        <v>367.4552001953125</v>
+        <v>379.98583984375</v>
       </c>
       <c r="FI3" t="n">
-        <v>367.1123046875</v>
+        <v>379.7040100097656</v>
       </c>
       <c r="FJ3" t="n">
-        <v>366.8230285644531</v>
+        <v>382.0257873535156</v>
       </c>
       <c r="FK3" t="n">
-        <v>365.1461181640625</v>
+        <v>383.2055053710938</v>
       </c>
       <c r="FL3" t="n">
-        <v>363.8800048828125</v>
+        <v>381.8434143066406</v>
       </c>
       <c r="FM3" t="n">
-        <v>360.36328125</v>
+        <v>381.1337280273438</v>
       </c>
       <c r="FN3" t="n">
-        <v>359.3017578125</v>
+        <v>380.4250793457031</v>
       </c>
       <c r="FO3" t="n">
-        <v>358.2083435058594</v>
+        <v>381.0784606933594</v>
       </c>
       <c r="FP3" t="n">
-        <v>358.0732727050781</v>
+        <v>381.5293884277344</v>
       </c>
       <c r="FQ3" t="n">
-        <v>362.6338500976562</v>
+        <v>382.3237915039062</v>
       </c>
       <c r="FR3" t="n">
-        <v>361.4697265625</v>
+        <v>383.5577087402344</v>
       </c>
       <c r="FS3" t="n">
-        <v>361.0280151367188</v>
+        <v>384.2468566894531</v>
       </c>
       <c r="FT3" t="n">
-        <v>359.9534301757812</v>
+        <v>385.5121765136719</v>
       </c>
       <c r="FU3" t="n">
-        <v>359.7884521484375</v>
+        <v>384.8960571289062</v>
       </c>
       <c r="FV3" t="n">
-        <v>361.87890625</v>
+        <v>385.158447265625</v>
       </c>
       <c r="FW3" t="n">
-        <v>363.78662109375</v>
+        <v>382.4754638671875</v>
       </c>
       <c r="FX3" t="n">
-        <v>363.6270141601562</v>
+        <v>382.0210266113281</v>
       </c>
       <c r="FY3" t="n">
-        <v>363.5211486816406</v>
+        <v>380.7393188476562</v>
       </c>
       <c r="FZ3" t="n">
-        <v>363.0206604003906</v>
+        <v>379.6367492675781</v>
       </c>
       <c r="GA3" t="n">
-        <v>362.921630859375</v>
+        <v>380.6502685546875</v>
       </c>
       <c r="GB3" t="n">
-        <v>361.8255004882812</v>
+        <v>380.6504821777344</v>
       </c>
       <c r="GC3" t="n">
-        <v>361.5663757324219</v>
+        <v>382.7005310058594</v>
       </c>
       <c r="GD3" t="n">
-        <v>360.6382751464844</v>
+        <v>384.3425598144531</v>
       </c>
       <c r="GE3" t="n">
-        <v>360.0632019042969</v>
+        <v>383.8759765625</v>
       </c>
       <c r="GF3" t="n">
-        <v>357.614501953125</v>
+        <v>384.2744750976562</v>
       </c>
       <c r="GG3" t="n">
-        <v>356.5575866699219</v>
+        <v>383.5988159179688</v>
       </c>
       <c r="GH3" t="n">
-        <v>355.9839782714844</v>
+        <v>387.5566101074219</v>
       </c>
       <c r="GI3" t="n">
-        <v>356.4085388183594</v>
+        <v>390.3037414550781</v>
       </c>
       <c r="GJ3" t="n">
-        <v>356.3949890136719</v>
+        <v>391.7897338867188</v>
       </c>
       <c r="GK3" t="n">
-        <v>355.9314880371094</v>
+        <v>394.1648559570312</v>
       </c>
       <c r="GL3" t="n">
-        <v>355.7676086425781</v>
+        <v>399.103759765625</v>
       </c>
       <c r="GM3" t="n">
-        <v>355.63232421875</v>
+        <v>405.32958984375</v>
       </c>
       <c r="GN3" t="n">
-        <v>355.6007690429688</v>
+        <v>408.4624633789062</v>
       </c>
       <c r="GO3" t="n">
-        <v>356.2907104492188</v>
+        <v>413.6137084960938</v>
       </c>
       <c r="GP3" t="n">
-        <v>355.5448913574219</v>
+        <v>405.7985534667969</v>
       </c>
       <c r="GQ3" t="n">
-        <v>354.9385070800781</v>
+        <v>401.1876220703125</v>
       </c>
       <c r="GR3" t="n">
-        <v>353.0134582519531</v>
+        <v>403.2811889648438</v>
       </c>
       <c r="GS3" t="n">
-        <v>351.3760681152344</v>
+        <v>403.5178833007812</v>
       </c>
       <c r="GT3" t="n">
-        <v>349.4274597167969</v>
+        <v>403.0042419433594</v>
       </c>
       <c r="GU3" t="n">
-        <v>348.059326171875</v>
+        <v>396.6905212402344</v>
       </c>
       <c r="GV3" t="n">
-        <v>348.4894409179688</v>
+        <v>394.004638671875</v>
       </c>
       <c r="GW3" t="n">
-        <v>349.2113342285156</v>
+        <v>388.3501892089844</v>
       </c>
       <c r="GX3" t="n">
-        <v>347.7156677246094</v>
+        <v>389.0194396972656</v>
       </c>
       <c r="GY3" t="n">
-        <v>343.5465393066406</v>
+        <v>389.1646728515625</v>
       </c>
       <c r="GZ3" t="n">
-        <v>344.6964416503906</v>
+        <v>390.8344116210938</v>
       </c>
       <c r="HA3" t="n">
-        <v>344.1324157714844</v>
+        <v>410.1935424804688</v>
       </c>
       <c r="HB3" t="n">
-        <v>341.7535095214844</v>
+        <v>416.9405822753906</v>
       </c>
       <c r="HC3" t="n">
-        <v>340.381103515625</v>
+        <v>416.8192443847656</v>
       </c>
       <c r="HD3" t="n">
-        <v>339.5345458984375</v>
+        <v>423.1764221191406</v>
       </c>
       <c r="HE3" t="n">
-        <v>339.562744140625</v>
+        <v>428.5405883789062</v>
       </c>
       <c r="HF3" t="n">
-        <v>340.1674194335938</v>
+        <v>426.085205078125</v>
       </c>
       <c r="HG3" t="n">
-        <v>340.6650390625</v>
+        <v>414.6433410644531</v>
       </c>
       <c r="HH3" t="n">
-        <v>343.8676452636719</v>
+        <v>417.6082763671875</v>
       </c>
       <c r="HI3" t="n">
-        <v>344.0175170898438</v>
+        <v>440.8537292480469</v>
       </c>
       <c r="HJ3" t="n">
-        <v>344.9772644042969</v>
+        <v>451.1898803710938</v>
       </c>
       <c r="HK3" t="n">
-        <v>347.9066162109375</v>
+        <v>457.8947448730469</v>
       </c>
       <c r="HL3" t="n">
-        <v>351.3939819335938</v>
+        <v>464.7926330566406</v>
       </c>
       <c r="HM3" t="n">
-        <v>353.8167724609375</v>
+        <v>462.9689331054688</v>
       </c>
       <c r="HN3" t="n">
-        <v>357.6325988769531</v>
+        <v>462.0065002441406</v>
       </c>
       <c r="HO3" t="n">
-        <v>358.7430419921875</v>
+        <v>461.765869140625</v>
       </c>
       <c r="HP3" t="n">
-        <v>356.98046875</v>
+        <v>467.8561706542969</v>
       </c>
       <c r="HQ3" t="n">
-        <v>356.32861328125</v>
+        <v>492.9014282226562</v>
       </c>
       <c r="HR3" t="n">
-        <v>355.2157592773438</v>
+        <v>499.6163330078125</v>
       </c>
       <c r="HS3" t="n">
-        <v>355.2878723144531</v>
+        <v>522.1273803710938</v>
       </c>
       <c r="HT3" t="n">
-        <v>355.5591125488281</v>
+        <v>569.4376220703125</v>
       </c>
       <c r="HU3" t="n">
-        <v>356.0003662109375</v>
+        <v>563.9495849609375</v>
       </c>
       <c r="HV3" t="n">
-        <v>356.1249084472656</v>
+        <v>580.9508666992188</v>
       </c>
       <c r="HW3" t="n">
-        <v>355.9754943847656</v>
+        <v>574.6887817382812</v>
       </c>
       <c r="HX3" t="n">
-        <v>355.1375427246094</v>
+        <v>511.1572265625</v>
       </c>
       <c r="HY3" t="n">
-        <v>355.2957153320312</v>
+        <v>571.8681640625</v>
       </c>
       <c r="HZ3" t="n">
-        <v>355.6342163085938</v>
+        <v>606.2735595703125</v>
       </c>
       <c r="IA3" t="n">
-        <v>356.3760375976562</v>
+        <v>576.9700317382812</v>
       </c>
       <c r="IB3" t="n">
-        <v>356.9461364746094</v>
+        <v>574.8912963867188</v>
       </c>
       <c r="IC3" t="n">
-        <v>357.6144104003906</v>
+        <v>528.7371826171875</v>
       </c>
       <c r="ID3" t="n">
-        <v>357.1111450195312</v>
+        <v>542.6945190429688</v>
       </c>
       <c r="IE3" t="n">
-        <v>355.2068786621094</v>
+        <v>543.2317504882812</v>
       </c>
       <c r="IF3" t="n">
-        <v>355.1019287109375</v>
+        <v>540.3951416015625</v>
       </c>
       <c r="IG3" t="n">
-        <v>356.0399475097656</v>
+        <v>540.9666748046875</v>
       </c>
       <c r="IH3" t="n">
-        <v>355.9444274902344</v>
+        <v>554.0853271484375</v>
       </c>
       <c r="II3" t="n">
-        <v>356.3154602050781</v>
+        <v>530.693115234375</v>
       </c>
       <c r="IJ3" t="n">
-        <v>355.68505859375</v>
+        <v>501.1323852539062</v>
       </c>
       <c r="IK3" t="n">
-        <v>355.1786193847656</v>
+        <v>591.7493896484375</v>
       </c>
       <c r="IL3" t="n">
-        <v>355.6208801269531</v>
+        <v>617.966796875</v>
       </c>
       <c r="IM3" t="n">
-        <v>357.8172607421875</v>
+        <v>611.8529052734375</v>
       </c>
       <c r="IN3" t="n">
-        <v>355.3294982910156</v>
+        <v>555.5072021484375</v>
       </c>
       <c r="IO3" t="n">
-        <v>355.9696044921875</v>
+        <v>561.4137573242188</v>
       </c>
       <c r="IP3" t="n">
-        <v>355.5668029785156</v>
+        <v>625.8513793945312</v>
       </c>
       <c r="IQ3" t="n">
-        <v>353.9009399414062</v>
+        <v>647.2874145507812</v>
       </c>
       <c r="IR3" t="n">
-        <v>356.2444763183594</v>
+        <v>569.1963500976562</v>
       </c>
       <c r="IS3" t="n">
-        <v>357.2399291992188</v>
+        <v>572.1061401367188</v>
       </c>
       <c r="IT3" t="n">
-        <v>358.7221374511719</v>
+        <v>608.6607666015625</v>
       </c>
       <c r="IU3" t="n">
-        <v>358.2774047851562</v>
+        <v>625.8568725585938</v>
       </c>
       <c r="IV3" t="n">
-        <v>356.679443359375</v>
+        <v>624.4153442382812</v>
       </c>
       <c r="IW3" t="n">
-        <v>356.4742736816406</v>
+        <v>652.0791015625</v>
       </c>
       <c r="IX3" t="n">
-        <v>356.0621337890625</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>356.7763061523438</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>356.81689453125</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>354.929931640625</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>354.4341430664062</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>355.6781921386719</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>356.1118774414062</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>356.4581909179688</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>356.6726379394531</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>356.9128112792969</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>358.49755859375</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>358.5721740722656</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>358.5833129882812</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>358.9266357421875</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>359.0614929199219</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>357.3846435546875</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>356.5295715332031</v>
-      </c>
-      <c r="JO3" t="n">
-        <v>357.1439819335938</v>
-      </c>
-      <c r="JP3" t="n">
-        <v>357.3032836914062</v>
-      </c>
-      <c r="JQ3" t="n">
-        <v>356.9895629882812</v>
-      </c>
-      <c r="JR3" t="n">
-        <v>357.0467224121094</v>
-      </c>
-      <c r="JS3" t="n">
-        <v>357.4083251953125</v>
-      </c>
-      <c r="JT3" t="n">
-        <v>357.4176025390625</v>
-      </c>
-      <c r="JU3" t="n">
-        <v>357.1896057128906</v>
-      </c>
-      <c r="JV3" t="n">
-        <v>357.1957702636719</v>
-      </c>
-      <c r="JW3" t="n">
-        <v>357.4105224609375</v>
-      </c>
-      <c r="JX3" t="n">
-        <v>357.7008666992188</v>
-      </c>
-      <c r="JY3" t="n">
-        <v>357.93212890625</v>
-      </c>
-      <c r="JZ3" t="n">
-        <v>357.9852600097656</v>
-      </c>
-      <c r="KA3" t="n">
-        <v>358.0218505859375</v>
-      </c>
-      <c r="KB3" t="n">
-        <v>358.4084777832031</v>
-      </c>
-      <c r="KC3" t="n">
-        <v>358.6968688964844</v>
-      </c>
-      <c r="KD3" t="n">
-        <v>357.4297180175781</v>
-      </c>
-      <c r="KE3" t="n">
-        <v>355.8993225097656</v>
-      </c>
-      <c r="KF3" t="n">
-        <v>354.9866333007812</v>
-      </c>
-      <c r="KG3" t="n">
-        <v>354.6919860839844</v>
-      </c>
-      <c r="KH3" t="n">
-        <v>354.4275512695312</v>
-      </c>
-      <c r="KI3" t="n">
-        <v>354.4404602050781</v>
-      </c>
-      <c r="KJ3" t="n">
-        <v>354.4951477050781</v>
-      </c>
-      <c r="KK3" t="n">
-        <v>354.7929992675781</v>
-      </c>
-      <c r="KL3" t="n">
-        <v>355.0636291503906</v>
-      </c>
-      <c r="KM3" t="n">
-        <v>354.9640197753906</v>
-      </c>
-      <c r="KN3" t="n">
-        <v>354.6868896484375</v>
-      </c>
-      <c r="KO3" t="n">
-        <v>354.2113952636719</v>
-      </c>
-      <c r="KP3" t="n">
-        <v>353.7276611328125</v>
-      </c>
-      <c r="KQ3" t="n">
-        <v>353.6152038574219</v>
-      </c>
-      <c r="KR3" t="n">
-        <v>353.7165222167969</v>
-      </c>
-      <c r="KS3" t="n">
-        <v>353.3866882324219</v>
-      </c>
-      <c r="KT3" t="n">
-        <v>353.7590637207031</v>
-      </c>
-      <c r="KU3" t="n">
-        <v>354.2845153808594</v>
-      </c>
-      <c r="KV3" t="n">
-        <v>354.29150390625</v>
-      </c>
-      <c r="KW3" t="n">
-        <v>354.6230773925781</v>
-      </c>
-      <c r="KX3" t="n">
-        <v>354.9072875976562</v>
-      </c>
-      <c r="KY3" t="n">
-        <v>355.0462341308594</v>
-      </c>
-      <c r="KZ3" t="n">
-        <v>355.7539367675781</v>
-      </c>
-      <c r="LA3" t="n">
-        <v>356.7529602050781</v>
-      </c>
-      <c r="LB3" t="n">
-        <v>357.4214172363281</v>
-      </c>
-      <c r="LC3" t="n">
-        <v>357.9798278808594</v>
-      </c>
-      <c r="LD3" t="n">
-        <v>357.8350219726562</v>
-      </c>
-      <c r="LE3" t="n">
-        <v>358.7806396484375</v>
-      </c>
-      <c r="LF3" t="n">
-        <v>362.5685424804688</v>
-      </c>
-      <c r="LG3" t="n">
-        <v>366.7594604492188</v>
-      </c>
-      <c r="LH3" t="n">
-        <v>371.6836853027344</v>
-      </c>
-      <c r="LI3" t="n">
-        <v>376.3547668457031</v>
-      </c>
-      <c r="LJ3" t="n">
-        <v>379.1076049804688</v>
-      </c>
-      <c r="LK3" t="n">
-        <v>376.0005798339844</v>
-      </c>
-      <c r="LL3" t="n">
-        <v>381.4104919433594</v>
-      </c>
-      <c r="LM3" t="n">
-        <v>380.3843078613281</v>
-      </c>
-      <c r="LN3" t="n">
-        <v>374.651123046875</v>
-      </c>
-      <c r="LO3" t="n">
-        <v>367.9163208007812</v>
-      </c>
-      <c r="LP3" t="n">
-        <v>369.476806640625</v>
-      </c>
-      <c r="LQ3" t="n">
-        <v>369.6321411132812</v>
-      </c>
-      <c r="LR3" t="n">
-        <v>373.8828735351562</v>
-      </c>
-      <c r="LS3" t="n">
-        <v>373.6746520996094</v>
-      </c>
-      <c r="LT3" t="n">
-        <v>369.3492431640625</v>
-      </c>
-      <c r="LU3" t="n">
-        <v>368.8556823730469</v>
-      </c>
-      <c r="LV3" t="n">
-        <v>376.3413391113281</v>
-      </c>
-      <c r="LW3" t="n">
-        <v>366.3209228515625</v>
-      </c>
-      <c r="LX3" t="n">
-        <v>370.1700744628906</v>
-      </c>
-      <c r="LY3" t="n">
-        <v>369.6202087402344</v>
-      </c>
-      <c r="LZ3" t="n">
-        <v>379.4993286132812</v>
-      </c>
-      <c r="MA3" t="n">
-        <v>398.6171875</v>
-      </c>
-      <c r="MB3" t="n">
-        <v>403.7018432617188</v>
-      </c>
-      <c r="MC3" t="n">
-        <v>404.020263671875</v>
-      </c>
-      <c r="MD3" t="n">
-        <v>389.8830261230469</v>
-      </c>
-      <c r="ME3" t="n">
-        <v>377.8842468261719</v>
-      </c>
-      <c r="MF3" t="n">
-        <v>375.0609130859375</v>
-      </c>
-      <c r="MG3" t="n">
-        <v>392.7918395996094</v>
-      </c>
-      <c r="MH3" t="n">
-        <v>402.3892211914062</v>
-      </c>
-      <c r="MI3" t="n">
-        <v>407.1523742675781</v>
-      </c>
-      <c r="MJ3" t="n">
-        <v>423.3992919921875</v>
-      </c>
-      <c r="MK3" t="n">
-        <v>456.13037109375</v>
-      </c>
-      <c r="ML3" t="n">
-        <v>476.7978210449219</v>
-      </c>
-      <c r="MM3" t="n">
-        <v>504.9230651855469</v>
-      </c>
-      <c r="MN3" t="n">
-        <v>511.7257080078125</v>
-      </c>
-      <c r="MO3" t="n">
-        <v>502.8515014648438</v>
-      </c>
-      <c r="MP3" t="n">
-        <v>499.027587890625</v>
-      </c>
-      <c r="MQ3" t="n">
-        <v>497.5266723632812</v>
-      </c>
-      <c r="MR3" t="n">
-        <v>512.6437377929688</v>
-      </c>
-      <c r="MS3" t="n">
-        <v>574.7485961914062</v>
-      </c>
-      <c r="MT3" t="n">
-        <v>597.95263671875</v>
-      </c>
-      <c r="MU3" t="n">
-        <v>580.809814453125</v>
-      </c>
-      <c r="MV3" t="n">
-        <v>599.5445556640625</v>
-      </c>
-      <c r="MW3" t="n">
-        <v>622.7504272460938</v>
-      </c>
-      <c r="MX3" t="n">
-        <v>614.037841796875</v>
-      </c>
-      <c r="MY3" t="n">
-        <v>582.70458984375</v>
-      </c>
-      <c r="MZ3" t="n">
-        <v>569.130859375</v>
-      </c>
-      <c r="NA3" t="n">
-        <v>578.6795654296875</v>
-      </c>
-      <c r="NB3" t="n">
-        <v>545.7434692382812</v>
-      </c>
-      <c r="NC3" t="n">
-        <v>539.0875854492188</v>
-      </c>
-      <c r="ND3" t="n">
-        <v>565.2552490234375</v>
-      </c>
-      <c r="NE3" t="n">
-        <v>572.095947265625</v>
-      </c>
-      <c r="NF3" t="n">
-        <v>595.8278198242188</v>
-      </c>
-      <c r="NG3" t="n">
-        <v>593.7643432617188</v>
-      </c>
-      <c r="NH3" t="n">
-        <v>592.8374633789062</v>
-      </c>
-      <c r="NI3" t="n">
-        <v>595.5316772460938</v>
-      </c>
-      <c r="NJ3" t="n">
-        <v>572.432861328125</v>
-      </c>
-      <c r="NK3" t="n">
-        <v>584.7968139648438</v>
-      </c>
-      <c r="NL3" t="n">
-        <v>583.220947265625</v>
-      </c>
-      <c r="NM3" t="n">
-        <v>588.1799926757812</v>
+        <v>643.7394409179688</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1009.813110351562</v>
+        <v>972.9270629882812</v>
       </c>
       <c r="B4" t="n">
-        <v>1012.975830078125</v>
+        <v>985.79833984375</v>
       </c>
       <c r="C4" t="n">
-        <v>1013.05078125</v>
+        <v>991.255126953125</v>
       </c>
       <c r="D4" t="n">
-        <v>1015.288513183594</v>
+        <v>1000.002502441406</v>
       </c>
       <c r="E4" t="n">
-        <v>1017.655029296875</v>
+        <v>1014.123718261719</v>
       </c>
       <c r="F4" t="n">
-        <v>1026.657592773438</v>
+        <v>1026.41162109375</v>
       </c>
       <c r="G4" t="n">
-        <v>1044.339599609375</v>
+        <v>1041.452392578125</v>
       </c>
       <c r="H4" t="n">
-        <v>1054.994384765625</v>
+        <v>1061.440063476562</v>
       </c>
       <c r="I4" t="n">
-        <v>1064.634155273438</v>
+        <v>1080.162109375</v>
       </c>
       <c r="J4" t="n">
-        <v>1083.126342773438</v>
+        <v>1097.6748046875</v>
       </c>
       <c r="K4" t="n">
-        <v>1102.707275390625</v>
+        <v>1116.943603515625</v>
       </c>
       <c r="L4" t="n">
-        <v>1120.726440429688</v>
+        <v>1146.46337890625</v>
       </c>
       <c r="M4" t="n">
-        <v>1173.319091796875</v>
+        <v>1175.210205078125</v>
       </c>
       <c r="N4" t="n">
-        <v>1191.152587890625</v>
+        <v>1221.547973632812</v>
       </c>
       <c r="O4" t="n">
-        <v>1224.695434570312</v>
+        <v>1421.49267578125</v>
       </c>
       <c r="P4" t="n">
-        <v>1231.1162109375</v>
+        <v>1440.20361328125</v>
       </c>
       <c r="Q4" t="n">
-        <v>1237.156127929688</v>
+        <v>1461.632568359375</v>
       </c>
       <c r="R4" t="n">
-        <v>1244.356201171875</v>
+        <v>1480.790893554688</v>
       </c>
       <c r="S4" t="n">
-        <v>1249.927368164062</v>
+        <v>1500.796752929688</v>
       </c>
       <c r="T4" t="n">
-        <v>1262.65380859375</v>
+        <v>1524.639404296875</v>
       </c>
       <c r="U4" t="n">
-        <v>1273.08251953125</v>
+        <v>1546.6337890625</v>
       </c>
       <c r="V4" t="n">
-        <v>1279.66064453125</v>
+        <v>1562.612426757812</v>
       </c>
       <c r="W4" t="n">
-        <v>1286.544311523438</v>
+        <v>1587.143920898438</v>
       </c>
       <c r="X4" t="n">
-        <v>1292.920654296875</v>
+        <v>1616.423217773438</v>
       </c>
       <c r="Y4" t="n">
-        <v>1277.19189453125</v>
+        <v>1648.014404296875</v>
       </c>
       <c r="Z4" t="n">
-        <v>1273.581420898438</v>
+        <v>1673.457641601562</v>
       </c>
       <c r="AA4" t="n">
-        <v>1274.226318359375</v>
+        <v>1691.4130859375</v>
       </c>
       <c r="AB4" t="n">
-        <v>1277.019287109375</v>
+        <v>1718.128540039062</v>
       </c>
       <c r="AC4" t="n">
-        <v>1288.835327148438</v>
+        <v>1744.44580078125</v>
       </c>
       <c r="AD4" t="n">
-        <v>1310.296020507812</v>
+        <v>1783.380737304688</v>
       </c>
       <c r="AE4" t="n">
-        <v>1316.746215820312</v>
+        <v>1798.686767578125</v>
       </c>
       <c r="AF4" t="n">
-        <v>1333.24462890625</v>
+        <v>1813.771850585938</v>
       </c>
       <c r="AG4" t="n">
-        <v>1339.880126953125</v>
+        <v>1833.318237304688</v>
       </c>
       <c r="AH4" t="n">
-        <v>1370.279418945312</v>
+        <v>1847.173706054688</v>
       </c>
       <c r="AI4" t="n">
-        <v>1367.0400390625</v>
+        <v>1863.530883789062</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1370.462524414062</v>
+        <v>1875.132080078125</v>
       </c>
       <c r="AK4" t="n">
-        <v>1370.627197265625</v>
+        <v>1888.965698242188</v>
       </c>
       <c r="AL4" t="n">
-        <v>1369.916381835938</v>
+        <v>1904.164184570312</v>
       </c>
       <c r="AM4" t="n">
-        <v>1368.321044921875</v>
+        <v>1912.500244140625</v>
       </c>
       <c r="AN4" t="n">
-        <v>1366.615966796875</v>
+        <v>1908.55810546875</v>
       </c>
       <c r="AO4" t="n">
-        <v>1364.616821289062</v>
+        <v>1909.378295898438</v>
       </c>
       <c r="AP4" t="n">
-        <v>1359.417602539062</v>
+        <v>1910.029052734375</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1344.836181640625</v>
+        <v>1911.702026367188</v>
       </c>
       <c r="AR4" t="n">
-        <v>1331.549926757812</v>
+        <v>1914.190185546875</v>
       </c>
       <c r="AS4" t="n">
-        <v>1323.982666015625</v>
+        <v>1918.45703125</v>
       </c>
       <c r="AT4" t="n">
-        <v>1312.798583984375</v>
+        <v>1925.285034179688</v>
       </c>
       <c r="AU4" t="n">
-        <v>1314.146362304688</v>
+        <v>1932.590209960938</v>
       </c>
       <c r="AV4" t="n">
-        <v>1311.960815429688</v>
+        <v>1934.77197265625</v>
       </c>
       <c r="AW4" t="n">
-        <v>1307.8046875</v>
+        <v>1934.2294921875</v>
       </c>
       <c r="AX4" t="n">
-        <v>1300.01025390625</v>
+        <v>1934.563232421875</v>
       </c>
       <c r="AY4" t="n">
-        <v>1287.432373046875</v>
+        <v>1934.85498046875</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1274.01416015625</v>
+        <v>1935.060791015625</v>
       </c>
       <c r="BA4" t="n">
-        <v>1260.024780273438</v>
+        <v>1934.926513671875</v>
       </c>
       <c r="BB4" t="n">
-        <v>1255.327758789062</v>
+        <v>1934.93115234375</v>
       </c>
       <c r="BC4" t="n">
-        <v>1251.301635742188</v>
+        <v>1935.07275390625</v>
       </c>
       <c r="BD4" t="n">
-        <v>1250.694946289062</v>
+        <v>1935.563842773438</v>
       </c>
       <c r="BE4" t="n">
-        <v>1250.568359375</v>
+        <v>1936.444702148438</v>
       </c>
       <c r="BF4" t="n">
-        <v>1251.82080078125</v>
+        <v>1937.964965820312</v>
       </c>
       <c r="BG4" t="n">
-        <v>1251.090576171875</v>
+        <v>1940.447631835938</v>
       </c>
       <c r="BH4" t="n">
-        <v>1249.8232421875</v>
+        <v>1944.683471679688</v>
       </c>
       <c r="BI4" t="n">
-        <v>1247.422241210938</v>
+        <v>1948.484252929688</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1240.580078125</v>
+        <v>1954.73828125</v>
       </c>
       <c r="BK4" t="n">
-        <v>1227.388793945312</v>
+        <v>1955.354614257812</v>
       </c>
       <c r="BL4" t="n">
-        <v>1213.024536132812</v>
+        <v>1956.69189453125</v>
       </c>
       <c r="BM4" t="n">
-        <v>1202.982055664062</v>
+        <v>1957.894897460938</v>
       </c>
       <c r="BN4" t="n">
-        <v>1198.383422851562</v>
+        <v>1957.110107421875</v>
       </c>
       <c r="BO4" t="n">
-        <v>1189.743041992188</v>
+        <v>1957.59326171875</v>
       </c>
       <c r="BP4" t="n">
-        <v>1187.951293945312</v>
+        <v>1957.753662109375</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1185.705322265625</v>
+        <v>1957.698364257812</v>
       </c>
       <c r="BR4" t="n">
-        <v>1183.185546875</v>
+        <v>1957.504150390625</v>
       </c>
       <c r="BS4" t="n">
-        <v>1179.3662109375</v>
+        <v>1957.009033203125</v>
       </c>
       <c r="BT4" t="n">
-        <v>1173.601684570312</v>
+        <v>1956.310302734375</v>
       </c>
       <c r="BU4" t="n">
-        <v>1167.882446289062</v>
+        <v>1955.559204101562</v>
       </c>
       <c r="BV4" t="n">
-        <v>1165.195678710938</v>
+        <v>1954.699584960938</v>
       </c>
       <c r="BW4" t="n">
-        <v>1164.929443359375</v>
+        <v>1953.53125</v>
       </c>
       <c r="BX4" t="n">
-        <v>1164.246337890625</v>
+        <v>1952.541015625</v>
       </c>
       <c r="BY4" t="n">
-        <v>1160.266845703125</v>
+        <v>1951.526245117188</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1153.175537109375</v>
+        <v>1950.437133789062</v>
       </c>
       <c r="CA4" t="n">
-        <v>1140.29345703125</v>
+        <v>1950.214111328125</v>
       </c>
       <c r="CB4" t="n">
-        <v>1130.903442382812</v>
+        <v>1948.9892578125</v>
       </c>
       <c r="CC4" t="n">
-        <v>1128.83203125</v>
+        <v>1947.833618164062</v>
       </c>
       <c r="CD4" t="n">
-        <v>1126.673217773438</v>
+        <v>1946.6416015625</v>
       </c>
       <c r="CE4" t="n">
-        <v>1124.591796875</v>
+        <v>1945.619873046875</v>
       </c>
       <c r="CF4" t="n">
-        <v>1124.332275390625</v>
+        <v>1945.512939453125</v>
       </c>
       <c r="CG4" t="n">
-        <v>1124.244140625</v>
+        <v>1944.8642578125</v>
       </c>
       <c r="CH4" t="n">
-        <v>1123.79833984375</v>
+        <v>1945.22802734375</v>
       </c>
       <c r="CI4" t="n">
-        <v>1123.200805664062</v>
+        <v>1945.828125</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1123.552368164062</v>
+        <v>1945.80517578125</v>
       </c>
       <c r="CK4" t="n">
-        <v>1123.408081054688</v>
+        <v>1945.734375</v>
       </c>
       <c r="CL4" t="n">
-        <v>1123.065795898438</v>
+        <v>1945.672973632812</v>
       </c>
       <c r="CM4" t="n">
-        <v>1122.703491210938</v>
+        <v>1945.611083984375</v>
       </c>
       <c r="CN4" t="n">
-        <v>1121.987670898438</v>
+        <v>1945.514770507812</v>
       </c>
       <c r="CO4" t="n">
-        <v>1121.275756835938</v>
+        <v>1945.429077148438</v>
       </c>
       <c r="CP4" t="n">
-        <v>1120.395874023438</v>
+        <v>1945.253295898438</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1119.346557617188</v>
+        <v>1945.128051757812</v>
       </c>
       <c r="CR4" t="n">
-        <v>1118.223022460938</v>
+        <v>1945.143798828125</v>
       </c>
       <c r="CS4" t="n">
-        <v>1114.896728515625</v>
+        <v>1945.160522460938</v>
       </c>
       <c r="CT4" t="n">
-        <v>1110.784545898438</v>
+        <v>1945.116577148438</v>
       </c>
       <c r="CU4" t="n">
-        <v>1108.825561523438</v>
+        <v>1945.058715820312</v>
       </c>
       <c r="CV4" t="n">
-        <v>1109.06005859375</v>
+        <v>1945.010131835938</v>
       </c>
       <c r="CW4" t="n">
-        <v>1109.60009765625</v>
+        <v>1944.937377929688</v>
       </c>
       <c r="CX4" t="n">
-        <v>1111.468872070312</v>
+        <v>1944.947021484375</v>
       </c>
       <c r="CY4" t="n">
-        <v>1113.613403320312</v>
+        <v>1944.902709960938</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1122.147705078125</v>
+        <v>1944.831420898438</v>
       </c>
       <c r="DA4" t="n">
-        <v>1129.469482421875</v>
+        <v>1944.691772460938</v>
       </c>
       <c r="DB4" t="n">
-        <v>1131.85107421875</v>
+        <v>1944.513671875</v>
       </c>
       <c r="DC4" t="n">
-        <v>1134.592407226562</v>
+        <v>1944.095336914062</v>
       </c>
       <c r="DD4" t="n">
-        <v>1136.651733398438</v>
+        <v>1943.603271484375</v>
       </c>
       <c r="DE4" t="n">
-        <v>1139.317993164062</v>
+        <v>1942.003295898438</v>
       </c>
       <c r="DF4" t="n">
-        <v>1139.394897460938</v>
+        <v>1940.59375</v>
       </c>
       <c r="DG4" t="n">
-        <v>1139.607666015625</v>
+        <v>1939.049438476562</v>
       </c>
       <c r="DH4" t="n">
-        <v>1140.605224609375</v>
+        <v>1937.372436523438</v>
       </c>
       <c r="DI4" t="n">
-        <v>1141.917846679688</v>
+        <v>1935.729370117188</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1148.446899414062</v>
+        <v>1933.928833007812</v>
       </c>
       <c r="DK4" t="n">
-        <v>1163.776611328125</v>
+        <v>1933.958984375</v>
       </c>
       <c r="DL4" t="n">
-        <v>1166.623413085938</v>
+        <v>1934.198486328125</v>
       </c>
       <c r="DM4" t="n">
-        <v>1165.993286132812</v>
+        <v>1934.597412109375</v>
       </c>
       <c r="DN4" t="n">
-        <v>1165.16162109375</v>
+        <v>1936.175537109375</v>
       </c>
       <c r="DO4" t="n">
-        <v>1164.355102539062</v>
+        <v>1944.30615234375</v>
       </c>
       <c r="DP4" t="n">
-        <v>1163.597045898438</v>
+        <v>1947.012329101562</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1161.75</v>
+        <v>1945.603271484375</v>
       </c>
       <c r="DR4" t="n">
-        <v>1161.725708007812</v>
+        <v>1944.80810546875</v>
       </c>
       <c r="DS4" t="n">
-        <v>1161.81591796875</v>
+        <v>1943.694702148438</v>
       </c>
       <c r="DT4" t="n">
-        <v>1162.780395507812</v>
+        <v>1937.258666992188</v>
       </c>
       <c r="DU4" t="n">
-        <v>1169.083740234375</v>
+        <v>1935.121459960938</v>
       </c>
       <c r="DV4" t="n">
-        <v>1178.820556640625</v>
+        <v>1937.489624023438</v>
       </c>
       <c r="DW4" t="n">
-        <v>1193.4072265625</v>
+        <v>1939.786499023438</v>
       </c>
       <c r="DX4" t="n">
-        <v>1196.840454101562</v>
+        <v>1942.051147460938</v>
       </c>
       <c r="DY4" t="n">
-        <v>1200.004638671875</v>
+        <v>1941.09619140625</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1211.106567382812</v>
+        <v>1939.957885742188</v>
       </c>
       <c r="EA4" t="n">
-        <v>1217.349609375</v>
+        <v>1939.349365234375</v>
       </c>
       <c r="EB4" t="n">
-        <v>1231.398193359375</v>
+        <v>1939.349853515625</v>
       </c>
       <c r="EC4" t="n">
-        <v>1235.812377929688</v>
+        <v>1939.712890625</v>
       </c>
       <c r="ED4" t="n">
-        <v>1238.659423828125</v>
+        <v>1940.898803710938</v>
       </c>
       <c r="EE4" t="n">
-        <v>1247.483520507812</v>
+        <v>1941.889770507812</v>
       </c>
       <c r="EF4" t="n">
-        <v>1270.910278320312</v>
+        <v>1942.495727539062</v>
       </c>
       <c r="EG4" t="n">
-        <v>1307.002075195312</v>
+        <v>1942.025390625</v>
       </c>
       <c r="EH4" t="n">
-        <v>1318.992309570312</v>
+        <v>1941.283081054688</v>
       </c>
       <c r="EI4" t="n">
-        <v>1339.931518554688</v>
+        <v>1940.65625</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1347.92431640625</v>
+        <v>1940.01220703125</v>
       </c>
       <c r="EK4" t="n">
-        <v>1381.068603515625</v>
+        <v>1937.36767578125</v>
       </c>
       <c r="EL4" t="n">
-        <v>1383.859130859375</v>
+        <v>1934.673095703125</v>
       </c>
       <c r="EM4" t="n">
-        <v>1397.362182617188</v>
+        <v>1934.988647460938</v>
       </c>
       <c r="EN4" t="n">
-        <v>1411.7431640625</v>
+        <v>1935.339233398438</v>
       </c>
       <c r="EO4" t="n">
-        <v>1424.643920898438</v>
+        <v>1936.16748046875</v>
       </c>
       <c r="EP4" t="n">
-        <v>1437.915893554688</v>
+        <v>1936.370483398438</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1449.317749023438</v>
+        <v>1936.25244140625</v>
       </c>
       <c r="ER4" t="n">
-        <v>1478.059814453125</v>
+        <v>1936.501586914062</v>
       </c>
       <c r="ES4" t="n">
-        <v>1525.334716796875</v>
+        <v>1936.693237304688</v>
       </c>
       <c r="ET4" t="n">
-        <v>1557.460205078125</v>
+        <v>1936.90869140625</v>
       </c>
       <c r="EU4" t="n">
-        <v>1578.557983398438</v>
+        <v>1937.476440429688</v>
       </c>
       <c r="EV4" t="n">
-        <v>1607.207763671875</v>
+        <v>1937.171875</v>
       </c>
       <c r="EW4" t="n">
-        <v>1662.584716796875</v>
+        <v>1936.099243164062</v>
       </c>
       <c r="EX4" t="n">
-        <v>1707.084838867188</v>
+        <v>1928.18505859375</v>
       </c>
       <c r="EY4" t="n">
-        <v>1744.532470703125</v>
+        <v>1910.15673828125</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1770.91455078125</v>
+        <v>1869.260375976562</v>
       </c>
       <c r="FA4" t="n">
-        <v>1801.168334960938</v>
+        <v>1847.826782226562</v>
       </c>
       <c r="FB4" t="n">
-        <v>1808.610717773438</v>
+        <v>1836.115600585938</v>
       </c>
       <c r="FC4" t="n">
-        <v>1854.798095703125</v>
+        <v>1809.27294921875</v>
       </c>
       <c r="FD4" t="n">
-        <v>1888.802734375</v>
+        <v>1780.835205078125</v>
       </c>
       <c r="FE4" t="n">
-        <v>1905.880004882812</v>
+        <v>1766.157104492188</v>
       </c>
       <c r="FF4" t="n">
-        <v>1929.232299804688</v>
+        <v>1732.895751953125</v>
       </c>
       <c r="FG4" t="n">
-        <v>1958.047119140625</v>
+        <v>1721.107177734375</v>
       </c>
       <c r="FH4" t="n">
-        <v>1968.962158203125</v>
+        <v>1693.9609375</v>
       </c>
       <c r="FI4" t="n">
-        <v>2013.870361328125</v>
+        <v>1677.000244140625</v>
       </c>
       <c r="FJ4" t="n">
-        <v>2035.455078125</v>
+        <v>1635.0263671875</v>
       </c>
       <c r="FK4" t="n">
-        <v>2073.3828125</v>
+        <v>1599.990234375</v>
       </c>
       <c r="FL4" t="n">
-        <v>2096.697265625</v>
+        <v>1587.827392578125</v>
       </c>
       <c r="FM4" t="n">
-        <v>2147.533935546875</v>
+        <v>1564.25830078125</v>
       </c>
       <c r="FN4" t="n">
-        <v>2165.506103515625</v>
+        <v>1551.880493164062</v>
       </c>
       <c r="FO4" t="n">
-        <v>2184.97265625</v>
+        <v>1521.710205078125</v>
       </c>
       <c r="FP4" t="n">
-        <v>2213.792236328125</v>
+        <v>1493.591186523438</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2244.542724609375</v>
+        <v>1483.058715820312</v>
       </c>
       <c r="FR4" t="n">
-        <v>2259.992431640625</v>
+        <v>1460.994384765625</v>
       </c>
       <c r="FS4" t="n">
-        <v>2280.61962890625</v>
+        <v>1445.4287109375</v>
       </c>
       <c r="FT4" t="n">
-        <v>2292.321044921875</v>
+        <v>1414.743286132812</v>
       </c>
       <c r="FU4" t="n">
-        <v>2291.53125</v>
+        <v>1384.37939453125</v>
       </c>
       <c r="FV4" t="n">
-        <v>2289.644287109375</v>
+        <v>1343.09765625</v>
       </c>
       <c r="FW4" t="n">
-        <v>2280.587890625</v>
+        <v>1298.610473632812</v>
       </c>
       <c r="FX4" t="n">
-        <v>2280.149658203125</v>
+        <v>1286.098999023438</v>
       </c>
       <c r="FY4" t="n">
-        <v>2278.51611328125</v>
+        <v>1259.507080078125</v>
       </c>
       <c r="FZ4" t="n">
-        <v>2279.864990234375</v>
+        <v>1235.333618164062</v>
       </c>
       <c r="GA4" t="n">
-        <v>2280.65673828125</v>
+        <v>1201.187255859375</v>
       </c>
       <c r="GB4" t="n">
-        <v>2293.369140625</v>
+        <v>1187.135009765625</v>
       </c>
       <c r="GC4" t="n">
-        <v>2300.036376953125</v>
+        <v>1169.4755859375</v>
       </c>
       <c r="GD4" t="n">
-        <v>2302.10009765625</v>
+        <v>1149.73291015625</v>
       </c>
       <c r="GE4" t="n">
-        <v>2295.54833984375</v>
+        <v>1131.793823242188</v>
       </c>
       <c r="GF4" t="n">
-        <v>2305.82080078125</v>
+        <v>1109.19189453125</v>
       </c>
       <c r="GG4" t="n">
-        <v>2305.89453125</v>
+        <v>1121.796508789062</v>
       </c>
       <c r="GH4" t="n">
-        <v>2307.596923828125</v>
+        <v>1091.18359375</v>
       </c>
       <c r="GI4" t="n">
-        <v>2307.814453125</v>
+        <v>1068.893920898438</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2308.74072265625</v>
+        <v>1054.2236328125</v>
       </c>
       <c r="GK4" t="n">
-        <v>2309.550537109375</v>
+        <v>1025.574951171875</v>
       </c>
       <c r="GL4" t="n">
-        <v>2309.77392578125</v>
+        <v>990.2880249023438</v>
       </c>
       <c r="GM4" t="n">
-        <v>2309.924072265625</v>
+        <v>953.776123046875</v>
       </c>
       <c r="GN4" t="n">
-        <v>2309.839599609375</v>
+        <v>936.0655517578125</v>
       </c>
       <c r="GO4" t="n">
-        <v>2305.202880859375</v>
+        <v>900.9877319335938</v>
       </c>
       <c r="GP4" t="n">
-        <v>2295.855224609375</v>
+        <v>870.41015625</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2275.477783203125</v>
+        <v>859.1111450195312</v>
       </c>
       <c r="GR4" t="n">
-        <v>2270.501953125</v>
+        <v>842.0491943359375</v>
       </c>
       <c r="GS4" t="n">
-        <v>2266.63525390625</v>
+        <v>833.802001953125</v>
       </c>
       <c r="GT4" t="n">
-        <v>2259.65380859375</v>
+        <v>824.3140258789062</v>
       </c>
       <c r="GU4" t="n">
-        <v>2248.681640625</v>
+        <v>818.8394165039062</v>
       </c>
       <c r="GV4" t="n">
-        <v>2236.67919921875</v>
+        <v>817.2564697265625</v>
       </c>
       <c r="GW4" t="n">
-        <v>2230.967529296875</v>
+        <v>817.0624389648438</v>
       </c>
       <c r="GX4" t="n">
-        <v>2235.384765625</v>
+        <v>816.747802734375</v>
       </c>
       <c r="GY4" t="n">
-        <v>2227.66259765625</v>
+        <v>813.9596557617188</v>
       </c>
       <c r="GZ4" t="n">
-        <v>2213.3173828125</v>
+        <v>801.3388061523438</v>
       </c>
       <c r="HA4" t="n">
-        <v>2210.696044921875</v>
+        <v>757.2963256835938</v>
       </c>
       <c r="HB4" t="n">
-        <v>2210.802001953125</v>
+        <v>738.5794067382812</v>
       </c>
       <c r="HC4" t="n">
-        <v>2213.21484375</v>
+        <v>742.2171630859375</v>
       </c>
       <c r="HD4" t="n">
-        <v>2215.542724609375</v>
+        <v>745.9447021484375</v>
       </c>
       <c r="HE4" t="n">
-        <v>2215.969482421875</v>
+        <v>741.227294921875</v>
       </c>
       <c r="HF4" t="n">
-        <v>2210.562744140625</v>
+        <v>757.6838989257812</v>
       </c>
       <c r="HG4" t="n">
-        <v>2212.6845703125</v>
+        <v>763.7415161132812</v>
       </c>
       <c r="HH4" t="n">
-        <v>2215.489990234375</v>
+        <v>751.77734375</v>
       </c>
       <c r="HI4" t="n">
-        <v>2214.786376953125</v>
+        <v>747.1019897460938</v>
       </c>
       <c r="HJ4" t="n">
-        <v>2218.015869140625</v>
+        <v>748.2030029296875</v>
       </c>
       <c r="HK4" t="n">
-        <v>2219.7314453125</v>
+        <v>749.47802734375</v>
       </c>
       <c r="HL4" t="n">
-        <v>2222.6298828125</v>
+        <v>746.4638061523438</v>
       </c>
       <c r="HM4" t="n">
-        <v>2223.574951171875</v>
+        <v>742.6573486328125</v>
       </c>
       <c r="HN4" t="n">
-        <v>2206.5654296875</v>
+        <v>726.2607421875</v>
       </c>
       <c r="HO4" t="n">
-        <v>2178.517822265625</v>
+        <v>729.0618286132812</v>
       </c>
       <c r="HP4" t="n">
-        <v>2178.464599609375</v>
+        <v>725.1279907226562</v>
       </c>
       <c r="HQ4" t="n">
-        <v>2178.2294921875</v>
+        <v>722.0087280273438</v>
       </c>
       <c r="HR4" t="n">
-        <v>2177.478271484375</v>
+        <v>694.7261352539062</v>
       </c>
       <c r="HS4" t="n">
-        <v>2176.182373046875</v>
+        <v>691.6902465820312</v>
       </c>
       <c r="HT4" t="n">
-        <v>2166.349853515625</v>
+        <v>610.7134399414062</v>
       </c>
       <c r="HU4" t="n">
-        <v>2149.5</v>
+        <v>640.998291015625</v>
       </c>
       <c r="HV4" t="n">
-        <v>2141.597900390625</v>
+        <v>667.9998779296875</v>
       </c>
       <c r="HW4" t="n">
-        <v>2139.454345703125</v>
+        <v>636.3185424804688</v>
       </c>
       <c r="HX4" t="n">
-        <v>2134.940185546875</v>
+        <v>753.3614501953125</v>
       </c>
       <c r="HY4" t="n">
-        <v>2131.10498046875</v>
+        <v>755.1920776367188</v>
       </c>
       <c r="HZ4" t="n">
-        <v>2127.682373046875</v>
+        <v>719.3594360351562</v>
       </c>
       <c r="IA4" t="n">
-        <v>2126.459716796875</v>
+        <v>742.2877807617188</v>
       </c>
       <c r="IB4" t="n">
-        <v>2126.216796875</v>
+        <v>769.6265258789062</v>
       </c>
       <c r="IC4" t="n">
-        <v>2126.329345703125</v>
+        <v>907.0758666992188</v>
       </c>
       <c r="ID4" t="n">
-        <v>2125.486328125</v>
+        <v>897.8394165039062</v>
       </c>
       <c r="IE4" t="n">
-        <v>2124.1923828125</v>
+        <v>838.045166015625</v>
       </c>
       <c r="IF4" t="n">
-        <v>2125.447265625</v>
+        <v>858.365234375</v>
       </c>
       <c r="IG4" t="n">
-        <v>2125.691650390625</v>
+        <v>860.6458129882812</v>
       </c>
       <c r="IH4" t="n">
-        <v>2124.2236328125</v>
+        <v>865.3439331054688</v>
       </c>
       <c r="II4" t="n">
-        <v>2125.111572265625</v>
+        <v>846.8579711914062</v>
       </c>
       <c r="IJ4" t="n">
-        <v>2132.567138671875</v>
+        <v>882.077392578125</v>
       </c>
       <c r="IK4" t="n">
-        <v>2157.17333984375</v>
+        <v>722.2239379882812</v>
       </c>
       <c r="IL4" t="n">
-        <v>2161.611572265625</v>
+        <v>701.0142822265625</v>
       </c>
       <c r="IM4" t="n">
-        <v>2155.369873046875</v>
+        <v>705.0916748046875</v>
       </c>
       <c r="IN4" t="n">
-        <v>2156.539306640625</v>
+        <v>763.44091796875</v>
       </c>
       <c r="IO4" t="n">
-        <v>2155.074462890625</v>
+        <v>736.6859741210938</v>
       </c>
       <c r="IP4" t="n">
-        <v>2153.236328125</v>
+        <v>593.8018798828125</v>
       </c>
       <c r="IQ4" t="n">
-        <v>2157.231201171875</v>
+        <v>578.1236572265625</v>
       </c>
       <c r="IR4" t="n">
-        <v>2152.80712890625</v>
+        <v>688.6014404296875</v>
       </c>
       <c r="IS4" t="n">
-        <v>2152.530517578125</v>
+        <v>678.4137573242188</v>
       </c>
       <c r="IT4" t="n">
-        <v>2151.42724609375</v>
+        <v>617.6384887695312</v>
       </c>
       <c r="IU4" t="n">
-        <v>2145.481689453125</v>
+        <v>639.067626953125</v>
       </c>
       <c r="IV4" t="n">
-        <v>2143.665283203125</v>
+        <v>635.8333740234375</v>
       </c>
       <c r="IW4" t="n">
-        <v>2142.251708984375</v>
+        <v>544.68017578125</v>
       </c>
       <c r="IX4" t="n">
-        <v>2139.833740234375</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>2139.452880859375</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>2138.54638671875</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>2143.614013671875</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>2146.902099609375</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>2145.88134765625</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>2146.8125</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>2153.07080078125</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>2156.82763671875</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>2160.328857421875</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>2163.538330078125</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>2162.159912109375</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>2161.29345703125</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>2160.480224609375</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>2154.140625</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>2145.388671875</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>2141.8984375</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>2140.53271484375</v>
-      </c>
-      <c r="JP4" t="n">
-        <v>2137.228271484375</v>
-      </c>
-      <c r="JQ4" t="n">
-        <v>2133.80859375</v>
-      </c>
-      <c r="JR4" t="n">
-        <v>2130.32763671875</v>
-      </c>
-      <c r="JS4" t="n">
-        <v>2123.71435546875</v>
-      </c>
-      <c r="JT4" t="n">
-        <v>2123.53515625</v>
-      </c>
-      <c r="JU4" t="n">
-        <v>2122.864013671875</v>
-      </c>
-      <c r="JV4" t="n">
-        <v>2121.3212890625</v>
-      </c>
-      <c r="JW4" t="n">
-        <v>2117.94091796875</v>
-      </c>
-      <c r="JX4" t="n">
-        <v>2113.704345703125</v>
-      </c>
-      <c r="JY4" t="n">
-        <v>2110.91552734375</v>
-      </c>
-      <c r="JZ4" t="n">
-        <v>2110.67529296875</v>
-      </c>
-      <c r="KA4" t="n">
-        <v>2110.604248046875</v>
-      </c>
-      <c r="KB4" t="n">
-        <v>2110.53662109375</v>
-      </c>
-      <c r="KC4" t="n">
-        <v>2109.600341796875</v>
-      </c>
-      <c r="KD4" t="n">
-        <v>2105.568115234375</v>
-      </c>
-      <c r="KE4" t="n">
-        <v>2100.970458984375</v>
-      </c>
-      <c r="KF4" t="n">
-        <v>2100.86083984375</v>
-      </c>
-      <c r="KG4" t="n">
-        <v>2102.4853515625</v>
-      </c>
-      <c r="KH4" t="n">
-        <v>2103.12890625</v>
-      </c>
-      <c r="KI4" t="n">
-        <v>2103.274658203125</v>
-      </c>
-      <c r="KJ4" t="n">
-        <v>2103.87646484375</v>
-      </c>
-      <c r="KK4" t="n">
-        <v>2104.599609375</v>
-      </c>
-      <c r="KL4" t="n">
-        <v>2106.04345703125</v>
-      </c>
-      <c r="KM4" t="n">
-        <v>2108.422607421875</v>
-      </c>
-      <c r="KN4" t="n">
-        <v>2112.369873046875</v>
-      </c>
-      <c r="KO4" t="n">
-        <v>2116.736083984375</v>
-      </c>
-      <c r="KP4" t="n">
-        <v>2116.774169921875</v>
-      </c>
-      <c r="KQ4" t="n">
-        <v>2118.4814453125</v>
-      </c>
-      <c r="KR4" t="n">
-        <v>2119.456787109375</v>
-      </c>
-      <c r="KS4" t="n">
-        <v>2125.193359375</v>
-      </c>
-      <c r="KT4" t="n">
-        <v>2130.51123046875</v>
-      </c>
-      <c r="KU4" t="n">
-        <v>2135.400390625</v>
-      </c>
-      <c r="KV4" t="n">
-        <v>2131.98681640625</v>
-      </c>
-      <c r="KW4" t="n">
-        <v>2128.1240234375</v>
-      </c>
-      <c r="KX4" t="n">
-        <v>2125.879638671875</v>
-      </c>
-      <c r="KY4" t="n">
-        <v>2123.89453125</v>
-      </c>
-      <c r="KZ4" t="n">
-        <v>2110.577880859375</v>
-      </c>
-      <c r="LA4" t="n">
-        <v>2083.942138671875</v>
-      </c>
-      <c r="LB4" t="n">
-        <v>2058.9736328125</v>
-      </c>
-      <c r="LC4" t="n">
-        <v>2033.653930664062</v>
-      </c>
-      <c r="LD4" t="n">
-        <v>2011.951293945312</v>
-      </c>
-      <c r="LE4" t="n">
-        <v>1994.611694335938</v>
-      </c>
-      <c r="LF4" t="n">
-        <v>1964.359619140625</v>
-      </c>
-      <c r="LG4" t="n">
-        <v>1922.527221679688</v>
-      </c>
-      <c r="LH4" t="n">
-        <v>1869.281860351562</v>
-      </c>
-      <c r="LI4" t="n">
-        <v>1793.390991210938</v>
-      </c>
-      <c r="LJ4" t="n">
-        <v>1716.70849609375</v>
-      </c>
-      <c r="LK4" t="n">
-        <v>1642.555908203125</v>
-      </c>
-      <c r="LL4" t="n">
-        <v>1600.38330078125</v>
-      </c>
-      <c r="LM4" t="n">
-        <v>1558.753295898438</v>
-      </c>
-      <c r="LN4" t="n">
-        <v>1504.606079101562</v>
-      </c>
-      <c r="LO4" t="n">
-        <v>1478.53173828125</v>
-      </c>
-      <c r="LP4" t="n">
-        <v>1413.136108398438</v>
-      </c>
-      <c r="LQ4" t="n">
-        <v>1288.422485351562</v>
-      </c>
-      <c r="LR4" t="n">
-        <v>1229.99462890625</v>
-      </c>
-      <c r="LS4" t="n">
-        <v>1163.456787109375</v>
-      </c>
-      <c r="LT4" t="n">
-        <v>1042.38134765625</v>
-      </c>
-      <c r="LU4" t="n">
-        <v>978.7153930664062</v>
-      </c>
-      <c r="LV4" t="n">
-        <v>903.0757446289062</v>
-      </c>
-      <c r="LW4" t="n">
-        <v>847.2534790039062</v>
-      </c>
-      <c r="LX4" t="n">
-        <v>808.9213256835938</v>
-      </c>
-      <c r="LY4" t="n">
-        <v>763.7720947265625</v>
-      </c>
-      <c r="LZ4" t="n">
-        <v>731.0418090820312</v>
-      </c>
-      <c r="MA4" t="n">
-        <v>710.1378173828125</v>
-      </c>
-      <c r="MB4" t="n">
-        <v>704.381103515625</v>
-      </c>
-      <c r="MC4" t="n">
-        <v>710.9791259765625</v>
-      </c>
-      <c r="MD4" t="n">
-        <v>773.9193725585938</v>
-      </c>
-      <c r="ME4" t="n">
-        <v>835.2943115234375</v>
-      </c>
-      <c r="MF4" t="n">
-        <v>860.6583251953125</v>
-      </c>
-      <c r="MG4" t="n">
-        <v>899.0538940429688</v>
-      </c>
-      <c r="MH4" t="n">
-        <v>927.8867797851562</v>
-      </c>
-      <c r="MI4" t="n">
-        <v>944.2427978515625</v>
-      </c>
-      <c r="MJ4" t="n">
-        <v>972.5386962890625</v>
-      </c>
-      <c r="MK4" t="n">
-        <v>979.4111328125</v>
-      </c>
-      <c r="ML4" t="n">
-        <v>990.0289306640625</v>
-      </c>
-      <c r="MM4" t="n">
-        <v>1008.199645996094</v>
-      </c>
-      <c r="MN4" t="n">
-        <v>1005.271301269531</v>
-      </c>
-      <c r="MO4" t="n">
-        <v>1017.540344238281</v>
-      </c>
-      <c r="MP4" t="n">
-        <v>1033.721313476562</v>
-      </c>
-      <c r="MQ4" t="n">
-        <v>1025.711669921875</v>
-      </c>
-      <c r="MR4" t="n">
-        <v>977.968505859375</v>
-      </c>
-      <c r="MS4" t="n">
-        <v>834.5818481445312</v>
-      </c>
-      <c r="MT4" t="n">
-        <v>676.1806030273438</v>
-      </c>
-      <c r="MU4" t="n">
-        <v>708.9486083984375</v>
-      </c>
-      <c r="MV4" t="n">
-        <v>675.0945434570312</v>
-      </c>
-      <c r="MW4" t="n">
-        <v>707.4071655273438</v>
-      </c>
-      <c r="MX4" t="n">
-        <v>699.77294921875</v>
-      </c>
-      <c r="MY4" t="n">
-        <v>720.55517578125</v>
-      </c>
-      <c r="MZ4" t="n">
-        <v>748.197509765625</v>
-      </c>
-      <c r="NA4" t="n">
-        <v>707.0753784179688</v>
-      </c>
-      <c r="NB4" t="n">
-        <v>674.3186645507812</v>
-      </c>
-      <c r="NC4" t="n">
-        <v>643.9922485351562</v>
-      </c>
-      <c r="ND4" t="n">
-        <v>646.158447265625</v>
-      </c>
-      <c r="NE4" t="n">
-        <v>644.5657348632812</v>
-      </c>
-      <c r="NF4" t="n">
-        <v>609.6253051757812</v>
-      </c>
-      <c r="NG4" t="n">
-        <v>601.2921142578125</v>
-      </c>
-      <c r="NH4" t="n">
-        <v>602.1524047851562</v>
-      </c>
-      <c r="NI4" t="n">
-        <v>619.3134765625</v>
-      </c>
-      <c r="NJ4" t="n">
-        <v>670.9664306640625</v>
-      </c>
-      <c r="NK4" t="n">
-        <v>653.045654296875</v>
-      </c>
-      <c r="NL4" t="n">
-        <v>649.744384765625</v>
-      </c>
-      <c r="NM4" t="n">
-        <v>645.65478515625</v>
+        <v>543.70849609375</v>
       </c>
     </row>
   </sheetData>
